--- a/data/new_posteriors/elementary_skills/simple_model/leak/constrained/results_model1b_leak_constrained.xlsx
+++ b/data/new_posteriors/elementary_skills/simple_model/leak/constrained/results_model1b_leak_constrained.xlsx
@@ -1598,10 +1598,10 @@
         <v>1.0</v>
       </c>
       <c r="J3" t="n" s="87">
-        <v>0.43098241024609857</v>
+        <v>0.43092671012173467</v>
       </c>
       <c r="K3" t="n" s="87">
-        <v>0.43098241024609857</v>
+        <v>0.4309267101217346</v>
       </c>
       <c r="L3" t="n" s="87">
         <v>1.0</v>
@@ -1631,16 +1631,16 @@
         <v>1.0</v>
       </c>
       <c r="U3" t="n" s="87">
-        <v>0.3341533562285287</v>
+        <v>0.3341943915044145</v>
       </c>
       <c r="V3" t="n" s="87">
         <v>0.4371308702587534</v>
       </c>
       <c r="W3" t="n" s="87">
-        <v>0.31436186422207574</v>
+        <v>0.31440161665571736</v>
       </c>
       <c r="X3" t="n" s="87">
-        <v>0.31436186422207574</v>
+        <v>0.31440161665571736</v>
       </c>
       <c r="Y3" t="n" s="87">
         <v>0.508443082510305</v>
@@ -1655,56 +1655,54 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC3" t="n" s="87">
-        <v>0.3522984213670448</v>
+        <v>0.35268940291182843</v>
       </c>
       <c r="AD3" t="n" s="87">
-        <v>0.3522984213670448</v>
+        <v>0.3526894029118285</v>
       </c>
       <c r="AE3" t="n" s="87">
-        <v>0.33056025279231976</v>
+        <v>0.33093943583620433</v>
       </c>
       <c r="AF3" t="n" s="87">
-        <v>0.33056025279231965</v>
+        <v>0.33093943583620433</v>
       </c>
       <c r="AG3" t="n" s="87">
-        <v>0.28532218997568254</v>
+        <v>0.28567162488902526</v>
       </c>
       <c r="AH3" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI3" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ3" t="n" s="87">
         <v>0.9985642136364413</v>
       </c>
       <c r="AK3" t="n" s="87">
-        <v>0.9999675191763584</v>
+        <v>0.9999666936343286</v>
       </c>
       <c r="AL3" t="n" s="87">
-        <v>0.9999998726180102</v>
+        <v>0.9999998692382027</v>
       </c>
       <c r="AM3" t="n" s="87">
         <v>0.9980691453270323</v>
       </c>
       <c r="AN3" t="n" s="87">
-        <v>0.9999996649669174</v>
+        <v>0.999999674883658</v>
       </c>
       <c r="AO3" t="n" s="87">
-        <v>0.9999999988091216</v>
+        <v>0.9999999989080357</v>
       </c>
       <c r="AP3" t="n" s="87">
         <v>0.9792813957855175</v>
       </c>
       <c r="AQ3" t="n" s="87">
-        <v>0.9999466380202044</v>
+        <v>0.9999481867243963</v>
       </c>
       <c r="AR3" t="n" s="87">
-        <v>0.9999961065268806</v>
-      </c>
-      <c r="AS3" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999962696609314</v>
+      </c>
+      <c r="AS3" s="87"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1726,10 +1724,10 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="K4" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="L4" t="n" s="87">
         <v>1.0</v>
@@ -1759,16 +1757,16 @@
         <v>0.45596990980697477</v>
       </c>
       <c r="U4" t="n" s="87">
-        <v>0.3692008036659776</v>
+        <v>0.3692275823462864</v>
       </c>
       <c r="V4" t="n" s="87">
         <v>0.4603163492691197</v>
       </c>
       <c r="W4" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="X4" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="Y4" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -1783,16 +1781,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC4" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD4" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE4" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF4" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG4" t="n" s="87">
         <v>1.0</v>
@@ -1801,38 +1799,36 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI4" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ4" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK4" t="n" s="87">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="AL4" t="n" s="87">
-        <v>0.9999999990650749</v>
+        <v>0.9999999990159324</v>
       </c>
       <c r="AM4" t="n" s="87">
         <v>0.999384719134074</v>
       </c>
       <c r="AN4" t="n" s="87">
-        <v>0.999999999350089</v>
+        <v>0.9999999993849613</v>
       </c>
       <c r="AO4" t="n" s="87">
-        <v>0.9999999999999905</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="AP4" t="n" s="87">
         <v>0.9989970627283152</v>
       </c>
       <c r="AQ4" t="n" s="87">
-        <v>0.9999999979625586</v>
+        <v>0.9999999980718838</v>
       </c>
       <c r="AR4" t="n" s="87">
-        <v>0.9999999983967446</v>
-      </c>
-      <c r="AS4" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999985094259</v>
+      </c>
+      <c r="AS4" s="87"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1854,10 +1850,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n" s="87">
-        <v>0.9826449104895507</v>
+        <v>0.9826428160916619</v>
       </c>
       <c r="K5" t="n" s="87">
-        <v>0.9826449104895507</v>
+        <v>0.9826428160916619</v>
       </c>
       <c r="L5" t="n" s="87">
         <v>1.0</v>
@@ -1887,16 +1883,16 @@
         <v>0.45152791392858266</v>
       </c>
       <c r="U5" t="n" s="87">
-        <v>0.3527440021669562</v>
+        <v>0.35277025474419205</v>
       </c>
       <c r="V5" t="n" s="87">
         <v>0.44842894975962583</v>
       </c>
       <c r="W5" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="X5" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="Y5" t="n" s="87">
         <v>0.508443082510305</v>
@@ -1911,16 +1907,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC5" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AD5" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AE5" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AF5" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AG5" t="n" s="87">
         <v>1.0</v>
@@ -1929,22 +1925,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI5" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ5" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK5" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL5" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM5" t="n" s="87">
         <v>0.9998993539645364</v>
       </c>
       <c r="AN5" t="n" s="87">
-        <v>0.9999999999995876</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="AO5" t="n" s="87">
         <v>1.0</v>
@@ -1953,14 +1949,12 @@
         <v>0.9999458540709291</v>
       </c>
       <c r="AQ5" t="n" s="87">
-        <v>0.9999999999999554</v>
+        <v>0.9999999999999578</v>
       </c>
       <c r="AR5" t="n" s="87">
-        <v>0.9999999999996647</v>
-      </c>
-      <c r="AS5" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999996882</v>
+      </c>
+      <c r="AS5" s="87"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2021,10 +2015,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W6" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X6" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y6" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2039,16 +2033,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC6" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD6" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE6" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF6" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG6" t="n" s="87">
         <v>1.0</v>
@@ -2057,22 +2051,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI6" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ6" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK6" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL6" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM6" t="n" s="87">
         <v>0.9999260358356878</v>
       </c>
       <c r="AN6" t="n" s="87">
-        <v>0.999999999999846</v>
+        <v>0.9999999999998543</v>
       </c>
       <c r="AO6" t="n" s="87">
         <v>1.0</v>
@@ -2084,11 +2078,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="AR6" t="n" s="87">
-        <v>0.9999999999999922</v>
-      </c>
-      <c r="AS6" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999928</v>
+      </c>
+      <c r="AS6" s="87"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2110,10 +2102,10 @@
         <v>1.0</v>
       </c>
       <c r="J7" t="n" s="87">
-        <v>0.9589277997542204</v>
+        <v>0.9589229628405367</v>
       </c>
       <c r="K7" t="n" s="87">
-        <v>0.9589277997542204</v>
+        <v>0.9589229628405367</v>
       </c>
       <c r="L7" t="n" s="87">
         <v>1.0</v>
@@ -2149,10 +2141,10 @@
         <v>0.44758081989265597</v>
       </c>
       <c r="W7" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="X7" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="Y7" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2167,40 +2159,40 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC7" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AD7" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AE7" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AF7" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AG7" t="n" s="87">
-        <v>0.3018051687089048</v>
+        <v>0.3020533966231678</v>
       </c>
       <c r="AH7" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI7" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ7" t="n" s="87">
         <v>0.9988640951565367</v>
       </c>
       <c r="AK7" t="n" s="87">
-        <v>0.9999934300938721</v>
+        <v>0.9999929995141481</v>
       </c>
       <c r="AL7" t="n" s="87">
-        <v>0.9999999993986544</v>
+        <v>0.9999999993670463</v>
       </c>
       <c r="AM7" t="n" s="87">
         <v>0.9998144978182121</v>
       </c>
       <c r="AN7" t="n" s="87">
-        <v>0.9999999999793701</v>
+        <v>0.9999999999804771</v>
       </c>
       <c r="AO7" t="n" s="87">
         <v>1.0</v>
@@ -2209,14 +2201,12 @@
         <v>0.9998773548791524</v>
       </c>
       <c r="AQ7" t="n" s="87">
-        <v>0.9999999999981151</v>
+        <v>0.9999999999982163</v>
       </c>
       <c r="AR7" t="n" s="87">
-        <v>0.9999999999903688</v>
-      </c>
-      <c r="AS7" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999910458</v>
+      </c>
+      <c r="AS7" s="87"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2238,10 +2228,10 @@
         <v>1.0</v>
       </c>
       <c r="J8" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="K8" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="L8" t="n" s="87">
         <v>1.0</v>
@@ -2271,16 +2261,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U8" t="n" s="87">
-        <v>0.3111729902871535</v>
+        <v>0.3111976365094076</v>
       </c>
       <c r="V8" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W8" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="X8" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="Y8" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -2295,56 +2285,54 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC8" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142896</v>
       </c>
       <c r="AD8" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142907</v>
       </c>
       <c r="AE8" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.3323950342235265</v>
       </c>
       <c r="AF8" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.33239503422352645</v>
       </c>
       <c r="AG8" t="n" s="87">
-        <v>0.2644573020009575</v>
+        <v>0.26468645728421086</v>
       </c>
       <c r="AH8" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI8" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ8" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK8" t="n" s="87">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="AL8" t="n" s="87">
-        <v>0.9999999990650749</v>
+        <v>0.9999999990159324</v>
       </c>
       <c r="AM8" t="n" s="87">
         <v>0.9988165983446476</v>
       </c>
       <c r="AN8" t="n" s="87">
-        <v>0.9999999947532792</v>
+        <v>0.9999999950348042</v>
       </c>
       <c r="AO8" t="n" s="87">
-        <v>0.9999999999928834</v>
+        <v>0.9999999999938655</v>
       </c>
       <c r="AP8" t="n" s="87">
         <v>0.9675467946773469</v>
       </c>
       <c r="AQ8" t="n" s="87">
-        <v>0.9999326461060652</v>
+        <v>0.9999362465891025</v>
       </c>
       <c r="AR8" t="n" s="87">
-        <v>0.9999978596093023</v>
-      </c>
-      <c r="AS8" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999980100416234</v>
+      </c>
+      <c r="AS8" s="87"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2405,10 +2393,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W9" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="X9" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="Y9" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2423,16 +2411,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC9" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD9" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE9" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF9" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG9" t="n" s="87">
         <v>1.0</v>
@@ -2441,22 +2429,22 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI9" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ9" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK9" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL9" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM9" t="n" s="87">
         <v>0.9999514165798032</v>
       </c>
       <c r="AN9" t="n" s="87">
-        <v>0.9999999999999524</v>
+        <v>0.999999999999955</v>
       </c>
       <c r="AO9" t="n" s="87">
         <v>1.0</v>
@@ -2470,9 +2458,7 @@
       <c r="AR9" t="n" s="87">
         <v>0.9999999999999997</v>
       </c>
-      <c r="AS9" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS9" s="87"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2494,10 +2480,10 @@
         <v>0.538163670638723</v>
       </c>
       <c r="J10" t="n" s="87">
-        <v>0.9866316960049143</v>
+        <v>0.9866300761828397</v>
       </c>
       <c r="K10" t="n" s="87">
-        <v>0.9866316960049143</v>
+        <v>0.9866300761828397</v>
       </c>
       <c r="L10" t="n" s="87">
         <v>1.0</v>
@@ -2533,10 +2519,10 @@
         <v>0.4717114786308504</v>
       </c>
       <c r="W10" t="n" s="87">
-        <v>0.38499957878515495</v>
+        <v>0.3850268039350873</v>
       </c>
       <c r="X10" t="n" s="87">
-        <v>0.38499957878515495</v>
+        <v>0.3850268039350873</v>
       </c>
       <c r="Y10" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -2551,16 +2537,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC10" t="n" s="87">
-        <v>0.3769241178686985</v>
+        <v>0.37720075072079456</v>
       </c>
       <c r="AD10" t="n" s="87">
-        <v>0.3769241178686985</v>
+        <v>0.37720075072079456</v>
       </c>
       <c r="AE10" t="n" s="87">
-        <v>0.35449809738838256</v>
+        <v>0.3547676427072143</v>
       </c>
       <c r="AF10" t="n" s="87">
-        <v>0.35449809738838256</v>
+        <v>0.3547676427072143</v>
       </c>
       <c r="AG10" t="n" s="87">
         <v>1.0</v>
@@ -2569,22 +2555,22 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI10" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ10" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK10" t="n" s="87">
-        <v>0.9999941251072504</v>
+        <v>0.9999937396794508</v>
       </c>
       <c r="AL10" t="n" s="87">
-        <v>0.9999999997236679</v>
+        <v>0.9999999997091434</v>
       </c>
       <c r="AM10" t="n" s="87">
         <v>0.9997328968678366</v>
       </c>
       <c r="AN10" t="n" s="87">
-        <v>0.9999999999718261</v>
+        <v>0.9999999999733378</v>
       </c>
       <c r="AO10" t="n" s="87">
         <v>1.0</v>
@@ -2593,14 +2579,12 @@
         <v>0.9998846195948158</v>
       </c>
       <c r="AQ10" t="n" s="87">
-        <v>0.999999999998044</v>
+        <v>0.999999999998149</v>
       </c>
       <c r="AR10" t="n" s="87">
-        <v>0.9999999999899378</v>
-      </c>
-      <c r="AS10" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999999990645</v>
+      </c>
+      <c r="AS10" s="87"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2610,7 +2594,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="n" s="87">
-        <v>0.9966143827829307</v>
+        <v>0.9966129215218652</v>
       </c>
       <c r="G11" t="n" s="87">
         <v>1.0</v>
@@ -2622,10 +2606,10 @@
         <v>1.0</v>
       </c>
       <c r="J11" t="n" s="87">
-        <v>0.9707325426347444</v>
+        <v>0.9707290534844863</v>
       </c>
       <c r="K11" t="n" s="87">
-        <v>0.9707325426347444</v>
+        <v>0.9707290534844863</v>
       </c>
       <c r="L11" t="n" s="87">
         <v>0.4483641463083361</v>
@@ -2661,10 +2645,10 @@
         <v>0.43498032325693164</v>
       </c>
       <c r="W11" t="n" s="87">
-        <v>0.3259922223976486</v>
+        <v>0.3260174868393712</v>
       </c>
       <c r="X11" t="n" s="87">
-        <v>0.3259922223976486</v>
+        <v>0.3260174868393712</v>
       </c>
       <c r="Y11" t="n" s="87">
         <v>0.49821377345635</v>
@@ -2679,16 +2663,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC11" t="n" s="87">
-        <v>0.3708682709256095</v>
+        <v>0.3711431066934158</v>
       </c>
       <c r="AD11" t="n" s="87">
-        <v>0.3708682709256095</v>
+        <v>0.3711431066934158</v>
       </c>
       <c r="AE11" t="n" s="87">
-        <v>0.3456692881820716</v>
+        <v>0.3459357180904112</v>
       </c>
       <c r="AF11" t="n" s="87">
-        <v>0.3456692881820716</v>
+        <v>0.3459357180904112</v>
       </c>
       <c r="AG11" t="n" s="87">
         <v>1.0</v>
@@ -2697,38 +2681,36 @@
         <v>0.6767977560469417</v>
       </c>
       <c r="AI11" t="n" s="87">
-        <v>0.6297703579495758</v>
+        <v>0.6300449152291466</v>
       </c>
       <c r="AJ11" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK11" t="n" s="87">
-        <v>0.9999859078529846</v>
+        <v>0.9999853029260136</v>
       </c>
       <c r="AL11" t="n" s="87">
-        <v>0.9999999439220376</v>
+        <v>0.9999999419736768</v>
       </c>
       <c r="AM11" t="n" s="87">
         <v>0.9999235655807238</v>
       </c>
       <c r="AN11" t="n" s="87">
-        <v>0.9999999999424186</v>
+        <v>0.9999999999444972</v>
       </c>
       <c r="AO11" t="n" s="87">
-        <v>0.9999999999999956</v>
+        <v>0.9999999999999959</v>
       </c>
       <c r="AP11" t="n" s="87">
         <v>0.999974168455483</v>
       </c>
       <c r="AQ11" t="n" s="87">
-        <v>0.9999999999985256</v>
+        <v>0.9999999999985788</v>
       </c>
       <c r="AR11" t="n" s="87">
-        <v>0.9999999999496539</v>
-      </c>
-      <c r="AS11" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999520156</v>
+      </c>
+      <c r="AS11" s="87"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2750,10 +2732,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n" s="87">
-        <v>0.9933995186972946</v>
+        <v>0.9933987134378107</v>
       </c>
       <c r="K12" t="n" s="87">
-        <v>0.9933995186972946</v>
+        <v>0.9933987134378107</v>
       </c>
       <c r="L12" t="n" s="87">
         <v>1.0</v>
@@ -2789,10 +2771,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W12" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="X12" t="n" s="87">
-        <v>0.3921339814238887</v>
+        <v>0.39216138937689365</v>
       </c>
       <c r="Y12" t="n" s="87">
         <v>0.508443082510305</v>
@@ -2807,16 +2789,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC12" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD12" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE12" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF12" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG12" t="n" s="87">
         <v>1.0</v>
@@ -2825,22 +2807,22 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI12" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ12" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK12" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL12" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM12" t="n" s="87">
         <v>0.9999514165798032</v>
       </c>
       <c r="AN12" t="n" s="87">
-        <v>0.9999999999999524</v>
+        <v>0.999999999999955</v>
       </c>
       <c r="AO12" t="n" s="87">
         <v>1.0</v>
@@ -2854,9 +2836,7 @@
       <c r="AR12" t="n" s="87">
         <v>0.9999999999999997</v>
       </c>
-      <c r="AS12" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS12" s="87"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2917,10 +2897,10 @@
         <v>0.4563128014265665</v>
       </c>
       <c r="W13" t="n" s="87">
-        <v>0.37311139742258637</v>
+        <v>0.37309036533709466</v>
       </c>
       <c r="X13" t="n" s="87">
-        <v>0.37311139742258637</v>
+        <v>0.37309036533709466</v>
       </c>
       <c r="Y13" t="n" s="87">
         <v>0.49821377345635</v>
@@ -2935,16 +2915,16 @@
         <v>0.4910016926702666</v>
       </c>
       <c r="AC13" t="n" s="87">
-        <v>0.36807212560597347</v>
+        <v>0.36801481002835185</v>
       </c>
       <c r="AD13" t="n" s="87">
-        <v>0.36807212560597347</v>
+        <v>0.36801481002835196</v>
       </c>
       <c r="AE13" t="n" s="87">
-        <v>0.3602112537551138</v>
+        <v>0.3601544646187419</v>
       </c>
       <c r="AF13" t="n" s="87">
-        <v>0.36021125375511376</v>
+        <v>0.3601544646187419</v>
       </c>
       <c r="AG13" t="n" s="87">
         <v>1.0</v>
@@ -2953,38 +2933,36 @@
         <v>0.715277703592466</v>
       </c>
       <c r="AI13" t="n" s="87">
-        <v>0.6519288920307267</v>
+        <v>0.6518729715604955</v>
       </c>
       <c r="AJ13" t="n" s="87">
         <v>0.9988889442131283</v>
       </c>
       <c r="AK13" t="n" s="87">
-        <v>0.9996220787480147</v>
+        <v>0.9996275229973172</v>
       </c>
       <c r="AL13" t="n" s="87">
-        <v>0.9804472685878713</v>
+        <v>0.9806150553215119</v>
       </c>
       <c r="AM13" t="n" s="87">
         <v>0.9999398263638786</v>
       </c>
       <c r="AN13" t="n" s="87">
-        <v>0.9999999718500304</v>
+        <v>0.9999999716835506</v>
       </c>
       <c r="AO13" t="n" s="87">
-        <v>0.999976308879509</v>
+        <v>0.9999761980858433</v>
       </c>
       <c r="AP13" t="n" s="87">
         <v>0.9999995359586399</v>
       </c>
       <c r="AQ13" t="n" s="87">
-        <v>0.9999999997057482</v>
+        <v>0.9999999997036979</v>
       </c>
       <c r="AR13" t="n" s="87">
-        <v>0.999997912665352</v>
-      </c>
-      <c r="AS13" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999978930350788</v>
+      </c>
+      <c r="AS13" s="87"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3045,7 +3023,7 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W14" t="n" s="87">
-        <v>0.3133160919465982</v>
+        <v>0.3133660207883482</v>
       </c>
       <c r="X14" t="n" s="87">
         <v>1.0</v>
@@ -3063,16 +3041,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC14" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.3547033719422817</v>
       </c>
       <c r="AD14" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.35470337194228174</v>
       </c>
       <c r="AE14" t="n" s="87">
-        <v>0.33243182791187037</v>
+        <v>0.3328930776899262</v>
       </c>
       <c r="AF14" t="n" s="87">
-        <v>0.33243182791187037</v>
+        <v>0.33289307768992615</v>
       </c>
       <c r="AG14" t="n" s="87">
         <v>1.0</v>
@@ -3081,7 +3059,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI14" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ14" t="n" s="87">
         <v>0.9990766231441008</v>
@@ -3105,14 +3083,12 @@
         <v>0.9891008287617592</v>
       </c>
       <c r="AQ14" t="n" s="87">
-        <v>0.9983173168674344</v>
+        <v>0.9983161363400965</v>
       </c>
       <c r="AR14" t="n" s="87">
-        <v>0.9633837463713041</v>
-      </c>
-      <c r="AS14" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9633032042054066</v>
+      </c>
+      <c r="AS14" s="87"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3134,10 +3110,10 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n" s="87">
-        <v>0.7931394078279799</v>
+        <v>0.7931021400118055</v>
       </c>
       <c r="K15" t="n" s="87">
-        <v>0.7931394078279799</v>
+        <v>0.7931021400118055</v>
       </c>
       <c r="L15" t="n" s="87">
         <v>1.0</v>
@@ -3167,16 +3143,16 @@
         <v>0.45511928589625433</v>
       </c>
       <c r="U15" t="n" s="87">
-        <v>0.36376530171951016</v>
+        <v>0.36381901052051596</v>
       </c>
       <c r="V15" t="n" s="87">
         <v>0.45946446496540444</v>
       </c>
       <c r="W15" t="n" s="87">
-        <v>0.36874918841575066</v>
+        <v>0.3688032065221858</v>
       </c>
       <c r="X15" t="n" s="87">
-        <v>0.36874918841575066</v>
+        <v>0.3688032065221858</v>
       </c>
       <c r="Y15" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -3191,16 +3167,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC15" t="n" s="87">
-        <v>0.36362213634380275</v>
+        <v>0.3641030589315423</v>
       </c>
       <c r="AD15" t="n" s="87">
-        <v>0.36362213634380275</v>
+        <v>0.36410305893154243</v>
       </c>
       <c r="AE15" t="n" s="87">
-        <v>0.33865047809954857</v>
+        <v>0.33911597315674097</v>
       </c>
       <c r="AF15" t="n" s="87">
-        <v>0.3386504780995485</v>
+        <v>0.33911597315674086</v>
       </c>
       <c r="AG15" t="n" s="87">
         <v>1.0</v>
@@ -3209,38 +3185,36 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI15" t="n" s="87">
-        <v>0.36782742122470696</v>
+        <v>0.3683106866860508</v>
       </c>
       <c r="AJ15" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK15" t="n" s="87">
-        <v>0.9999717144785565</v>
+        <v>0.9999698712862735</v>
       </c>
       <c r="AL15" t="n" s="87">
-        <v>0.999997535533224</v>
+        <v>0.9999974055532941</v>
       </c>
       <c r="AM15" t="n" s="87">
         <v>0.999384719134074</v>
       </c>
       <c r="AN15" t="n" s="87">
-        <v>0.9999996599952997</v>
+        <v>0.9999996781844159</v>
       </c>
       <c r="AO15" t="n" s="87">
-        <v>0.9999999828903521</v>
+        <v>0.9999999852285278</v>
       </c>
       <c r="AP15" t="n" s="87">
         <v>0.9968546466655142</v>
       </c>
       <c r="AQ15" t="n" s="87">
-        <v>0.9999968983126221</v>
+        <v>0.9999970622358055</v>
       </c>
       <c r="AR15" t="n" s="87">
-        <v>0.9999973077256309</v>
-      </c>
-      <c r="AS15" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999974972381875</v>
+      </c>
+      <c r="AS15" s="87"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3301,10 +3275,10 @@
         <v>0.4651384955227411</v>
       </c>
       <c r="W16" t="n" s="87">
-        <v>0.36227335264310295</v>
+        <v>0.362299917452368</v>
       </c>
       <c r="X16" t="n" s="87">
-        <v>0.36227335264310295</v>
+        <v>0.362299917452368</v>
       </c>
       <c r="Y16" t="n" s="87">
         <v>0.49821377345635</v>
@@ -3319,16 +3293,16 @@
         <v>0.4910016926702666</v>
       </c>
       <c r="AC16" t="n" s="87">
-        <v>0.37154726778318004</v>
+        <v>0.3718223093462778</v>
       </c>
       <c r="AD16" t="n" s="87">
-        <v>0.37154726778318004</v>
+        <v>0.3718223093462779</v>
       </c>
       <c r="AE16" t="n" s="87">
-        <v>0.34926183295566365</v>
+        <v>0.3495295527272813</v>
       </c>
       <c r="AF16" t="n" s="87">
-        <v>0.3492618329556636</v>
+        <v>0.34952955272728126</v>
       </c>
       <c r="AG16" t="n" s="87">
         <v>1.0</v>
@@ -3337,7 +3311,7 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI16" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ16" t="n" s="87">
         <v>0.9990766231441008</v>
@@ -3364,11 +3338,9 @@
         <v>0.9999999999747629</v>
       </c>
       <c r="AR16" t="n" s="87">
-        <v>0.9999999836743514</v>
-      </c>
-      <c r="AS16" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999836475231</v>
+      </c>
+      <c r="AS16" s="87"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3423,16 +3395,16 @@
         <v>0.45596990980697477</v>
       </c>
       <c r="U17" t="n" s="87">
-        <v>0.37950640690913084</v>
+        <v>0.3793630309631222</v>
       </c>
       <c r="V17" t="n" s="87">
         <v>0.4603163492691197</v>
       </c>
       <c r="W17" t="n" s="87">
-        <v>0.38457559917705275</v>
+        <v>0.3844314946381857</v>
       </c>
       <c r="X17" t="n" s="87">
-        <v>0.38457559917705275</v>
+        <v>0.3844314946381857</v>
       </c>
       <c r="Y17" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -3447,16 +3419,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC17" t="n" s="87">
-        <v>0.37779311269802196</v>
+        <v>0.3766101314717092</v>
       </c>
       <c r="AD17" t="n" s="87">
-        <v>0.37779311269802196</v>
+        <v>0.3766101314717092</v>
       </c>
       <c r="AE17" t="n" s="87">
-        <v>0.3553448758421174</v>
+        <v>0.3541921728034685</v>
       </c>
       <c r="AF17" t="n" s="87">
-        <v>0.35534487584211727</v>
+        <v>0.35419217280346843</v>
       </c>
       <c r="AG17" t="n" s="87">
         <v>1.0</v>
@@ -3465,22 +3437,22 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI17" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ17" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK17" t="n" s="87">
-        <v>0.9999941251072504</v>
+        <v>0.9999937396794508</v>
       </c>
       <c r="AL17" t="n" s="87">
-        <v>0.9999999997367284</v>
+        <v>0.9999999997228901</v>
       </c>
       <c r="AM17" t="n" s="87">
         <v>0.9997246082774528</v>
       </c>
       <c r="AN17" t="n" s="87">
-        <v>0.9999999999715873</v>
+        <v>0.999999999973112</v>
       </c>
       <c r="AO17" t="n" s="87">
         <v>1.0</v>
@@ -3489,14 +3461,12 @@
         <v>0.9998762630796362</v>
       </c>
       <c r="AQ17" t="n" s="87">
-        <v>0.9999999999983888</v>
+        <v>0.9999999999984753</v>
       </c>
       <c r="AR17" t="n" s="87">
-        <v>0.9999999999922329</v>
-      </c>
-      <c r="AS17" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999927858</v>
+      </c>
+      <c r="AS17" s="87"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3557,10 +3527,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W18" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="X18" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="Y18" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3575,16 +3545,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC18" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD18" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE18" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF18" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG18" t="n" s="87">
         <v>1.0</v>
@@ -3593,22 +3563,22 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI18" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ18" t="n" s="87">
         <v>0.9990766231441008</v>
       </c>
       <c r="AK18" t="n" s="87">
-        <v>0.9999976764745981</v>
+        <v>0.9999975240369777</v>
       </c>
       <c r="AL18" t="n" s="87">
-        <v>0.9999999999940302</v>
+        <v>0.9999999999937164</v>
       </c>
       <c r="AM18" t="n" s="87">
         <v>0.9999735524160116</v>
       </c>
       <c r="AN18" t="n" s="87">
-        <v>0.9999999999999949</v>
+        <v>0.9999999999999951</v>
       </c>
       <c r="AO18" t="n" s="87">
         <v>1.0</v>
@@ -3622,9 +3592,7 @@
       <c r="AR18" t="n" s="87">
         <v>1.0</v>
       </c>
-      <c r="AS18" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS18" s="87"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3685,10 +3653,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W19" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X19" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y19" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3703,16 +3671,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC19" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD19" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE19" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF19" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG19" t="n" s="87">
         <v>1.0</v>
@@ -3721,22 +3689,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI19" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ19" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK19" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL19" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM19" t="n" s="87">
         <v>0.9999260358356878</v>
       </c>
       <c r="AN19" t="n" s="87">
-        <v>0.999999999999846</v>
+        <v>0.9999999999998543</v>
       </c>
       <c r="AO19" t="n" s="87">
         <v>1.0</v>
@@ -3748,11 +3716,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="AR19" t="n" s="87">
-        <v>0.9999999999999922</v>
-      </c>
-      <c r="AS19" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999928</v>
+      </c>
+      <c r="AS19" s="87"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3774,7 +3740,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n" s="87">
-        <v>0.9826449104895507</v>
+        <v>0.9826428160916619</v>
       </c>
       <c r="K20" t="n" s="87">
         <v>1.0</v>
@@ -3813,10 +3779,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W20" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="X20" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="Y20" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3831,16 +3797,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC20" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AD20" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AE20" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AF20" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AG20" t="n" s="87">
         <v>1.0</v>
@@ -3849,22 +3815,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI20" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ20" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK20" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL20" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM20" t="n" s="87">
         <v>0.9998993539645364</v>
       </c>
       <c r="AN20" t="n" s="87">
-        <v>0.9999999999995876</v>
+        <v>0.9999999999996098</v>
       </c>
       <c r="AO20" t="n" s="87">
         <v>1.0</v>
@@ -3873,14 +3839,12 @@
         <v>0.9999458540709291</v>
       </c>
       <c r="AQ20" t="n" s="87">
-        <v>0.9999999999999554</v>
+        <v>0.9999999999999578</v>
       </c>
       <c r="AR20" t="n" s="87">
-        <v>0.9999999999996647</v>
-      </c>
-      <c r="AS20" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999996882</v>
+      </c>
+      <c r="AS20" s="87"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3941,10 +3905,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W21" t="n" s="87">
-        <v>0.4026710908958826</v>
+        <v>0.40252464068771343</v>
       </c>
       <c r="X21" t="n" s="87">
-        <v>0.4026710908958826</v>
+        <v>0.40252464068771343</v>
       </c>
       <c r="Y21" t="n" s="87">
         <v>0.508443082510305</v>
@@ -3959,16 +3923,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC21" t="n" s="87">
-        <v>0.39577470185264685</v>
+        <v>0.39457112108396536</v>
       </c>
       <c r="AD21" t="n" s="87">
-        <v>0.39577470185264685</v>
+        <v>0.39457112108396536</v>
       </c>
       <c r="AE21" t="n" s="87">
-        <v>0.3728983518113258</v>
+        <v>0.37172154083567915</v>
       </c>
       <c r="AF21" t="n" s="87">
-        <v>0.3728983518113258</v>
+        <v>0.37172154083567915</v>
       </c>
       <c r="AG21" t="n" s="87">
         <v>1.0</v>
@@ -3977,22 +3941,22 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI21" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ21" t="n" s="87">
         <v>0.9990766231441008</v>
       </c>
       <c r="AK21" t="n" s="87">
-        <v>0.9999976764745981</v>
+        <v>0.9999975240369777</v>
       </c>
       <c r="AL21" t="n" s="87">
-        <v>0.9999999999940302</v>
+        <v>0.9999999999937164</v>
       </c>
       <c r="AM21" t="n" s="87">
         <v>0.9999818912819994</v>
       </c>
       <c r="AN21" t="n" s="87">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="AO21" t="n" s="87">
         <v>1.0</v>
@@ -4006,9 +3970,7 @@
       <c r="AR21" t="n" s="87">
         <v>1.0</v>
       </c>
-      <c r="AS21" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS21" s="87"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4063,16 +4025,16 @@
         <v>1.0</v>
       </c>
       <c r="U22" t="n" s="87">
-        <v>0.3650369203644128</v>
+        <v>0.3650635718164199</v>
       </c>
       <c r="V22" t="n" s="87">
         <v>0.44842894975962583</v>
       </c>
       <c r="W22" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="X22" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="Y22" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4087,16 +4049,16 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC22" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD22" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE22" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF22" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG22" t="n" s="87">
         <v>1.0</v>
@@ -4105,22 +4067,22 @@
         <v>0.4362638694223085</v>
       </c>
       <c r="AI22" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ22" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK22" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL22" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM22" t="n" s="87">
         <v>0.9999303648009452</v>
       </c>
       <c r="AN22" t="n" s="87">
-        <v>0.9999999999998613</v>
+        <v>0.9999999999998688</v>
       </c>
       <c r="AO22" t="n" s="87">
         <v>1.0</v>
@@ -4132,11 +4094,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="AR22" t="n" s="87">
-        <v>0.9999999999999888</v>
-      </c>
-      <c r="AS22" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999896</v>
+      </c>
+      <c r="AS22" s="87"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4197,10 +4157,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W23" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X23" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y23" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4215,16 +4175,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC23" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD23" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE23" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF23" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG23" t="n" s="87">
         <v>1.0</v>
@@ -4233,22 +4193,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI23" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ23" t="n" s="87">
         <v>0.9990766231441008</v>
       </c>
       <c r="AK23" t="n" s="87">
-        <v>0.9999976764745981</v>
+        <v>0.9999975240369777</v>
       </c>
       <c r="AL23" t="n" s="87">
-        <v>0.9999999999940302</v>
+        <v>0.9999999999937164</v>
       </c>
       <c r="AM23" t="n" s="87">
         <v>0.9999620685605709</v>
       </c>
       <c r="AN23" t="n" s="87">
-        <v>0.9999999999999851</v>
+        <v>0.999999999999986</v>
       </c>
       <c r="AO23" t="n" s="87">
         <v>1.0</v>
@@ -4262,9 +4222,7 @@
       <c r="AR23" t="n" s="87">
         <v>0.9999999999999983</v>
       </c>
-      <c r="AS23" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS23" s="87"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4286,10 +4244,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n" s="87">
-        <v>0.9924473112381713</v>
+        <v>0.9924463906925959</v>
       </c>
       <c r="K24" t="n" s="87">
-        <v>0.9924473112381713</v>
+        <v>0.9924463906925959</v>
       </c>
       <c r="L24" t="n" s="87">
         <v>1.0</v>
@@ -4325,10 +4283,10 @@
         <v>0.44842894975962583</v>
       </c>
       <c r="W24" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="X24" t="n" s="87">
-        <v>0.3443622553338705</v>
+        <v>0.34438821601799957</v>
       </c>
       <c r="Y24" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4343,40 +4301,40 @@
         <v>0.5059428794416613</v>
       </c>
       <c r="AC24" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AD24" t="n" s="87">
-        <v>0.384002312564482</v>
+        <v>0.3842809363490092</v>
       </c>
       <c r="AE24" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AF24" t="n" s="87">
-        <v>0.3613994260246176</v>
+        <v>0.3616712786872962</v>
       </c>
       <c r="AG24" t="n" s="87">
-        <v>0.3139200203118172</v>
+        <v>0.31417372873014787</v>
       </c>
       <c r="AH24" t="n" s="87">
         <v>0.4362638694223085</v>
       </c>
       <c r="AI24" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ24" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK24" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL24" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM24" t="n" s="87">
         <v>0.9999303648009452</v>
       </c>
       <c r="AN24" t="n" s="87">
-        <v>0.9999999999998613</v>
+        <v>0.9999999999998688</v>
       </c>
       <c r="AO24" t="n" s="87">
         <v>1.0</v>
@@ -4388,11 +4346,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="AR24" t="n" s="87">
-        <v>0.9999999999999888</v>
-      </c>
-      <c r="AS24" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999896</v>
+      </c>
+      <c r="AS24" s="87"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4414,10 +4370,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n" s="87">
-        <v>0.9821464708443363</v>
+        <v>0.9821443173881738</v>
       </c>
       <c r="K25" t="n" s="87">
-        <v>0.9821464708443363</v>
+        <v>0.9821443173881738</v>
       </c>
       <c r="L25" t="n" s="87">
         <v>1.0</v>
@@ -4453,10 +4409,10 @@
         <v>0.44758081989265597</v>
       </c>
       <c r="W25" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="X25" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="Y25" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4471,16 +4427,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC25" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AD25" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AE25" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AF25" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AG25" t="n" s="87">
         <v>1.0</v>
@@ -4489,22 +4445,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI25" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ25" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK25" t="n" s="87">
-        <v>0.999995302031617</v>
+        <v>0.9999949941346813</v>
       </c>
       <c r="AL25" t="n" s="87">
-        <v>0.9999999998334941</v>
+        <v>0.9999999998247423</v>
       </c>
       <c r="AM25" t="n" s="87">
         <v>0.9998993539645364</v>
       </c>
       <c r="AN25" t="n" s="87">
-        <v>0.9999999999978676</v>
+        <v>0.9999999999979821</v>
       </c>
       <c r="AO25" t="n" s="87">
         <v>1.0</v>
@@ -4513,14 +4469,12 @@
         <v>0.9999259744654091</v>
       </c>
       <c r="AQ25" t="n" s="87">
-        <v>0.9999999999997004</v>
+        <v>0.9999999999997164</v>
       </c>
       <c r="AR25" t="n" s="87">
-        <v>0.9999999999978596</v>
-      </c>
-      <c r="AS25" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.99999999999801</v>
+      </c>
+      <c r="AS25" s="87"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4575,16 +4529,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U26" t="n" s="87">
-        <v>0.3134275063030318</v>
+        <v>0.31329648982588393</v>
       </c>
       <c r="V26" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W26" t="n" s="87">
-        <v>0.31852669206905304</v>
+        <v>0.31839453255294786</v>
       </c>
       <c r="X26" t="n" s="87">
-        <v>0.31852669206905304</v>
+        <v>0.31839453255294786</v>
       </c>
       <c r="Y26" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -4599,16 +4553,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC26" t="n" s="87">
-        <v>0.3612084871198496</v>
+        <v>0.36004738654632384</v>
       </c>
       <c r="AD26" t="n" s="87">
-        <v>0.3612084871198496</v>
+        <v>0.3600473865463239</v>
       </c>
       <c r="AE26" t="n" s="87">
-        <v>0.3392084618472652</v>
+        <v>0.33808065213643296</v>
       </c>
       <c r="AF26" t="n" s="87">
-        <v>0.33920846184726516</v>
+        <v>0.3380806521364329</v>
       </c>
       <c r="AG26" t="n" s="87">
         <v>1.0</v>
@@ -4617,38 +4571,36 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI26" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ26" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK26" t="n" s="87">
-        <v>0.9995810410926896</v>
+        <v>0.9996006073193346</v>
       </c>
       <c r="AL26" t="n" s="87">
-        <v>0.9997369297686626</v>
+        <v>0.999743238856472</v>
       </c>
       <c r="AM26" t="n" s="87">
         <v>0.998458067136193</v>
       </c>
       <c r="AN26" t="n" s="87">
-        <v>0.9999754820903886</v>
+        <v>0.999974992387802</v>
       </c>
       <c r="AO26" t="n" s="87">
-        <v>0.9999927031495719</v>
+        <v>0.999992589382821</v>
       </c>
       <c r="AP26" t="n" s="87">
         <v>0.9458341779522691</v>
       </c>
       <c r="AQ26" t="n" s="87">
-        <v>0.9945290108727061</v>
+        <v>0.9944639429584015</v>
       </c>
       <c r="AR26" t="n" s="87">
-        <v>0.9995205872985691</v>
-      </c>
-      <c r="AS26" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9995124539677288</v>
+      </c>
+      <c r="AS26" s="87"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4703,13 +4655,13 @@
         <v>0.4412543813673934</v>
       </c>
       <c r="U27" t="n" s="87">
-        <v>0.33711490289460033</v>
+        <v>0.33716676208459456</v>
       </c>
       <c r="V27" t="n" s="87">
         <v>0.4445182169919299</v>
       </c>
       <c r="W27" t="n" s="87">
-        <v>0.3424072684305041</v>
+        <v>0.342459521158366</v>
       </c>
       <c r="X27" t="n" s="87">
         <v>1.0</v>
@@ -4727,16 +4679,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC27" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.3547033719422817</v>
       </c>
       <c r="AD27" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.35470337194228174</v>
       </c>
       <c r="AE27" t="n" s="87">
-        <v>0.3295673271301924</v>
+        <v>0.33002656728703655</v>
       </c>
       <c r="AF27" t="n" s="87">
-        <v>0.3295673271301924</v>
+        <v>0.33002656728703655</v>
       </c>
       <c r="AG27" t="n" s="87">
         <v>1.0</v>
@@ -4745,38 +4697,36 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI27" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ27" t="n" s="87">
         <v>0.9990041798783298</v>
       </c>
       <c r="AK27" t="n" s="87">
-        <v>0.9997998856006198</v>
+        <v>0.9998028503654033</v>
       </c>
       <c r="AL27" t="n" s="87">
-        <v>0.9723614864730393</v>
+        <v>0.9726096643483403</v>
       </c>
       <c r="AM27" t="n" s="87">
         <v>0.9998627582482975</v>
       </c>
       <c r="AN27" t="n" s="87">
-        <v>0.999993387227475</v>
+        <v>0.9999933513502179</v>
       </c>
       <c r="AO27" t="n" s="87">
-        <v>0.9949078983555404</v>
+        <v>0.9949135104128655</v>
       </c>
       <c r="AP27" t="n" s="87">
         <v>0.9963725732350401</v>
       </c>
       <c r="AQ27" t="n" s="87">
-        <v>0.9994100004775586</v>
+        <v>0.9994095335885392</v>
       </c>
       <c r="AR27" t="n" s="87">
-        <v>0.878958165121725</v>
-      </c>
-      <c r="AS27" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8778186750331622</v>
+      </c>
+      <c r="AS27" s="87"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4798,10 +4748,10 @@
         <v>1.0</v>
       </c>
       <c r="J28" t="n" s="87">
-        <v>0.9530513751592123</v>
+        <v>0.9530458800878816</v>
       </c>
       <c r="K28" t="n" s="87">
-        <v>0.9530513751592123</v>
+        <v>0.9530458800878815</v>
       </c>
       <c r="L28" t="n" s="87">
         <v>1.0</v>
@@ -4837,10 +4787,10 @@
         <v>0.44758081989265597</v>
       </c>
       <c r="W28" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="X28" t="n" s="87">
-        <v>0.3316404675843619</v>
+        <v>0.33166595436273527</v>
       </c>
       <c r="Y28" t="n" s="87">
         <v>0.508443082510305</v>
@@ -4855,40 +4805,40 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC28" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AD28" t="n" s="87">
-        <v>0.37064396633757074</v>
+        <v>0.37091873388278185</v>
       </c>
       <c r="AE28" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AF28" t="n" s="87">
-        <v>0.34838267687667757</v>
+        <v>0.34865008380805246</v>
       </c>
       <c r="AG28" t="n" s="87">
-        <v>0.3018051687089048</v>
+        <v>0.3020533966231678</v>
       </c>
       <c r="AH28" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI28" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ28" t="n" s="87">
         <v>0.9987626801665062</v>
       </c>
       <c r="AK28" t="n" s="87">
-        <v>0.9999910670396569</v>
+        <v>0.9999904815911225</v>
       </c>
       <c r="AL28" t="n" s="87">
-        <v>0.9999999978191767</v>
+        <v>0.9999999977045456</v>
       </c>
       <c r="AM28" t="n" s="87">
         <v>0.9996758804230857</v>
       </c>
       <c r="AN28" t="n" s="87">
-        <v>0.9999999998096747</v>
+        <v>0.999999999819887</v>
       </c>
       <c r="AO28" t="n" s="87">
         <v>0.9999999999999996</v>
@@ -4897,14 +4847,12 @@
         <v>0.999805149804727</v>
       </c>
       <c r="AQ28" t="n" s="87">
-        <v>0.999999999988375</v>
+        <v>0.9999999999889987</v>
       </c>
       <c r="AR28" t="n" s="87">
-        <v>0.9999999999549685</v>
-      </c>
-      <c r="AS28" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999581334</v>
+      </c>
+      <c r="AS28" s="87"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4926,10 +4874,10 @@
         <v>1.0</v>
       </c>
       <c r="J29" t="n" s="87">
-        <v>0.4325611873465659</v>
+        <v>0.43253104528358827</v>
       </c>
       <c r="K29" t="n" s="87">
-        <v>0.4325611873465659</v>
+        <v>0.4325310452835882</v>
       </c>
       <c r="L29" t="n" s="87">
         <v>0.4504947723308551</v>
@@ -4959,16 +4907,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U29" t="n" s="87">
-        <v>0.3334444913852948</v>
+        <v>0.3334700476310695</v>
       </c>
       <c r="V29" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W29" t="n" s="87">
-        <v>0.33823380269038567</v>
+        <v>0.33825953972674294</v>
       </c>
       <c r="X29" t="n" s="87">
-        <v>0.33823380269038567</v>
+        <v>0.33825953972674294</v>
       </c>
       <c r="Y29" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -4983,16 +4931,16 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC29" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142896</v>
       </c>
       <c r="AD29" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142907</v>
       </c>
       <c r="AE29" t="n" s="87">
-        <v>0.3551320032101397</v>
+        <v>0.3554017651462192</v>
       </c>
       <c r="AF29" t="n" s="87">
-        <v>0.35513200321013966</v>
+        <v>0.3554017651462192</v>
       </c>
       <c r="AG29" t="n" s="87">
         <v>1.0</v>
@@ -5001,38 +4949,36 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI29" t="n" s="87">
-        <v>0.3968064807957032</v>
+        <v>0.3970884061525297</v>
       </c>
       <c r="AJ29" t="n" s="87">
         <v>0.9984540813360937</v>
       </c>
       <c r="AK29" t="n" s="87">
-        <v>0.9999853754217962</v>
+        <v>0.9999844159716955</v>
       </c>
       <c r="AL29" t="n" s="87">
-        <v>0.9999999877573273</v>
+        <v>0.9999999871136553</v>
       </c>
       <c r="AM29" t="n" s="87">
         <v>0.997138249655535</v>
       </c>
       <c r="AN29" t="n" s="87">
-        <v>0.9999998145228889</v>
+        <v>0.9999998244729191</v>
       </c>
       <c r="AO29" t="n" s="87">
-        <v>0.9999999998899799</v>
+        <v>0.9999999999051742</v>
       </c>
       <c r="AP29" t="n" s="87">
         <v>0.9826339176244163</v>
       </c>
       <c r="AQ29" t="n" s="87">
-        <v>0.9999885250123196</v>
+        <v>0.999989139934444</v>
       </c>
       <c r="AR29" t="n" s="87">
-        <v>0.9999991619369073</v>
-      </c>
-      <c r="AS29" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999992208817369</v>
+      </c>
+      <c r="AS29" s="87"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5054,10 +5000,10 @@
         <v>1.0</v>
       </c>
       <c r="J30" t="n" s="87">
-        <v>0.2672685024525803</v>
+        <v>0.2672240242303948</v>
       </c>
       <c r="K30" t="n" s="87">
-        <v>0.26726850245258027</v>
+        <v>0.26722402423039476</v>
       </c>
       <c r="L30" t="n" s="87">
         <v>1.0</v>
@@ -5087,16 +5033,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U30" t="n" s="87">
-        <v>0.29982550005371283</v>
+        <v>0.29987421790626223</v>
       </c>
       <c r="V30" t="n" s="87">
         <v>0.4029408553204122</v>
       </c>
       <c r="W30" t="n" s="87">
-        <v>0.30622834319851255</v>
+        <v>0.30627764633776083</v>
       </c>
       <c r="X30" t="n" s="87">
-        <v>0.30622834319851255</v>
+        <v>0.30627764633776083</v>
       </c>
       <c r="Y30" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5111,16 +5057,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC30" t="n" s="87">
-        <v>0.3496176363597056</v>
+        <v>0.350090226357723</v>
       </c>
       <c r="AD30" t="n" s="87">
-        <v>0.3496176363597056</v>
+        <v>0.350090226357723</v>
       </c>
       <c r="AE30" t="n" s="87">
-        <v>0.3251163864262868</v>
+        <v>0.32557243625417087</v>
       </c>
       <c r="AF30" t="n" s="87">
-        <v>0.3251163864262868</v>
+        <v>0.3255724362541708</v>
       </c>
       <c r="AG30" t="n" s="87">
         <v>1.0</v>
@@ -5129,38 +5075,36 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI30" t="n" s="87">
-        <v>0.36782742122470696</v>
+        <v>0.3683106866860508</v>
       </c>
       <c r="AJ30" t="n" s="87">
         <v>0.9984540813360937</v>
       </c>
       <c r="AK30" t="n" s="87">
-        <v>0.9982183916357384</v>
+        <v>0.9982950719889954</v>
       </c>
       <c r="AL30" t="n" s="87">
-        <v>0.9594437542302359</v>
+        <v>0.960811987586675</v>
       </c>
       <c r="AM30" t="n" s="87">
         <v>0.9929111761365406</v>
       </c>
       <c r="AN30" t="n" s="87">
-        <v>0.9895794718115233</v>
+        <v>0.9894933879918457</v>
       </c>
       <c r="AO30" t="n" s="87">
-        <v>0.9768007034260304</v>
+        <v>0.9769139818233317</v>
       </c>
       <c r="AP30" t="n" s="87">
         <v>0.6773692904667576</v>
       </c>
       <c r="AQ30" t="n" s="87">
-        <v>0.5817340684048046</v>
+        <v>0.5815617743850766</v>
       </c>
       <c r="AR30" t="n" s="87">
-        <v>0.002301389329637402</v>
-      </c>
-      <c r="AS30" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0022237369793498647</v>
+      </c>
+      <c r="AS30" s="87"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5221,10 +5165,10 @@
         <v>0.4996357286188256</v>
       </c>
       <c r="W31" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="X31" t="n" s="87">
-        <v>0.3898890143956791</v>
+        <v>0.389744179746509</v>
       </c>
       <c r="Y31" t="n" s="87">
         <v>0.508443082510305</v>
@@ -5239,16 +5183,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC31" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD31" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE31" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF31" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG31" t="n" s="87">
         <v>1.0</v>
@@ -5257,22 +5201,22 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI31" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ31" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK31" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL31" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM31" t="n" s="87">
         <v>0.99994835488775</v>
       </c>
       <c r="AN31" t="n" s="87">
-        <v>0.9999999999999472</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="AO31" t="n" s="87">
         <v>1.0</v>
@@ -5286,9 +5230,7 @@
       <c r="AR31" t="n" s="87">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AS31" t="n" s="87">
-        <v>0.5</v>
-      </c>
+      <c r="AS31" s="87"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5310,10 +5252,10 @@
         <v>1.0</v>
       </c>
       <c r="J32" t="n" s="87">
-        <v>0.2909522563590226</v>
+        <v>0.2909269228095576</v>
       </c>
       <c r="K32" t="n" s="87">
-        <v>0.2909522563590226</v>
+        <v>0.29092692280955756</v>
       </c>
       <c r="L32" t="n" s="87">
         <v>1.0</v>
@@ -5343,16 +5285,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U32" t="n" s="87">
-        <v>0.29962355161151655</v>
+        <v>0.299657676545663</v>
       </c>
       <c r="V32" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W32" t="n" s="87">
-        <v>0.30459779336465354</v>
+        <v>0.30463223841363346</v>
       </c>
       <c r="X32" t="n" s="87">
-        <v>0.30459779336465354</v>
+        <v>0.30463223841363346</v>
       </c>
       <c r="Y32" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5367,56 +5309,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC32" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.34832762935953465</v>
       </c>
       <c r="AD32" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.3483276293595347</v>
       </c>
       <c r="AE32" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.32387176475664015</v>
       </c>
       <c r="AF32" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.3238717647566401</v>
       </c>
       <c r="AG32" t="n" s="87">
-        <v>0.25267048456822894</v>
+        <v>0.2529618510066298</v>
       </c>
       <c r="AH32" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI32" t="n" s="87">
-        <v>0.3677120177726493</v>
+        <v>0.3680707071728931</v>
       </c>
       <c r="AJ32" t="n" s="87">
         <v>0.9984540813360937</v>
       </c>
       <c r="AK32" t="n" s="87">
-        <v>0.9966972976037197</v>
+        <v>0.9968239061169433</v>
       </c>
       <c r="AL32" t="n" s="87">
-        <v>0.8884445030727193</v>
+        <v>0.892262523825192</v>
       </c>
       <c r="AM32" t="n" s="87">
         <v>0.9919699160194416</v>
       </c>
       <c r="AN32" t="n" s="87">
-        <v>0.9848087101883131</v>
+        <v>0.9847345516422724</v>
       </c>
       <c r="AO32" t="n" s="87">
-        <v>0.9360451923306377</v>
+        <v>0.936810025096397</v>
       </c>
       <c r="AP32" t="n" s="87">
         <v>0.6635815379089296</v>
       </c>
       <c r="AQ32" t="n" s="87">
-        <v>0.5398063062544446</v>
+        <v>0.5397372381398877</v>
       </c>
       <c r="AR32" t="n" s="87">
-        <v>3.94233859498104E-4</v>
-      </c>
-      <c r="AS32" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>3.805365338428937E-4</v>
+      </c>
+      <c r="AS32" s="87"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5471,16 +5411,16 @@
         <v>0.3938665003220677</v>
       </c>
       <c r="U33" t="n" s="87">
-        <v>0.30276966391818083</v>
+        <v>0.30281865326137286</v>
       </c>
       <c r="V33" t="n" s="87">
         <v>0.3957199859479192</v>
       </c>
       <c r="W33" t="n" s="87">
-        <v>0.308357353815444</v>
+        <v>0.3084068473527507</v>
       </c>
       <c r="X33" t="n" s="87">
-        <v>0.308357353815444</v>
+        <v>0.3084068473527507</v>
       </c>
       <c r="Y33" t="n" s="87">
         <v>0.4754596498940317</v>
@@ -5495,56 +5435,54 @@
         <v>0.4682695703355419</v>
       </c>
       <c r="AC33" t="n" s="87">
-        <v>0.35189529787371393</v>
+        <v>0.3523692986115516</v>
       </c>
       <c r="AD33" t="n" s="87">
-        <v>0.35189529787371393</v>
+        <v>0.3523692986115516</v>
       </c>
       <c r="AE33" t="n" s="87">
-        <v>0.327314759706025</v>
+        <v>0.32777239557574844</v>
       </c>
       <c r="AF33" t="n" s="87">
-        <v>0.32731475970602497</v>
+        <v>0.3277723955757484</v>
       </c>
       <c r="AG33" t="n" s="87">
-        <v>0.29383327705997075</v>
+        <v>0.29426457861074357</v>
       </c>
       <c r="AH33" t="n" s="87">
         <v>0.4282959160201773</v>
       </c>
       <c r="AI33" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ33" t="n" s="87">
         <v>0.9952973343168744</v>
       </c>
       <c r="AK33" t="n" s="87">
-        <v>0.9829016848712308</v>
+        <v>0.983421338464255</v>
       </c>
       <c r="AL33" t="n" s="87">
-        <v>0.6293143491165267</v>
+        <v>0.6389180358498352</v>
       </c>
       <c r="AM33" t="n" s="87">
         <v>0.9859971568816581</v>
       </c>
       <c r="AN33" t="n" s="87">
-        <v>0.9859885839672219</v>
+        <v>0.9859517426741583</v>
       </c>
       <c r="AO33" t="n" s="87">
-        <v>0.7050164876474789</v>
+        <v>0.7094063895126268</v>
       </c>
       <c r="AP33" t="n" s="87">
         <v>0.6968802685972864</v>
       </c>
       <c r="AQ33" t="n" s="87">
-        <v>0.7702655452712122</v>
+        <v>0.770140988180738</v>
       </c>
       <c r="AR33" t="n" s="87">
-        <v>1.9591100718889298E-4</v>
-      </c>
-      <c r="AS33" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.8889719315325556E-4</v>
+      </c>
+      <c r="AS33" s="87"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5566,10 +5504,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n" s="87">
-        <v>0.40120881876860104</v>
+        <v>0.4011542538066491</v>
       </c>
       <c r="K34" t="n" s="87">
-        <v>0.40120881876860104</v>
+        <v>0.4011542538066491</v>
       </c>
       <c r="L34" t="n" s="87">
         <v>1.0</v>
@@ -5599,16 +5537,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U34" t="n" s="87">
-        <v>0.3299809711686017</v>
+        <v>0.3300322793089743</v>
       </c>
       <c r="V34" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W34" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="X34" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="Y34" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5623,56 +5561,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC34" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD34" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE34" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF34" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG34" t="n" s="87">
-        <v>0.28007979288742785</v>
+        <v>0.28049892539813304</v>
       </c>
       <c r="AH34" t="n" s="87">
         <v>0.4549116989102941</v>
       </c>
       <c r="AI34" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ34" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK34" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL34" t="n" s="87">
-        <v>0.8556057025130123</v>
+        <v>0.8602025542628264</v>
       </c>
       <c r="AM34" t="n" s="87">
         <v>0.9985205883617512</v>
       </c>
       <c r="AN34" t="n" s="87">
-        <v>0.9983377109737417</v>
+        <v>0.9983271452890466</v>
       </c>
       <c r="AO34" t="n" s="87">
-        <v>0.9269171081550903</v>
+        <v>0.9277069753573616</v>
       </c>
       <c r="AP34" t="n" s="87">
         <v>0.9137954061598659</v>
       </c>
       <c r="AQ34" t="n" s="87">
-        <v>0.969633913256691</v>
+        <v>0.9696129798348145</v>
       </c>
       <c r="AR34" t="n" s="87">
-        <v>0.010564117469684534</v>
-      </c>
-      <c r="AS34" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.010201896539666445</v>
+      </c>
+      <c r="AS34" s="87"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5727,16 +5663,16 @@
         <v>0.39239606263403903</v>
       </c>
       <c r="U35" t="n" s="87">
-        <v>0.29332175317539355</v>
+        <v>0.2933501308220714</v>
       </c>
       <c r="V35" t="n" s="87">
         <v>0.3942471293397098</v>
       </c>
       <c r="W35" t="n" s="87">
-        <v>0.29643657003320145</v>
+        <v>0.2964651226051077</v>
       </c>
       <c r="X35" t="n" s="87">
-        <v>0.29643657003320145</v>
+        <v>0.2964651226051077</v>
       </c>
       <c r="Y35" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5751,56 +5687,54 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC35" t="n" s="87">
-        <v>0.3432234323619545</v>
+        <v>0.3435002370628802</v>
       </c>
       <c r="AD35" t="n" s="87">
-        <v>0.3432234323619545</v>
+        <v>0.3435002370628803</v>
       </c>
       <c r="AE35" t="n" s="87">
-        <v>0.31895053549720953</v>
+        <v>0.31921727898022606</v>
       </c>
       <c r="AF35" t="n" s="87">
-        <v>0.3189505354972094</v>
+        <v>0.31921727898022606</v>
       </c>
       <c r="AG35" t="n" s="87">
-        <v>0.3117047063155704</v>
+        <v>0.3119681658075901</v>
       </c>
       <c r="AH35" t="n" s="87">
         <v>0.44585118391102757</v>
       </c>
       <c r="AI35" t="n" s="87">
-        <v>0.3670860743960838</v>
+        <v>0.36737135925123693</v>
       </c>
       <c r="AJ35" t="n" s="87">
         <v>0.9908540349905643</v>
       </c>
       <c r="AK35" t="n" s="87">
-        <v>0.9324490882123566</v>
+        <v>0.9336625666945313</v>
       </c>
       <c r="AL35" t="n" s="87">
-        <v>0.6548592817511922</v>
+        <v>0.6613456136211482</v>
       </c>
       <c r="AM35" t="n" s="87">
         <v>0.9169258579180473</v>
       </c>
       <c r="AN35" t="n" s="87">
-        <v>0.9023086703375631</v>
+        <v>0.9022607364718171</v>
       </c>
       <c r="AO35" t="n" s="87">
-        <v>0.3118117790250046</v>
+        <v>0.31511090663398944</v>
       </c>
       <c r="AP35" t="n" s="87">
         <v>0.352230757479013</v>
       </c>
       <c r="AQ35" t="n" s="87">
-        <v>0.037256004316466</v>
+        <v>0.03724070638712042</v>
       </c>
       <c r="AR35" t="n" s="87">
-        <v>4.4897919584530466E-7</v>
-      </c>
-      <c r="AS35" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.381200838053302E-7</v>
+      </c>
+      <c r="AS35" s="87"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5822,10 +5756,10 @@
         <v>1.0</v>
       </c>
       <c r="J36" t="n" s="87">
-        <v>0.37615077917767253</v>
+        <v>0.37609748164288764</v>
       </c>
       <c r="K36" t="n" s="87">
-        <v>0.3761507791776725</v>
+        <v>0.3760974816428877</v>
       </c>
       <c r="L36" t="n" s="87">
         <v>1.0</v>
@@ -5855,16 +5789,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U36" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V36" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W36" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X36" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y36" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -5879,56 +5813,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC36" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD36" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE36" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF36" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG36" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH36" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI36" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ36" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK36" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL36" t="n" s="87">
-        <v>0.8453306498321572</v>
+        <v>0.8503438456735428</v>
       </c>
       <c r="AM36" t="n" s="87">
         <v>0.9979791884546451</v>
       </c>
       <c r="AN36" t="n" s="87">
-        <v>0.9969577727517127</v>
+        <v>0.9969419732672697</v>
       </c>
       <c r="AO36" t="n" s="87">
-        <v>0.9132459561665087</v>
+        <v>0.9141704144724774</v>
       </c>
       <c r="AP36" t="n" s="87">
         <v>0.7553492352203801</v>
       </c>
       <c r="AQ36" t="n" s="87">
-        <v>0.7980003864940732</v>
+        <v>0.7978868606199131</v>
       </c>
       <c r="AR36" t="n" s="87">
-        <v>4.528796951378493E-4</v>
-      </c>
-      <c r="AS36" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.370129584914067E-4</v>
+      </c>
+      <c r="AS36" s="87"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5983,16 +5915,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U37" t="n" s="87">
-        <v>0.3299809711686017</v>
+        <v>0.3300322793089743</v>
       </c>
       <c r="V37" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W37" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="X37" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="Y37" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6007,16 +5939,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC37" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD37" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE37" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF37" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG37" t="n" s="87">
         <v>1.0</v>
@@ -6025,38 +5957,36 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI37" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ37" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK37" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL37" t="n" s="87">
-        <v>0.8556057025130123</v>
+        <v>0.8602025542628264</v>
       </c>
       <c r="AM37" t="n" s="87">
         <v>0.9985205883617512</v>
       </c>
       <c r="AN37" t="n" s="87">
-        <v>0.9983377109737417</v>
+        <v>0.9983271452890466</v>
       </c>
       <c r="AO37" t="n" s="87">
-        <v>0.9269171081550903</v>
+        <v>0.9277069753573616</v>
       </c>
       <c r="AP37" t="n" s="87">
         <v>0.9137954061598659</v>
       </c>
       <c r="AQ37" t="n" s="87">
-        <v>0.969633913256691</v>
+        <v>0.9696129798348145</v>
       </c>
       <c r="AR37" t="n" s="87">
-        <v>0.010564117469684534</v>
-      </c>
-      <c r="AS37" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.010201896539666445</v>
+      </c>
+      <c r="AS37" s="87"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6111,16 +6041,16 @@
         <v>0.4341997435789006</v>
       </c>
       <c r="U38" t="n" s="87">
-        <v>0.3502118387190142</v>
+        <v>0.3501913763848782</v>
       </c>
       <c r="V38" t="n" s="87">
         <v>0.4374522516299245</v>
       </c>
       <c r="W38" t="n" s="87">
-        <v>0.3555995157994245</v>
+        <v>0.3555789109339265</v>
       </c>
       <c r="X38" t="n" s="87">
-        <v>0.3555995157994245</v>
+        <v>0.3555789109339265</v>
       </c>
       <c r="Y38" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6135,16 +6065,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC38" t="n" s="87">
-        <v>0.36508288825657503</v>
+        <v>0.3650257692794593</v>
       </c>
       <c r="AD38" t="n" s="87">
-        <v>0.36508288825657503</v>
+        <v>0.3650257692794593</v>
       </c>
       <c r="AE38" t="n" s="87">
-        <v>0.34297358437173314</v>
+        <v>0.3429180562416695</v>
       </c>
       <c r="AF38" t="n" s="87">
-        <v>0.34297358437173303</v>
+        <v>0.3429180562416695</v>
       </c>
       <c r="AG38" t="n" s="87">
         <v>1.0</v>
@@ -6153,38 +6083,36 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI38" t="n" s="87">
-        <v>0.3787122725610601</v>
+        <v>0.3786542929197252</v>
       </c>
       <c r="AJ38" t="n" s="87">
         <v>0.9988426146034837</v>
       </c>
       <c r="AK38" t="n" s="87">
-        <v>0.9997147433416765</v>
+        <v>0.9997279531877273</v>
       </c>
       <c r="AL38" t="n" s="87">
-        <v>0.9996737919769435</v>
+        <v>0.9996815823972282</v>
       </c>
       <c r="AM38" t="n" s="87">
         <v>0.9996452950804896</v>
       </c>
       <c r="AN38" t="n" s="87">
-        <v>0.9999995831069539</v>
+        <v>0.9999995747367654</v>
       </c>
       <c r="AO38" t="n" s="87">
-        <v>0.9999907427855677</v>
+        <v>0.9999905838011359</v>
       </c>
       <c r="AP38" t="n" s="87">
         <v>0.9994167112544794</v>
       </c>
       <c r="AQ38" t="n" s="87">
-        <v>0.999969378179485</v>
+        <v>0.9999689208363713</v>
       </c>
       <c r="AR38" t="n" s="87">
-        <v>0.9998744508520603</v>
-      </c>
-      <c r="AS38" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9998722149587151</v>
+      </c>
+      <c r="AS38" s="87"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6239,16 +6167,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U39" t="n" s="87">
-        <v>0.3065636984002855</v>
+        <v>0.3066130316700534</v>
       </c>
       <c r="V39" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W39" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="X39" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="Y39" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6263,16 +6191,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC39" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.35583868176366007</v>
       </c>
       <c r="AD39" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.3558386817636602</v>
       </c>
       <c r="AE39" t="n" s="87">
-        <v>0.33066340940044403</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AF39" t="n" s="87">
-        <v>0.330663409400444</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AG39" t="n" s="87">
         <v>1.0</v>
@@ -6281,38 +6209,36 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI39" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ39" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK39" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL39" t="n" s="87">
-        <v>0.8540871750613294</v>
+        <v>0.8587448170994975</v>
       </c>
       <c r="AM39" t="n" s="87">
         <v>0.9985392405945626</v>
       </c>
       <c r="AN39" t="n" s="87">
-        <v>0.9983046343181067</v>
+        <v>0.9982941455693518</v>
       </c>
       <c r="AO39" t="n" s="87">
-        <v>0.9223680275595959</v>
+        <v>0.9232030168073817</v>
       </c>
       <c r="AP39" t="n" s="87">
         <v>0.9134538169389822</v>
       </c>
       <c r="AQ39" t="n" s="87">
-        <v>0.9679263248078602</v>
+        <v>0.967904266273011</v>
       </c>
       <c r="AR39" t="n" s="87">
-        <v>0.009135738194599983</v>
-      </c>
-      <c r="AS39" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.008821486950218971</v>
+      </c>
+      <c r="AS39" s="87"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6367,16 +6293,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U40" t="n" s="87">
-        <v>0.3299809711686017</v>
+        <v>0.3300322793089743</v>
       </c>
       <c r="V40" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W40" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="X40" t="n" s="87">
-        <v>0.33521797678646803</v>
+        <v>0.3352696917568741</v>
       </c>
       <c r="Y40" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6391,16 +6317,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC40" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD40" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE40" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF40" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG40" t="n" s="87">
         <v>1.0</v>
@@ -6409,38 +6335,36 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI40" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ40" t="n" s="87">
         <v>0.9986236715918837</v>
       </c>
       <c r="AK40" t="n" s="87">
-        <v>0.997789332772237</v>
+        <v>0.9978714947310221</v>
       </c>
       <c r="AL40" t="n" s="87">
-        <v>0.8032929838946682</v>
+        <v>0.8095470540171144</v>
       </c>
       <c r="AM40" t="n" s="87">
         <v>0.9973443549374725</v>
       </c>
       <c r="AN40" t="n" s="87">
-        <v>0.9950333576190757</v>
+        <v>0.9950135883552699</v>
       </c>
       <c r="AO40" t="n" s="87">
-        <v>0.8307667022554778</v>
+        <v>0.8327921027628501</v>
       </c>
       <c r="AP40" t="n" s="87">
         <v>0.8843849705910366</v>
       </c>
       <c r="AQ40" t="n" s="87">
-        <v>0.9423512344808946</v>
+        <v>0.9423128186610187</v>
       </c>
       <c r="AR40" t="n" s="87">
-        <v>0.0022091506089375675</v>
-      </c>
-      <c r="AS40" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0021310421102488154</v>
+      </c>
+      <c r="AS40" s="87"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6462,10 +6386,10 @@
         <v>0.5151471362158454</v>
       </c>
       <c r="J41" t="n" s="87">
-        <v>0.9862142687559493</v>
+        <v>0.9862125990614977</v>
       </c>
       <c r="K41" t="n" s="87">
-        <v>0.9862142687559493</v>
+        <v>0.9862125990614977</v>
       </c>
       <c r="L41" t="n" s="87">
         <v>1.0</v>
@@ -6501,10 +6425,10 @@
         <v>0.4794238873304297</v>
       </c>
       <c r="W41" t="n" s="87">
-        <v>0.3686310609816474</v>
+        <v>0.3686578224888157</v>
       </c>
       <c r="X41" t="n" s="87">
-        <v>0.3686310609816474</v>
+        <v>0.3686578224888157</v>
       </c>
       <c r="Y41" t="n" s="87">
         <v>0.508443082510305</v>
@@ -6519,16 +6443,16 @@
         <v>0.5012308378278012</v>
       </c>
       <c r="AC41" t="n" s="87">
-        <v>0.37797126754062044</v>
+        <v>0.37824820237270473</v>
       </c>
       <c r="AD41" t="n" s="87">
-        <v>0.37797126754062044</v>
+        <v>0.37824820237270473</v>
       </c>
       <c r="AE41" t="n" s="87">
-        <v>0.35551849340939057</v>
+        <v>0.355788386951558</v>
       </c>
       <c r="AF41" t="n" s="87">
-        <v>0.35551849340939057</v>
+        <v>0.355788386951558</v>
       </c>
       <c r="AG41" t="n" s="87">
         <v>1.0</v>
@@ -6537,22 +6461,22 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI41" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ41" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK41" t="n" s="87">
-        <v>0.9999852470445777</v>
+        <v>0.9999842862032612</v>
       </c>
       <c r="AL41" t="n" s="87">
-        <v>0.9999999962519286</v>
+        <v>0.999999996054921</v>
       </c>
       <c r="AM41" t="n" s="87">
         <v>0.9999443728585706</v>
       </c>
       <c r="AN41" t="n" s="87">
-        <v>0.999999999998684</v>
+        <v>0.9999999999987546</v>
       </c>
       <c r="AO41" t="n" s="87">
         <v>1.0</v>
@@ -6561,14 +6485,12 @@
         <v>0.9999978355226669</v>
       </c>
       <c r="AQ41" t="n" s="87">
-        <v>0.9999999999999964</v>
+        <v>0.9999999999999966</v>
       </c>
       <c r="AR41" t="n" s="87">
-        <v>0.9999999999993147</v>
-      </c>
-      <c r="AS41" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999993628</v>
+      </c>
+      <c r="AS41" s="87"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6623,16 +6545,16 @@
         <v>0.3955262264113151</v>
       </c>
       <c r="U42" t="n" s="87">
-        <v>0.2966339254564623</v>
+        <v>0.29668234445893227</v>
       </c>
       <c r="V42" t="n" s="87">
         <v>0.39899374794856657</v>
       </c>
       <c r="W42" t="n" s="87">
-        <v>0.3011823513746818</v>
+        <v>0.3012311948466337</v>
       </c>
       <c r="X42" t="n" s="87">
-        <v>0.3011823513746818</v>
+        <v>0.3012311948466337</v>
       </c>
       <c r="Y42" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6647,56 +6569,54 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC42" t="n" s="87">
-        <v>0.3442114067861698</v>
+        <v>0.344680561877687</v>
       </c>
       <c r="AD42" t="n" s="87">
-        <v>0.3442114067861699</v>
+        <v>0.3446805618776871</v>
       </c>
       <c r="AE42" t="n" s="87">
-        <v>0.31990267222457974</v>
+        <v>0.32035488017761393</v>
       </c>
       <c r="AF42" t="n" s="87">
-        <v>0.31990267222457974</v>
+        <v>0.3203548801776139</v>
       </c>
       <c r="AG42" t="n" s="87">
-        <v>0.24954104028175753</v>
+        <v>0.2499303378641244</v>
       </c>
       <c r="AH42" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI42" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ42" t="n" s="87">
         <v>0.997778022360889</v>
       </c>
       <c r="AK42" t="n" s="87">
-        <v>0.9938694177611692</v>
+        <v>0.9940413179332319</v>
       </c>
       <c r="AL42" t="n" s="87">
-        <v>0.913189715651649</v>
+        <v>0.9153138468326665</v>
       </c>
       <c r="AM42" t="n" s="87">
         <v>0.9832331400000357</v>
       </c>
       <c r="AN42" t="n" s="87">
-        <v>0.9720775470623334</v>
+        <v>0.9720157131162459</v>
       </c>
       <c r="AO42" t="n" s="87">
-        <v>0.8608487756902098</v>
+        <v>0.8614177915953032</v>
       </c>
       <c r="AP42" t="n" s="87">
         <v>0.5236797023615248</v>
       </c>
       <c r="AQ42" t="n" s="87">
-        <v>0.1884046839911301</v>
+        <v>0.18829720770801422</v>
       </c>
       <c r="AR42" t="n" s="87">
-        <v>2.6460118945627254E-5</v>
-      </c>
-      <c r="AS42" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>2.5808709702879507E-5</v>
+      </c>
+      <c r="AS42" s="87"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6751,16 +6671,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U43" t="n" s="87">
-        <v>0.30237941547279407</v>
+        <v>0.3024283690612587</v>
       </c>
       <c r="V43" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W43" t="n" s="87">
-        <v>0.30737932962963316</v>
+        <v>0.30742873596320214</v>
       </c>
       <c r="X43" t="n" s="87">
-        <v>0.30737932962963316</v>
+        <v>0.30742873596320214</v>
       </c>
       <c r="Y43" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6775,56 +6695,54 @@
         <v>0.46617707652867163</v>
       </c>
       <c r="AC43" t="n" s="87">
-        <v>0.35084923238348487</v>
+        <v>0.35132258788771353</v>
       </c>
       <c r="AD43" t="n" s="87">
-        <v>0.35084923238348487</v>
+        <v>0.35132258788771353</v>
       </c>
       <c r="AE43" t="n" s="87">
-        <v>0.32630497505277295</v>
+        <v>0.32676188489809077</v>
       </c>
       <c r="AF43" t="n" s="87">
-        <v>0.32630497505277295</v>
+        <v>0.3267618848980907</v>
       </c>
       <c r="AG43" t="n" s="87">
-        <v>0.2550632940435742</v>
+        <v>0.25545827406698596</v>
       </c>
       <c r="AH43" t="n" s="87">
         <v>0.423464762723566</v>
       </c>
       <c r="AI43" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ43" t="n" s="87">
         <v>0.9987237929506684</v>
       </c>
       <c r="AK43" t="n" s="87">
-        <v>0.9987854043945347</v>
+        <v>0.9988339515725425</v>
       </c>
       <c r="AL43" t="n" s="87">
-        <v>0.8632704968203527</v>
+        <v>0.8674930738744303</v>
       </c>
       <c r="AM43" t="n" s="87">
         <v>0.9990706991634678</v>
       </c>
       <c r="AN43" t="n" s="87">
-        <v>0.9980645014141359</v>
+        <v>0.9980493576887599</v>
       </c>
       <c r="AO43" t="n" s="87">
-        <v>0.9389997289702339</v>
+        <v>0.9396000015022363</v>
       </c>
       <c r="AP43" t="n" s="87">
         <v>0.899225306882642</v>
       </c>
       <c r="AQ43" t="n" s="87">
-        <v>0.9044319788537073</v>
+        <v>0.9043708654290495</v>
       </c>
       <c r="AR43" t="n" s="87">
-        <v>0.0027656841964828543</v>
-      </c>
-      <c r="AS43" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0026717763498046794</v>
+      </c>
+      <c r="AS43" s="87"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6879,16 +6797,16 @@
         <v>0.43335738158399995</v>
       </c>
       <c r="U44" t="n" s="87">
-        <v>0.33090857152699277</v>
+        <v>0.3309445759300128</v>
       </c>
       <c r="V44" t="n" s="87">
         <v>0.4366084488492332</v>
       </c>
       <c r="W44" t="n" s="87">
-        <v>0.3361529128228471</v>
+        <v>0.3361892011287349</v>
       </c>
       <c r="X44" t="n" s="87">
-        <v>0.3361529128228471</v>
+        <v>0.3361892011287349</v>
       </c>
       <c r="Y44" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -6903,56 +6821,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC44" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.34832762935953465</v>
       </c>
       <c r="AD44" t="n" s="87">
-        <v>0.34797758522094235</v>
+        <v>0.3483276293595347</v>
       </c>
       <c r="AE44" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.32387176475664015</v>
       </c>
       <c r="AF44" t="n" s="87">
-        <v>0.3235340956260805</v>
+        <v>0.3238717647566401</v>
       </c>
       <c r="AG44" t="n" s="87">
-        <v>0.28102004425650284</v>
+        <v>0.2813317953321369</v>
       </c>
       <c r="AH44" t="n" s="87">
         <v>0.4549116989102941</v>
       </c>
       <c r="AI44" t="n" s="87">
-        <v>0.3677120177726493</v>
+        <v>0.3680707071728931</v>
       </c>
       <c r="AJ44" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK44" t="n" s="87">
-        <v>0.9990138912731237</v>
+        <v>0.9990550598753145</v>
       </c>
       <c r="AL44" t="n" s="87">
-        <v>0.9558464658826126</v>
+        <v>0.9571563202738325</v>
       </c>
       <c r="AM44" t="n" s="87">
         <v>0.9985205883617512</v>
       </c>
       <c r="AN44" t="n" s="87">
-        <v>0.9992373539109167</v>
+        <v>0.9992277115097377</v>
       </c>
       <c r="AO44" t="n" s="87">
-        <v>0.9911865595549387</v>
+        <v>0.991251890982896</v>
       </c>
       <c r="AP44" t="n" s="87">
         <v>0.9266333743239238</v>
       </c>
       <c r="AQ44" t="n" s="87">
-        <v>0.9764084258074895</v>
+        <v>0.9764011475682194</v>
       </c>
       <c r="AR44" t="n" s="87">
-        <v>0.19395239192282177</v>
-      </c>
-      <c r="AS44" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.18910632616586945</v>
+      </c>
+      <c r="AS44" s="87"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6974,10 +6890,10 @@
         <v>1.0</v>
       </c>
       <c r="J45" t="n" s="87">
-        <v>0.44176567844165376</v>
+        <v>0.44170966651681776</v>
       </c>
       <c r="K45" t="n" s="87">
-        <v>0.44176567844165376</v>
+        <v>0.44170966651681776</v>
       </c>
       <c r="L45" t="n" s="87">
         <v>1.0</v>
@@ -7013,10 +6929,10 @@
         <v>0.4206250441567103</v>
       </c>
       <c r="W45" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X45" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y45" t="n" s="87">
         <v>0.49821377345635</v>
@@ -7031,16 +6947,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC45" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD45" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE45" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF45" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG45" t="n" s="87">
         <v>1.0</v>
@@ -7049,38 +6965,36 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI45" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ45" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK45" t="n" s="87">
-        <v>0.999300789441962</v>
+        <v>0.9993200412658645</v>
       </c>
       <c r="AL45" t="n" s="87">
-        <v>0.9035639945598908</v>
+        <v>0.9055542560384755</v>
       </c>
       <c r="AM45" t="n" s="87">
         <v>0.9992104780212525</v>
       </c>
       <c r="AN45" t="n" s="87">
-        <v>0.9995231603379607</v>
+        <v>0.9995201397502882</v>
       </c>
       <c r="AO45" t="n" s="87">
-        <v>0.9701119013869673</v>
+        <v>0.970282268904772</v>
       </c>
       <c r="AP45" t="n" s="87">
         <v>0.9398889305806917</v>
       </c>
       <c r="AQ45" t="n" s="87">
-        <v>0.9846526346855112</v>
+        <v>0.984641856355009</v>
       </c>
       <c r="AR45" t="n" s="87">
-        <v>0.04969577962214262</v>
-      </c>
-      <c r="AS45" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.04860715048685848</v>
+      </c>
+      <c r="AS45" s="87"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7090,10 +7004,10 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="87">
-        <v>0.06824053677552389</v>
+        <v>0.06819052063825565</v>
       </c>
       <c r="G46" t="n" s="87">
-        <v>0.1896545053897053</v>
+        <v>0.18953360191913637</v>
       </c>
       <c r="H46" t="n" s="87">
         <v>1.0</v>
@@ -7102,10 +7016,10 @@
         <v>1.0</v>
       </c>
       <c r="J46" t="n" s="87">
-        <v>0.13016723397457414</v>
+        <v>0.13014151943837965</v>
       </c>
       <c r="K46" t="n" s="87">
-        <v>0.13016723397457414</v>
+        <v>0.13014151943837965</v>
       </c>
       <c r="L46" t="n" s="87">
         <v>0.42841092371392897</v>
@@ -7135,16 +7049,16 @@
         <v>0.3896926267871693</v>
       </c>
       <c r="U46" t="n" s="87">
-        <v>0.2915553788469895</v>
+        <v>0.2916033125608331</v>
       </c>
       <c r="V46" t="n" s="87">
         <v>0.3915391584969836</v>
       </c>
       <c r="W46" t="n" s="87">
-        <v>0.29702427353757277</v>
+        <v>0.2970727293449187</v>
       </c>
       <c r="X46" t="n" s="87">
-        <v>0.29702427353757277</v>
+        <v>0.2970727293449187</v>
       </c>
       <c r="Y46" t="n" s="87">
         <v>0.4754596498940317</v>
@@ -7159,56 +7073,54 @@
         <v>0.4592717505240577</v>
       </c>
       <c r="AC46" t="n" s="87">
-        <v>0.34368826966758587</v>
+        <v>0.3441570859272636</v>
       </c>
       <c r="AD46" t="n" s="87">
-        <v>0.3436882696675859</v>
+        <v>0.34415708592726363</v>
       </c>
       <c r="AE46" t="n" s="87">
-        <v>0.31939848609964083</v>
+        <v>0.3198503165321779</v>
       </c>
       <c r="AF46" t="n" s="87">
-        <v>0.3193984860996408</v>
+        <v>0.3198503165321778</v>
       </c>
       <c r="AG46" t="n" s="87">
-        <v>0.19651750322628</v>
+        <v>0.19684577860384045</v>
       </c>
       <c r="AH46" t="n" s="87">
         <v>0.3501316687484259</v>
       </c>
       <c r="AI46" t="n" s="87">
-        <v>0.3051997019177224</v>
+        <v>0.30564046644298765</v>
       </c>
       <c r="AJ46" t="n" s="87">
         <v>0.9940348209471935</v>
       </c>
       <c r="AK46" t="n" s="87">
-        <v>0.7907177601100907</v>
+        <v>0.7932689194908281</v>
       </c>
       <c r="AL46" t="n" s="87">
-        <v>0.2195715983363856</v>
+        <v>0.227211624651449</v>
       </c>
       <c r="AM46" t="n" s="87">
         <v>0.7213981058940063</v>
       </c>
       <c r="AN46" t="n" s="87">
-        <v>0.21578986679237516</v>
+        <v>0.21578703169349842</v>
       </c>
       <c r="AO46" t="n" s="87">
-        <v>1.3461103014007626E-4</v>
+        <v>1.387977435553374E-4</v>
       </c>
       <c r="AP46" t="n" s="87">
         <v>0.22503391866694614</v>
       </c>
       <c r="AQ46" t="n" s="87">
-        <v>3.182841376590027E-4</v>
+        <v>3.1806068877997517E-4</v>
       </c>
       <c r="AR46" t="n" s="87">
-        <v>4.085323195711092E-12</v>
-      </c>
-      <c r="AS46" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>3.9364534708477216E-12</v>
+      </c>
+      <c r="AS46" s="87"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7230,7 +7142,7 @@
         <v>1.0</v>
       </c>
       <c r="J47" t="n" s="87">
-        <v>0.3270807037617072</v>
+        <v>0.32703071428571867</v>
       </c>
       <c r="K47" t="n" s="87">
         <v>1.0</v>
@@ -7263,16 +7175,16 @@
         <v>1.0</v>
       </c>
       <c r="U47" t="n" s="87">
-        <v>0.29770773682063856</v>
+        <v>0.2977562568995762</v>
       </c>
       <c r="V47" t="n" s="87">
         <v>0.4011493987760339</v>
       </c>
       <c r="W47" t="n" s="87">
-        <v>0.30226555218797674</v>
+        <v>0.3023144953309173</v>
       </c>
       <c r="X47" t="n" s="87">
-        <v>0.30226555218797674</v>
+        <v>0.3023144953309173</v>
       </c>
       <c r="Y47" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7287,56 +7199,54 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC47" t="n" s="87">
-        <v>0.34807134349685775</v>
+        <v>0.3485429634538138</v>
       </c>
       <c r="AD47" t="n" s="87">
-        <v>0.34807134349685775</v>
+        <v>0.3485429634538138</v>
       </c>
       <c r="AE47" t="n" s="87">
-        <v>0.32002577297037693</v>
+        <v>0.3204780729371931</v>
       </c>
       <c r="AF47" t="n" s="87">
-        <v>0.32002577297037693</v>
+        <v>0.32047807293719305</v>
       </c>
       <c r="AG47" t="n" s="87">
-        <v>0.25050509117454534</v>
+        <v>0.25089538991693605</v>
       </c>
       <c r="AH47" t="n" s="87">
         <v>0.420574886552213</v>
       </c>
       <c r="AI47" t="n" s="87">
-        <v>0.36280914984092744</v>
+        <v>0.3632896110089473</v>
       </c>
       <c r="AJ47" t="n" s="87">
         <v>0.9980985703348788</v>
       </c>
       <c r="AK47" t="n" s="87">
-        <v>0.9924630427821108</v>
+        <v>0.9926821257168412</v>
       </c>
       <c r="AL47" t="n" s="87">
-        <v>0.9414768632532515</v>
+        <v>0.9429672310196803</v>
       </c>
       <c r="AM47" t="n" s="87">
         <v>0.9784953754777189</v>
       </c>
       <c r="AN47" t="n" s="87">
-        <v>0.8819642883823069</v>
+        <v>0.881756541970632</v>
       </c>
       <c r="AO47" t="n" s="87">
-        <v>0.7217142613295685</v>
+        <v>0.7222512358028967</v>
       </c>
       <c r="AP47" t="n" s="87">
         <v>0.6877318684601017</v>
       </c>
       <c r="AQ47" t="n" s="87">
-        <v>0.12797513042136666</v>
+        <v>0.1278966161462604</v>
       </c>
       <c r="AR47" t="n" s="87">
-        <v>2.8626199707373326E-5</v>
-      </c>
-      <c r="AS47" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>2.7919190381317138E-5</v>
+      </c>
+      <c r="AS47" s="87"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7358,10 +7268,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n" s="87">
-        <v>0.21641850598048282</v>
+        <v>0.21637999112003586</v>
       </c>
       <c r="K48" t="n" s="87">
-        <v>0.21641850598048282</v>
+        <v>0.21637999112003586</v>
       </c>
       <c r="L48" t="n" s="87">
         <v>1.0</v>
@@ -7391,16 +7301,16 @@
         <v>0.3949593737081118</v>
       </c>
       <c r="U48" t="n" s="87">
-        <v>0.29613936670176394</v>
+        <v>0.29618773897204104</v>
       </c>
       <c r="V48" t="n" s="87">
         <v>0.3968146353632</v>
       </c>
       <c r="W48" t="n" s="87">
-        <v>0.30165763366352255</v>
+        <v>0.3017065209357487</v>
       </c>
       <c r="X48" t="n" s="87">
-        <v>0.30165763366352255</v>
+        <v>0.3017065209357487</v>
       </c>
       <c r="Y48" t="n" s="87">
         <v>0.4754596498940317</v>
@@ -7415,56 +7325,54 @@
         <v>0.4592717505240577</v>
       </c>
       <c r="AC48" t="n" s="87">
-        <v>0.34368826966758587</v>
+        <v>0.3441570859272636</v>
       </c>
       <c r="AD48" t="n" s="87">
-        <v>0.3436882696675859</v>
+        <v>0.34415708592726363</v>
       </c>
       <c r="AE48" t="n" s="87">
-        <v>0.31939848609964083</v>
+        <v>0.3198503165321779</v>
       </c>
       <c r="AF48" t="n" s="87">
-        <v>0.3193984860996408</v>
+        <v>0.3198503165321778</v>
       </c>
       <c r="AG48" t="n" s="87">
-        <v>0.24784156797273862</v>
+        <v>0.2482290912454805</v>
       </c>
       <c r="AH48" t="n" s="87">
         <v>0.420574886552213</v>
       </c>
       <c r="AI48" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ48" t="n" s="87">
         <v>0.9969435063844349</v>
       </c>
       <c r="AK48" t="n" s="87">
-        <v>0.9868954107042527</v>
+        <v>0.9874158277864094</v>
       </c>
       <c r="AL48" t="n" s="87">
-        <v>0.8890425116343871</v>
+        <v>0.8930762717585657</v>
       </c>
       <c r="AM48" t="n" s="87">
         <v>0.9712040916742184</v>
       </c>
       <c r="AN48" t="n" s="87">
-        <v>0.9578245804468883</v>
+        <v>0.9577234859587049</v>
       </c>
       <c r="AO48" t="n" s="87">
-        <v>0.7940536285160723</v>
+        <v>0.7957185074348355</v>
       </c>
       <c r="AP48" t="n" s="87">
         <v>0.46958193854841035</v>
       </c>
       <c r="AQ48" t="n" s="87">
-        <v>0.10808482400014643</v>
+        <v>0.10801705360528951</v>
       </c>
       <c r="AR48" t="n" s="87">
-        <v>1.1082088114559032E-5</v>
-      </c>
-      <c r="AS48" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.0684787938348221E-5</v>
+      </c>
+      <c r="AS48" s="87"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7486,10 +7394,10 @@
         <v>1.0</v>
       </c>
       <c r="J49" t="n" s="87">
-        <v>0.22947231013190228</v>
+        <v>0.2294321523618166</v>
       </c>
       <c r="K49" t="n" s="87">
-        <v>0.22947231013190225</v>
+        <v>0.22943215236181655</v>
       </c>
       <c r="L49" t="n" s="87">
         <v>1.0</v>
@@ -7519,16 +7427,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U49" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V49" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W49" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X49" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y49" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7543,56 +7451,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC49" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD49" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE49" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF49" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG49" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH49" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI49" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ49" t="n" s="87">
         <v>0.9984540813360937</v>
       </c>
       <c r="AK49" t="n" s="87">
-        <v>0.9958274032691995</v>
+        <v>0.9959739668586838</v>
       </c>
       <c r="AL49" t="n" s="87">
-        <v>0.7661499518894507</v>
+        <v>0.7736597181338927</v>
       </c>
       <c r="AM49" t="n" s="87">
         <v>0.9919699160194416</v>
       </c>
       <c r="AN49" t="n" s="87">
-        <v>0.9808546019282253</v>
+        <v>0.980823343565244</v>
       </c>
       <c r="AO49" t="n" s="87">
-        <v>0.6153269454623614</v>
+        <v>0.6193120033395959</v>
       </c>
       <c r="AP49" t="n" s="87">
         <v>0.6550640427093786</v>
       </c>
       <c r="AQ49" t="n" s="87">
-        <v>0.4754389046370562</v>
+        <v>0.4752635995002941</v>
       </c>
       <c r="AR49" t="n" s="87">
-        <v>1.3885605440033267E-5</v>
-      </c>
-      <c r="AS49" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.3384854985206845E-5</v>
+      </c>
+      <c r="AS49" s="87"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7614,10 +7520,10 @@
         <v>1.0</v>
       </c>
       <c r="J50" t="n" s="87">
-        <v>0.1550331558487811</v>
+        <v>0.1550034044106142</v>
       </c>
       <c r="K50" t="n" s="87">
-        <v>0.15503315584878108</v>
+        <v>0.15500340441061417</v>
       </c>
       <c r="L50" t="n" s="87">
         <v>1.0</v>
@@ -7647,16 +7553,16 @@
         <v>0.3973321606181815</v>
       </c>
       <c r="U50" t="n" s="87">
-        <v>0.297369081417271</v>
+        <v>0.29741756967679756</v>
       </c>
       <c r="V50" t="n" s="87">
         <v>0.3984379375836811</v>
       </c>
       <c r="W50" t="n" s="87">
-        <v>0.30050860086070436</v>
+        <v>0.30055738206260335</v>
       </c>
       <c r="X50" t="n" s="87">
-        <v>0.30050860086070436</v>
+        <v>0.30055738206260335</v>
       </c>
       <c r="Y50" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7671,56 +7577,54 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC50" t="n" s="87">
-        <v>0.3434887124239015</v>
+        <v>0.34395739913196804</v>
       </c>
       <c r="AD50" t="n" s="87">
-        <v>0.3434887124239016</v>
+        <v>0.3439573991319681</v>
       </c>
       <c r="AE50" t="n" s="87">
-        <v>0.3192061729182779</v>
+        <v>0.3196578590734577</v>
       </c>
       <c r="AF50" t="n" s="87">
-        <v>0.31920617291827774</v>
+        <v>0.3196578590734577</v>
       </c>
       <c r="AG50" t="n" s="87">
-        <v>0.24894165942842675</v>
+        <v>0.24933033260797233</v>
       </c>
       <c r="AH50" t="n" s="87">
         <v>0.41848006318594666</v>
       </c>
       <c r="AI50" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ50" t="n" s="87">
         <v>0.9966881215277642</v>
       </c>
       <c r="AK50" t="n" s="87">
-        <v>0.9657066127275283</v>
+        <v>0.9665829282888113</v>
       </c>
       <c r="AL50" t="n" s="87">
-        <v>0.555101691949316</v>
+        <v>0.5658425517354536</v>
       </c>
       <c r="AM50" t="n" s="87">
         <v>0.9531649654161153</v>
       </c>
       <c r="AN50" t="n" s="87">
-        <v>0.8998079075414371</v>
+        <v>0.8997668821211355</v>
       </c>
       <c r="AO50" t="n" s="87">
-        <v>0.1305143558066206</v>
+        <v>0.1333386176687504</v>
       </c>
       <c r="AP50" t="n" s="87">
         <v>0.4928495053430658</v>
       </c>
       <c r="AQ50" t="n" s="87">
-        <v>0.07558356615828148</v>
+        <v>0.0755344914744239</v>
       </c>
       <c r="AR50" t="n" s="87">
-        <v>1.634783154745598E-7</v>
-      </c>
-      <c r="AS50" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.5753677015483964E-7</v>
+      </c>
+      <c r="AS50" s="87"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7823,32 +7727,30 @@
         <v>0.9941201704961145</v>
       </c>
       <c r="AK51" t="n" s="87">
-        <v>0.9290123523468253</v>
+        <v>0.9297266141536557</v>
       </c>
       <c r="AL51" t="n" s="87">
-        <v>0.9609835002592373</v>
+        <v>0.9607560419722855</v>
       </c>
       <c r="AM51" t="n" s="87">
         <v>0.7530878539317375</v>
       </c>
       <c r="AN51" t="n" s="87">
-        <v>0.17404314332794713</v>
+        <v>0.17404860468112804</v>
       </c>
       <c r="AO51" t="n" s="87">
-        <v>0.0140284333478646</v>
+        <v>0.014403627223840029</v>
       </c>
       <c r="AP51" t="n" s="87">
         <v>0.13615300939487987</v>
       </c>
       <c r="AQ51" t="n" s="87">
-        <v>1.5855531277590923E-4</v>
+        <v>1.5855531978945157E-4</v>
       </c>
       <c r="AR51" t="n" s="87">
-        <v>5.0248979112503214E-9</v>
-      </c>
-      <c r="AS51" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>5.126324111790319E-9</v>
+      </c>
+      <c r="AS51" s="87"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7903,16 +7805,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U52" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V52" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W52" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X52" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y52" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -7927,56 +7829,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC52" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD52" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE52" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF52" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG52" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH52" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI52" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ52" t="n" s="87">
         <v>0.9987250006289774</v>
       </c>
       <c r="AK52" t="n" s="87">
-        <v>0.9987473053814244</v>
+        <v>0.9987963033644255</v>
       </c>
       <c r="AL52" t="n" s="87">
-        <v>0.8431566353611017</v>
+        <v>0.8482185265526128</v>
       </c>
       <c r="AM52" t="n" s="87">
         <v>0.9980771097021061</v>
       </c>
       <c r="AN52" t="n" s="87">
-        <v>0.9970231074657476</v>
+        <v>0.9970074349631673</v>
       </c>
       <c r="AO52" t="n" s="87">
-        <v>0.9128080662294087</v>
+        <v>0.9137453769271798</v>
       </c>
       <c r="AP52" t="n" s="87">
         <v>0.7595786356731292</v>
       </c>
       <c r="AQ52" t="n" s="87">
-        <v>0.8016813672245905</v>
+        <v>0.8015693909431777</v>
       </c>
       <c r="AR52" t="n" s="87">
-        <v>4.7221376670579995E-4</v>
-      </c>
-      <c r="AS52" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.55681229368703E-4</v>
+      </c>
+      <c r="AS52" s="87"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8031,16 +7931,16 @@
         <v>0.46494632451890644</v>
       </c>
       <c r="U53" t="n" s="87">
-        <v>0.3631791832788388</v>
+        <v>0.36323285494703583</v>
       </c>
       <c r="V53" t="n" s="87">
         <v>0.46457174408340707</v>
       </c>
       <c r="W53" t="n" s="87">
-        <v>0.3702195914243733</v>
+        <v>0.370273698583108</v>
       </c>
       <c r="X53" t="n" s="87">
-        <v>0.3702195914243733</v>
+        <v>0.370273698583108</v>
       </c>
       <c r="Y53" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -8055,16 +7955,16 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC53" t="n" s="87">
-        <v>0.3620906700788816</v>
+        <v>0.36257072117743133</v>
       </c>
       <c r="AD53" t="n" s="87">
-        <v>0.3620906700788816</v>
+        <v>0.36257072117743144</v>
       </c>
       <c r="AE53" t="n" s="87">
-        <v>0.34006551797194134</v>
+        <v>0.34053195656660645</v>
       </c>
       <c r="AF53" t="n" s="87">
-        <v>0.3400655179719413</v>
+        <v>0.34053195656660645</v>
       </c>
       <c r="AG53" t="n" s="87">
         <v>1.0</v>
@@ -8073,7 +7973,7 @@
         <v>0.4735728457164237</v>
       </c>
       <c r="AI53" t="n" s="87">
-        <v>0.3708405244959674</v>
+        <v>0.3713254234083565</v>
       </c>
       <c r="AJ53" t="n" s="87">
         <v>0.9990766231441008</v>
@@ -8097,14 +7997,12 @@
         <v>0.9998209519761077</v>
       </c>
       <c r="AQ53" t="n" s="87">
-        <v>0.9999999505231978</v>
+        <v>0.9999999504884275</v>
       </c>
       <c r="AR53" t="n" s="87">
-        <v>0.999999484834833</v>
-      </c>
-      <c r="AS53" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999994836584936</v>
+      </c>
+      <c r="AS53" s="87"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8165,7 +8063,7 @@
         <v>0.47447676046782844</v>
       </c>
       <c r="W54" t="n" s="87">
-        <v>0.35814028455294966</v>
+        <v>0.35800032339509713</v>
       </c>
       <c r="X54" t="n" s="87">
         <v>1.0</v>
@@ -8183,16 +8081,16 @@
         <v>0.4919690770864768</v>
       </c>
       <c r="AC54" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AD54" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AE54" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.3452994489971085</v>
       </c>
       <c r="AF54" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.34529944899710835</v>
       </c>
       <c r="AG54" t="n" s="87">
         <v>1.0</v>
@@ -8201,38 +8099,36 @@
         <v>0.4549116989102941</v>
       </c>
       <c r="AI54" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ54" t="n" s="87">
         <v>0.9990766231441008</v>
       </c>
       <c r="AK54" t="n" s="87">
-        <v>0.999978181552425</v>
+        <v>0.9999777240265585</v>
       </c>
       <c r="AL54" t="n" s="87">
-        <v>0.9999992634879662</v>
+        <v>0.9999992508007534</v>
       </c>
       <c r="AM54" t="n" s="87">
         <v>0.9999626294333114</v>
       </c>
       <c r="AN54" t="n" s="87">
-        <v>0.999999999929799</v>
+        <v>0.9999999999310775</v>
       </c>
       <c r="AO54" t="n" s="87">
-        <v>0.999999999998971</v>
+        <v>0.9999999999990192</v>
       </c>
       <c r="AP54" t="n" s="87">
         <v>0.9999833965871511</v>
       </c>
       <c r="AQ54" t="n" s="87">
-        <v>0.9999999999657011</v>
+        <v>0.9999999999663259</v>
       </c>
       <c r="AR54" t="n" s="87">
-        <v>0.999999997959489</v>
-      </c>
-      <c r="AS54" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999980082793</v>
+      </c>
+      <c r="AS54" s="87"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8254,10 +8150,10 @@
         <v>1.0</v>
       </c>
       <c r="J55" t="n" s="87">
-        <v>0.876271255437917</v>
+        <v>0.8762466277282448</v>
       </c>
       <c r="K55" t="n" s="87">
-        <v>0.876271255437917</v>
+        <v>0.8762466277282447</v>
       </c>
       <c r="L55" t="n" s="87">
         <v>1.0</v>
@@ -8293,10 +8189,10 @@
         <v>0.4284654654867112</v>
       </c>
       <c r="W55" t="n" s="87">
-        <v>0.31795114815574704</v>
+        <v>0.3180014735670542</v>
       </c>
       <c r="X55" t="n" s="87">
-        <v>0.31795114815574704</v>
+        <v>0.3180014735670542</v>
       </c>
       <c r="Y55" t="n" s="87">
         <v>0.49821377345635</v>
@@ -8311,25 +8207,25 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC55" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139399</v>
       </c>
       <c r="AD55" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139401</v>
       </c>
       <c r="AE55" t="n" s="87">
-        <v>0.3372108038110932</v>
+        <v>0.33767533035706343</v>
       </c>
       <c r="AF55" t="n" s="87">
-        <v>0.3372108038110931</v>
+        <v>0.3376753303570634</v>
       </c>
       <c r="AG55" t="n" s="87">
-        <v>0.28032528794119715</v>
+        <v>0.28074464456442344</v>
       </c>
       <c r="AH55" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI55" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ55" t="n" s="87">
         <v>0.9989694203481638</v>
@@ -8353,14 +8249,12 @@
         <v>0.9995989056332235</v>
       </c>
       <c r="AQ55" t="n" s="87">
-        <v>0.9999598824381797</v>
+        <v>0.9999598542463858</v>
       </c>
       <c r="AR55" t="n" s="87">
-        <v>0.998511382096682</v>
-      </c>
-      <c r="AS55" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9985079880237271</v>
+      </c>
+      <c r="AS55" s="87"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8415,16 +8309,16 @@
         <v>0.45152791392858266</v>
       </c>
       <c r="U56" t="n" s="87">
-        <v>0.3628544815966831</v>
+        <v>0.3627137192159051</v>
       </c>
       <c r="V56" t="n" s="87">
         <v>0.44842894975962583</v>
       </c>
       <c r="W56" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="X56" t="n" s="87">
-        <v>0.3422368010994063</v>
+        <v>0.3420997424943978</v>
       </c>
       <c r="Y56" t="n" s="87">
         <v>0.508443082510305</v>
@@ -8439,16 +8333,16 @@
         <v>0.4925859670267527</v>
       </c>
       <c r="AC56" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AD56" t="n" s="87">
-        <v>0.38307114814613247</v>
+        <v>0.3818817833965833</v>
       </c>
       <c r="AE56" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AF56" t="n" s="87">
-        <v>0.36049099580407695</v>
+        <v>0.3593309042278547</v>
       </c>
       <c r="AG56" t="n" s="87">
         <v>1.0</v>
@@ -8457,22 +8351,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI56" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ56" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK56" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL56" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM56" t="n" s="87">
         <v>0.9999260358356878</v>
       </c>
       <c r="AN56" t="n" s="87">
-        <v>0.999999999999846</v>
+        <v>0.9999999999998543</v>
       </c>
       <c r="AO56" t="n" s="87">
         <v>1.0</v>
@@ -8484,11 +8378,9 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="AR56" t="n" s="87">
-        <v>0.9999999999999922</v>
-      </c>
-      <c r="AS56" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999999928</v>
+      </c>
+      <c r="AS56" s="87"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8549,10 +8441,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W57" t="n" s="87">
-        <v>0.3150416570197351</v>
+        <v>0.3150814559124032</v>
       </c>
       <c r="X57" t="n" s="87">
-        <v>0.3150416570197351</v>
+        <v>0.3150814559124032</v>
       </c>
       <c r="Y57" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -8567,56 +8459,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC57" t="n" s="87">
-        <v>0.3561347027331855</v>
+        <v>0.3565275982413363</v>
       </c>
       <c r="AD57" t="n" s="87">
-        <v>0.35613470273318554</v>
+        <v>0.3565275982413364</v>
       </c>
       <c r="AE57" t="n" s="87">
-        <v>0.33428198975137663</v>
+        <v>0.33466330774346703</v>
       </c>
       <c r="AF57" t="n" s="87">
-        <v>0.3342819897513766</v>
+        <v>0.3346633077434669</v>
       </c>
       <c r="AG57" t="n" s="87">
-        <v>0.26197594884051273</v>
+        <v>0.26230728570674916</v>
       </c>
       <c r="AH57" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI57" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ57" t="n" s="87">
         <v>0.9990041798783298</v>
       </c>
       <c r="AK57" t="n" s="87">
-        <v>0.9999175214274745</v>
+        <v>0.9999188525874799</v>
       </c>
       <c r="AL57" t="n" s="87">
-        <v>0.9998729209943582</v>
+        <v>0.9998739366676743</v>
       </c>
       <c r="AM57" t="n" s="87">
         <v>0.9998075930714218</v>
       </c>
       <c r="AN57" t="n" s="87">
-        <v>0.9999996317451334</v>
+        <v>0.9999996292842172</v>
       </c>
       <c r="AO57" t="n" s="87">
-        <v>0.9999913166964135</v>
+        <v>0.9999912853726397</v>
       </c>
       <c r="AP57" t="n" s="87">
         <v>0.9885292867184042</v>
       </c>
       <c r="AQ57" t="n" s="87">
-        <v>0.9983593282452233</v>
+        <v>0.9983561758545388</v>
       </c>
       <c r="AR57" t="n" s="87">
-        <v>0.9981675447308495</v>
-      </c>
-      <c r="AS57" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9981544343771325</v>
+      </c>
+      <c r="AS57" s="87"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8638,10 +8528,10 @@
         <v>1.0</v>
       </c>
       <c r="J58" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="K58" t="n" s="87">
-        <v>0.6724374089524741</v>
+        <v>0.6724103590724432</v>
       </c>
       <c r="L58" t="n" s="87">
         <v>1.0</v>
@@ -8671,16 +8561,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U58" t="n" s="87">
-        <v>0.3111729902871535</v>
+        <v>0.3111976365094076</v>
       </c>
       <c r="V58" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W58" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="X58" t="n" s="87">
-        <v>0.3157939665011765</v>
+        <v>0.3158188109173884</v>
       </c>
       <c r="Y58" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -8695,56 +8585,54 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC58" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142896</v>
       </c>
       <c r="AD58" t="n" s="87">
-        <v>0.35392067544245215</v>
+        <v>0.35419002262142907</v>
       </c>
       <c r="AE58" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.3323950342235265</v>
       </c>
       <c r="AF58" t="n" s="87">
-        <v>0.33213373729929546</v>
+        <v>0.33239503422352645</v>
       </c>
       <c r="AG58" t="n" s="87">
-        <v>0.2644573020009575</v>
+        <v>0.26468645728421086</v>
       </c>
       <c r="AH58" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI58" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ58" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK58" t="n" s="87">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="AL58" t="n" s="87">
-        <v>0.9999999990650749</v>
+        <v>0.9999999990159324</v>
       </c>
       <c r="AM58" t="n" s="87">
         <v>0.9988165983446476</v>
       </c>
       <c r="AN58" t="n" s="87">
-        <v>0.9999999947532792</v>
+        <v>0.9999999950348042</v>
       </c>
       <c r="AO58" t="n" s="87">
-        <v>0.9999999999928834</v>
+        <v>0.9999999999938655</v>
       </c>
       <c r="AP58" t="n" s="87">
         <v>0.9675467946773469</v>
       </c>
       <c r="AQ58" t="n" s="87">
-        <v>0.9999326461060652</v>
+        <v>0.9999362465891025</v>
       </c>
       <c r="AR58" t="n" s="87">
-        <v>0.9999978596093023</v>
-      </c>
-      <c r="AS58" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999980100416234</v>
+      </c>
+      <c r="AS58" s="87"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8766,10 +8654,10 @@
         <v>1.0</v>
       </c>
       <c r="J59" t="n" s="87">
-        <v>0.9102074720695082</v>
+        <v>0.9101974348723332</v>
       </c>
       <c r="K59" t="n" s="87">
-        <v>0.9102074720695082</v>
+        <v>0.9101974348723332</v>
       </c>
       <c r="L59" t="n" s="87">
         <v>1.0</v>
@@ -8805,10 +8693,10 @@
         <v>0.4115155987833584</v>
       </c>
       <c r="W59" t="n" s="87">
-        <v>0.3186812934483406</v>
+        <v>0.3187062592093457</v>
       </c>
       <c r="X59" t="n" s="87">
-        <v>0.3186812934483406</v>
+        <v>0.3187062592093457</v>
       </c>
       <c r="Y59" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -8823,56 +8711,54 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC59" t="n" s="87">
-        <v>0.36010690319653504</v>
+        <v>0.36037833226804616</v>
       </c>
       <c r="AD59" t="n" s="87">
-        <v>0.36010690319653504</v>
+        <v>0.36037833226804616</v>
       </c>
       <c r="AE59" t="n" s="87">
-        <v>0.338138456264853</v>
+        <v>0.3384020836009816</v>
       </c>
       <c r="AF59" t="n" s="87">
-        <v>0.338138456264853</v>
+        <v>0.33840208360098156</v>
       </c>
       <c r="AG59" t="n" s="87">
-        <v>0.26533071876711517</v>
+        <v>0.2655603576316559</v>
       </c>
       <c r="AH59" t="n" s="87">
         <v>0.41985008443551575</v>
       </c>
       <c r="AI59" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ59" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK59" t="n" s="87">
-        <v>0.9999444838840432</v>
+        <v>0.9999463318265872</v>
       </c>
       <c r="AL59" t="n" s="87">
-        <v>0.9999996685769834</v>
+        <v>0.9999996738253011</v>
       </c>
       <c r="AM59" t="n" s="87">
         <v>0.9992903336082267</v>
       </c>
       <c r="AN59" t="n" s="87">
-        <v>0.9999999585475999</v>
+        <v>0.9999999579879979</v>
       </c>
       <c r="AO59" t="n" s="87">
-        <v>0.9999999977234085</v>
+        <v>0.9999999976742363</v>
       </c>
       <c r="AP59" t="n" s="87">
         <v>0.9877797273012359</v>
       </c>
       <c r="AQ59" t="n" s="87">
-        <v>0.9998570487465189</v>
+        <v>0.9998551972468881</v>
       </c>
       <c r="AR59" t="n" s="87">
-        <v>0.9999855026786745</v>
-      </c>
-      <c r="AS59" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999853353964349</v>
+      </c>
+      <c r="AS59" s="87"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8933,7 +8819,7 @@
         <v>0.4209588706031546</v>
       </c>
       <c r="W60" t="n" s="87">
-        <v>0.3257710342163068</v>
+        <v>0.3257962898019283</v>
       </c>
       <c r="X60" t="n" s="87">
         <v>1.0</v>
@@ -8951,40 +8837,40 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC60" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AD60" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AE60" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AF60" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AG60" t="n" s="87">
-        <v>0.27346069816729307</v>
+        <v>0.27369475204853594</v>
       </c>
       <c r="AH60" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI60" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ60" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK60" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL60" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM60" t="n" s="87">
         <v>0.9998062975446276</v>
       </c>
       <c r="AN60" t="n" s="87">
-        <v>0.9999999999967097</v>
+        <v>0.9999999999968863</v>
       </c>
       <c r="AO60" t="n" s="87">
         <v>1.0</v>
@@ -8993,14 +8879,12 @@
         <v>0.9982378246205363</v>
       </c>
       <c r="AQ60" t="n" s="87">
-        <v>0.9999999982686776</v>
+        <v>0.9999999983615772</v>
       </c>
       <c r="AR60" t="n" s="87">
-        <v>0.9999999995126496</v>
-      </c>
-      <c r="AS60" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999995468999</v>
+      </c>
+      <c r="AS60" s="87"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9022,7 +8906,7 @@
         <v>1.0</v>
       </c>
       <c r="J61" t="n" s="87">
-        <v>0.9189159004860344</v>
+        <v>0.9189067500078544</v>
       </c>
       <c r="K61" t="n" s="87">
         <v>1.0</v>
@@ -9061,10 +8945,10 @@
         <v>0.42930552280396966</v>
       </c>
       <c r="W61" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="X61" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="Y61" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9079,16 +8963,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC61" t="n" s="87">
-        <v>0.3629380967878219</v>
+        <v>0.3632104485773051</v>
       </c>
       <c r="AD61" t="n" s="87">
-        <v>0.36293809678782196</v>
+        <v>0.3632104485773052</v>
       </c>
       <c r="AE61" t="n" s="87">
-        <v>0.340888943587085</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AF61" t="n" s="87">
-        <v>0.34088894358708494</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AG61" t="n" s="87">
         <v>1.0</v>
@@ -9097,7 +8981,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI61" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ61" t="n" s="87">
         <v>0.9989694203481638</v>
@@ -9124,11 +9008,9 @@
         <v>0.9999998843605845</v>
       </c>
       <c r="AR61" t="n" s="87">
-        <v>0.9999990994908836</v>
-      </c>
-      <c r="AS61" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999990980110555</v>
+      </c>
+      <c r="AS61" s="87"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9150,10 +9032,10 @@
         <v>1.0</v>
       </c>
       <c r="J62" t="n" s="87">
-        <v>0.9745118527175274</v>
+        <v>0.9745088022901902</v>
       </c>
       <c r="K62" t="n" s="87">
-        <v>0.9745118527175274</v>
+        <v>0.9745088022901902</v>
       </c>
       <c r="L62" t="n" s="87">
         <v>1.0</v>
@@ -9189,10 +9071,10 @@
         <v>0.4374862023890248</v>
       </c>
       <c r="W62" t="n" s="87">
-        <v>0.32522088116772685</v>
+        <v>0.32524611467710435</v>
       </c>
       <c r="X62" t="n" s="87">
-        <v>0.32522088116772685</v>
+        <v>0.32524611467710435</v>
       </c>
       <c r="Y62" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9207,16 +9089,16 @@
         <v>0.48236262520090534</v>
       </c>
       <c r="AC62" t="n" s="87">
-        <v>0.3668799687640323</v>
+        <v>0.3671535737952336</v>
       </c>
       <c r="AD62" t="n" s="87">
-        <v>0.3668799687640323</v>
+        <v>0.3671535737952336</v>
       </c>
       <c r="AE62" t="n" s="87">
-        <v>0.341804747703091</v>
+        <v>0.34206975613252155</v>
       </c>
       <c r="AF62" t="n" s="87">
-        <v>0.341804747703091</v>
+        <v>0.34206975613252155</v>
       </c>
       <c r="AG62" t="n" s="87">
         <v>1.0</v>
@@ -9225,38 +9107,36 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI62" t="n" s="87">
-        <v>0.3684495275733031</v>
+        <v>0.3687236214224831</v>
       </c>
       <c r="AJ62" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK62" t="n" s="87">
-        <v>0.9999810332769418</v>
+        <v>0.9999806318685662</v>
       </c>
       <c r="AL62" t="n" s="87">
-        <v>0.9999996893434421</v>
+        <v>0.999999683992168</v>
       </c>
       <c r="AM62" t="n" s="87">
         <v>0.9998993539645364</v>
       </c>
       <c r="AN62" t="n" s="87">
-        <v>0.9999999995665209</v>
+        <v>0.9999999995744158</v>
       </c>
       <c r="AO62" t="n" s="87">
-        <v>0.9999999999616858</v>
+        <v>0.999999999963505</v>
       </c>
       <c r="AP62" t="n" s="87">
         <v>0.9998592668333148</v>
       </c>
       <c r="AQ62" t="n" s="87">
-        <v>0.9999999869508261</v>
+        <v>0.9999999871884325</v>
       </c>
       <c r="AR62" t="n" s="87">
-        <v>0.999999873648641</v>
-      </c>
-      <c r="AS62" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999876547516</v>
+      </c>
+      <c r="AS62" s="87"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9311,13 +9191,13 @@
         <v>0.4178602721346756</v>
       </c>
       <c r="U63" t="n" s="87">
-        <v>0.32120142078395203</v>
+        <v>0.32124163288218016</v>
       </c>
       <c r="V63" t="n" s="87">
         <v>0.41318629949241703</v>
       </c>
       <c r="W63" t="n" s="87">
-        <v>0.32636696060440695</v>
+        <v>0.3264075084239858</v>
       </c>
       <c r="X63" t="n" s="87">
         <v>1.0</v>
@@ -9335,56 +9215,54 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC63" t="n" s="87">
-        <v>0.3649810649666819</v>
+        <v>0.36537818169083963</v>
       </c>
       <c r="AD63" t="n" s="87">
-        <v>0.36498106496668203</v>
+        <v>0.3653781816908397</v>
       </c>
       <c r="AE63" t="n" s="87">
-        <v>0.3428745974314621</v>
+        <v>0.3432606631017295</v>
       </c>
       <c r="AF63" t="n" s="87">
-        <v>0.3428745974314621</v>
+        <v>0.3432606631017295</v>
       </c>
       <c r="AG63" t="n" s="87">
-        <v>0.2721515684186678</v>
+        <v>0.27249102328745756</v>
       </c>
       <c r="AH63" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI63" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ63" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK63" t="n" s="87">
-        <v>0.9999797271731412</v>
+        <v>0.999979297723817</v>
       </c>
       <c r="AL63" t="n" s="87">
-        <v>0.9999999654730883</v>
+        <v>0.9999999648784316</v>
       </c>
       <c r="AM63" t="n" s="87">
         <v>0.999839354167977</v>
       </c>
       <c r="AN63" t="n" s="87">
-        <v>0.9999999997477563</v>
+        <v>0.999999999752351</v>
       </c>
       <c r="AO63" t="n" s="87">
-        <v>0.9999999999992772</v>
+        <v>0.9999999999993117</v>
       </c>
       <c r="AP63" t="n" s="87">
         <v>0.9992035989787297</v>
       </c>
       <c r="AQ63" t="n" s="87">
-        <v>0.999999970698378</v>
+        <v>0.9999999712197635</v>
       </c>
       <c r="AR63" t="n" s="87">
-        <v>0.9999999674606888</v>
-      </c>
-      <c r="AS63" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999681944571</v>
+      </c>
+      <c r="AS63" s="87"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9445,10 +9323,10 @@
         <v>0.4717114786308504</v>
       </c>
       <c r="W64" t="n" s="87">
-        <v>0.37242870572522246</v>
+        <v>0.37245558029115244</v>
       </c>
       <c r="X64" t="n" s="87">
-        <v>0.37242870572522246</v>
+        <v>0.37245558029115244</v>
       </c>
       <c r="Y64" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -9463,16 +9341,16 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC64" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AD64" t="n" s="87">
-        <v>0.3644606619892339</v>
+        <v>0.36473350218908757</v>
       </c>
       <c r="AE64" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AF64" t="n" s="87">
-        <v>0.34236872061860657</v>
+        <v>0.3426339386854806</v>
       </c>
       <c r="AG64" t="n" s="87">
         <v>1.0</v>
@@ -9481,22 +9359,22 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI64" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ64" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK64" t="n" s="87">
-        <v>0.9999941251072504</v>
+        <v>0.9999937396794508</v>
       </c>
       <c r="AL64" t="n" s="87">
-        <v>0.9999999997236679</v>
+        <v>0.9999999997091434</v>
       </c>
       <c r="AM64" t="n" s="87">
         <v>0.9996183567965429</v>
       </c>
       <c r="AN64" t="n" s="87">
-        <v>0.9999999999165102</v>
+        <v>0.9999999999209903</v>
       </c>
       <c r="AO64" t="n" s="87">
         <v>0.9999999999999996</v>
@@ -9505,14 +9383,12 @@
         <v>0.9993037358816126</v>
       </c>
       <c r="AQ64" t="n" s="87">
-        <v>0.9999999996785963</v>
+        <v>0.9999999996958424</v>
       </c>
       <c r="AR64" t="n" s="87">
-        <v>0.999999999692421</v>
-      </c>
-      <c r="AS64" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999997140377</v>
+      </c>
+      <c r="AS64" s="87"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9534,10 +9410,10 @@
         <v>1.0</v>
       </c>
       <c r="J65" t="n" s="87">
-        <v>0.9694773477778695</v>
+        <v>0.9694706260026922</v>
       </c>
       <c r="K65" t="n" s="87">
-        <v>0.9694773477778695</v>
+        <v>0.9694706260026922</v>
       </c>
       <c r="L65" t="n" s="87">
         <v>0.44806075231924875</v>
@@ -9573,10 +9449,10 @@
         <v>0.449525727553332</v>
       </c>
       <c r="W65" t="n" s="87">
-        <v>0.3386939432376913</v>
+        <v>0.3387352524469755</v>
       </c>
       <c r="X65" t="n" s="87">
-        <v>0.3386939432376913</v>
+        <v>0.3387352524469755</v>
       </c>
       <c r="Y65" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9591,16 +9467,16 @@
         <v>0.48236262520090534</v>
       </c>
       <c r="AC65" t="n" s="87">
-        <v>0.3687907216317351</v>
+        <v>0.36918957355755044</v>
       </c>
       <c r="AD65" t="n" s="87">
-        <v>0.3687907216317351</v>
+        <v>0.36918957355755044</v>
       </c>
       <c r="AE65" t="n" s="87">
-        <v>0.34365579234681326</v>
+        <v>0.34404227709684093</v>
       </c>
       <c r="AF65" t="n" s="87">
-        <v>0.34365579234681326</v>
+        <v>0.34404227709684093</v>
       </c>
       <c r="AG65" t="n" s="87">
         <v>1.0</v>
@@ -9609,38 +9485,36 @@
         <v>0.4359311459048929</v>
       </c>
       <c r="AI65" t="n" s="87">
-        <v>0.36856502756635745</v>
+        <v>0.3689637780808335</v>
       </c>
       <c r="AJ65" t="n" s="87">
         <v>0.9988765507028821</v>
       </c>
       <c r="AK65" t="n" s="87">
-        <v>0.9999520522170978</v>
+        <v>0.9999500125113611</v>
       </c>
       <c r="AL65" t="n" s="87">
-        <v>0.999999700862088</v>
+        <v>0.9999996904681252</v>
       </c>
       <c r="AM65" t="n" s="87">
         <v>0.9998899625499165</v>
       </c>
       <c r="AN65" t="n" s="87">
-        <v>0.9999999991619352</v>
+        <v>0.9999999991921852</v>
       </c>
       <c r="AO65" t="n" s="87">
-        <v>0.9999999999989366</v>
+        <v>0.9999999999990344</v>
       </c>
       <c r="AP65" t="n" s="87">
         <v>0.9999107731865569</v>
       </c>
       <c r="AQ65" t="n" s="87">
-        <v>0.9999999992737711</v>
+        <v>0.9999999992996887</v>
       </c>
       <c r="AR65" t="n" s="87">
-        <v>0.9999999948209303</v>
-      </c>
-      <c r="AS65" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999950620003</v>
+      </c>
+      <c r="AS65" s="87"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9662,10 +9536,10 @@
         <v>1.0</v>
       </c>
       <c r="J66" t="n" s="87">
-        <v>0.19323538115366387</v>
+        <v>0.19319997481912426</v>
       </c>
       <c r="K66" t="n" s="87">
-        <v>0.19323538115366384</v>
+        <v>0.1931999748191242</v>
       </c>
       <c r="L66" t="n" s="87">
         <v>1.0</v>
@@ -9695,16 +9569,16 @@
         <v>0.3973321606181815</v>
       </c>
       <c r="U66" t="n" s="87">
-        <v>0.3007428984439526</v>
+        <v>0.3007917013242369</v>
       </c>
       <c r="V66" t="n" s="87">
         <v>0.40050398727484665</v>
       </c>
       <c r="W66" t="n" s="87">
-        <v>0.30572761135982873</v>
+        <v>0.3057768694128668</v>
       </c>
       <c r="X66" t="n" s="87">
-        <v>0.30572761135982873</v>
+        <v>0.3057768694128668</v>
       </c>
       <c r="Y66" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -9719,56 +9593,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC66" t="n" s="87">
-        <v>0.34614807711087</v>
+        <v>0.3466184766611928</v>
       </c>
       <c r="AD66" t="n" s="87">
-        <v>0.34614807711087003</v>
+        <v>0.34661847666119283</v>
       </c>
       <c r="AE66" t="n" s="87">
-        <v>0.32459921997373126</v>
+        <v>0.32505489376480545</v>
       </c>
       <c r="AF66" t="n" s="87">
-        <v>0.3245992199737312</v>
+        <v>0.3250548937648054</v>
       </c>
       <c r="AG66" t="n" s="87">
-        <v>0.2535897708825633</v>
+        <v>0.2539832470540241</v>
       </c>
       <c r="AH66" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI66" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ66" t="n" s="87">
         <v>0.9981271676863099</v>
       </c>
       <c r="AK66" t="n" s="87">
-        <v>0.994429070223505</v>
+        <v>0.9946335668208098</v>
       </c>
       <c r="AL66" t="n" s="87">
-        <v>0.860787443791661</v>
+        <v>0.8654866255105524</v>
       </c>
       <c r="AM66" t="n" s="87">
         <v>0.9880783892801257</v>
       </c>
       <c r="AN66" t="n" s="87">
-        <v>0.9788825153440829</v>
+        <v>0.9787939558030181</v>
       </c>
       <c r="AO66" t="n" s="87">
-        <v>0.9197351845486441</v>
+        <v>0.9208290937792591</v>
       </c>
       <c r="AP66" t="n" s="87">
         <v>0.6143951155129166</v>
       </c>
       <c r="AQ66" t="n" s="87">
-        <v>0.444494679900849</v>
+        <v>0.44432085917025793</v>
       </c>
       <c r="AR66" t="n" s="87">
-        <v>2.1423713806573638E-4</v>
-      </c>
-      <c r="AS66" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>2.0666619729133945E-4</v>
+      </c>
+      <c r="AS66" s="87"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9778,7 +9650,7 @@
         <v>1.0</v>
       </c>
       <c r="F67" t="n" s="87">
-        <v>0.9586046563125658</v>
+        <v>0.9585734200399294</v>
       </c>
       <c r="G67" t="n" s="87">
         <v>1.0</v>
@@ -9790,10 +9662,10 @@
         <v>1.0</v>
       </c>
       <c r="J67" t="n" s="87">
-        <v>0.8869440614111593</v>
+        <v>0.8869212839394341</v>
       </c>
       <c r="K67" t="n" s="87">
-        <v>0.8869440614111594</v>
+        <v>0.8869212839394339</v>
       </c>
       <c r="L67" t="n" s="87">
         <v>1.0</v>
@@ -9829,10 +9701,10 @@
         <v>0.46428536444769425</v>
       </c>
       <c r="W67" t="n" s="87">
-        <v>0.34725505304195936</v>
+        <v>0.34730765484035697</v>
       </c>
       <c r="X67" t="n" s="87">
-        <v>0.34725505304195936</v>
+        <v>0.34730765484035697</v>
       </c>
       <c r="Y67" t="n" s="87">
         <v>0.49821377345635</v>
@@ -9847,16 +9719,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC67" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139399</v>
       </c>
       <c r="AD67" t="n" s="87">
-        <v>0.35915168628187294</v>
+        <v>0.3596300376139401</v>
       </c>
       <c r="AE67" t="n" s="87">
-        <v>0.3343257466865859</v>
+        <v>0.334788306419535</v>
       </c>
       <c r="AF67" t="n" s="87">
-        <v>0.3343257466865859</v>
+        <v>0.334788306419535</v>
       </c>
       <c r="AG67" t="n" s="87">
         <v>1.0</v>
@@ -9865,7 +9737,7 @@
         <v>0.6173291465273902</v>
       </c>
       <c r="AI67" t="n" s="87">
-        <v>0.5280625616365364</v>
+        <v>0.5285803248699809</v>
       </c>
       <c r="AJ67" t="n" s="87">
         <v>0.9989694203481638</v>
@@ -9889,14 +9761,12 @@
         <v>0.9999852481263272</v>
       </c>
       <c r="AQ67" t="n" s="87">
-        <v>0.9999986872695605</v>
+        <v>0.9999986863470304</v>
       </c>
       <c r="AR67" t="n" s="87">
-        <v>0.9961907201778221</v>
-      </c>
-      <c r="AS67" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9961820551894899</v>
+      </c>
+      <c r="AS67" s="87"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -9918,10 +9788,10 @@
         <v>1.0</v>
       </c>
       <c r="J68" t="n" s="87">
-        <v>0.8840841730265212</v>
+        <v>0.8840715876323708</v>
       </c>
       <c r="K68" t="n" s="87">
-        <v>0.8840841730265213</v>
+        <v>0.8840715876323708</v>
       </c>
       <c r="L68" t="n" s="87">
         <v>1.0</v>
@@ -9957,10 +9827,10 @@
         <v>0.40988817174170833</v>
       </c>
       <c r="W68" t="n" s="87">
-        <v>0.3187496573711947</v>
+        <v>0.3187746259820743</v>
       </c>
       <c r="X68" t="n" s="87">
-        <v>0.3187496573711947</v>
+        <v>0.3187746259820743</v>
       </c>
       <c r="Y68" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -9975,16 +9845,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC68" t="n" s="87">
-        <v>0.3601794558496114</v>
+        <v>0.36045090880268627</v>
       </c>
       <c r="AD68" t="n" s="87">
-        <v>0.3601794558496115</v>
+        <v>0.3604509088026863</v>
       </c>
       <c r="AE68" t="n" s="87">
-        <v>0.3382089221876841</v>
+        <v>0.3384725763669375</v>
       </c>
       <c r="AF68" t="n" s="87">
-        <v>0.3382089221876841</v>
+        <v>0.3384725763669374</v>
       </c>
       <c r="AG68" t="n" s="87">
         <v>1.0</v>
@@ -9993,38 +9863,36 @@
         <v>0.6767977560469417</v>
       </c>
       <c r="AI68" t="n" s="87">
-        <v>0.6327813947608513</v>
+        <v>0.63305502015413</v>
       </c>
       <c r="AJ68" t="n" s="87">
         <v>0.9988017943098251</v>
       </c>
       <c r="AK68" t="n" s="87">
-        <v>0.9998561394499644</v>
+        <v>0.9998585027636525</v>
       </c>
       <c r="AL68" t="n" s="87">
-        <v>0.9999940440961872</v>
+        <v>0.9999940914721478</v>
       </c>
       <c r="AM68" t="n" s="87">
         <v>0.9996875335428893</v>
       </c>
       <c r="AN68" t="n" s="87">
-        <v>0.9999999280048699</v>
+        <v>0.9999999275209053</v>
       </c>
       <c r="AO68" t="n" s="87">
-        <v>0.9999999973609619</v>
+        <v>0.9999999973352803</v>
       </c>
       <c r="AP68" t="n" s="87">
         <v>0.9987638928315988</v>
       </c>
       <c r="AQ68" t="n" s="87">
-        <v>0.9999982173261985</v>
+        <v>0.999998205393968</v>
       </c>
       <c r="AR68" t="n" s="87">
-        <v>0.9999989225882783</v>
-      </c>
-      <c r="AS68" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999989154752653</v>
+      </c>
+      <c r="AS68" s="87"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -10127,32 +9995,30 @@
         <v>0.9981707666602965</v>
       </c>
       <c r="AK69" t="n" s="87">
-        <v>0.9968447977685886</v>
+        <v>0.9968811229923137</v>
       </c>
       <c r="AL69" t="n" s="87">
-        <v>0.9637559806532511</v>
+        <v>0.9635818674421596</v>
       </c>
       <c r="AM69" t="n" s="87">
         <v>0.9867836956432171</v>
       </c>
       <c r="AN69" t="n" s="87">
-        <v>0.9656621638784558</v>
+        <v>0.9656990998335473</v>
       </c>
       <c r="AO69" t="n" s="87">
-        <v>0.8933466403041835</v>
+        <v>0.8957386588158871</v>
       </c>
       <c r="AP69" t="n" s="87">
         <v>0.5168460308525895</v>
       </c>
       <c r="AQ69" t="n" s="87">
-        <v>0.2350354024667265</v>
+        <v>0.2350355865190606</v>
       </c>
       <c r="AR69" t="n" s="87">
-        <v>1.8030338033092345E-4</v>
-      </c>
-      <c r="AS69" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.838884879637227E-4</v>
+      </c>
+      <c r="AS69" s="87"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -10174,10 +10040,10 @@
         <v>1.0</v>
       </c>
       <c r="J70" t="n" s="87">
-        <v>0.5634471617614705</v>
+        <v>0.5633912923616702</v>
       </c>
       <c r="K70" t="n" s="87">
-        <v>0.5634471617614705</v>
+        <v>0.5633912923616702</v>
       </c>
       <c r="L70" t="n" s="87">
         <v>1.0</v>
@@ -10207,16 +10073,16 @@
         <v>0.4341997435789006</v>
       </c>
       <c r="U70" t="n" s="87">
-        <v>0.34189613305310407</v>
+        <v>0.3419483483403491</v>
       </c>
       <c r="V70" t="n" s="87">
         <v>0.4374522516299245</v>
       </c>
       <c r="W70" t="n" s="87">
-        <v>0.3472242418361901</v>
+        <v>0.3472768414504348</v>
       </c>
       <c r="X70" t="n" s="87">
-        <v>0.3472242418361901</v>
+        <v>0.3472768414504348</v>
       </c>
       <c r="Y70" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10231,16 +10097,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC70" t="n" s="87">
-        <v>0.35614861868441816</v>
+        <v>0.356625196078886</v>
       </c>
       <c r="AD70" t="n" s="87">
-        <v>0.35614861868441827</v>
+        <v>0.356625196078886</v>
       </c>
       <c r="AE70" t="n" s="87">
-        <v>0.33429549515121026</v>
+        <v>0.3347580340775307</v>
       </c>
       <c r="AF70" t="n" s="87">
-        <v>0.33429549515121015</v>
+        <v>0.3347580340775306</v>
       </c>
       <c r="AG70" t="n" s="87">
         <v>1.0</v>
@@ -10249,38 +10115,36 @@
         <v>0.4641131508645797</v>
       </c>
       <c r="AI70" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ70" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK70" t="n" s="87">
-        <v>0.9992499702493108</v>
+        <v>0.9992828340724089</v>
       </c>
       <c r="AL70" t="n" s="87">
-        <v>0.9932880837355044</v>
+        <v>0.993460159349776</v>
       </c>
       <c r="AM70" t="n" s="87">
         <v>0.9989489051982795</v>
       </c>
       <c r="AN70" t="n" s="87">
-        <v>0.999940573553752</v>
+        <v>0.9999394995165106</v>
       </c>
       <c r="AO70" t="n" s="87">
-        <v>0.9992119725215582</v>
+        <v>0.9992139282705567</v>
       </c>
       <c r="AP70" t="n" s="87">
         <v>0.9897303200855265</v>
       </c>
       <c r="AQ70" t="n" s="87">
-        <v>0.9978153635887493</v>
+        <v>0.9978116495112229</v>
       </c>
       <c r="AR70" t="n" s="87">
-        <v>0.9815064059903553</v>
-      </c>
-      <c r="AS70" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9810623626852767</v>
+      </c>
+      <c r="AS70" s="87"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -10302,10 +10166,10 @@
         <v>1.0</v>
       </c>
       <c r="J71" t="n" s="87">
-        <v>0.7306118014607127</v>
+        <v>0.7305670954690068</v>
       </c>
       <c r="K71" t="n" s="87">
-        <v>0.7306118014607128</v>
+        <v>0.7305670954690068</v>
       </c>
       <c r="L71" t="n" s="87">
         <v>1.0</v>
@@ -10341,10 +10205,10 @@
         <v>0.42207933160421585</v>
       </c>
       <c r="W71" t="n" s="87">
-        <v>0.3097880018022579</v>
+        <v>0.30983762210091237</v>
       </c>
       <c r="X71" t="n" s="87">
-        <v>0.3097880018022579</v>
+        <v>0.30983762210091237</v>
       </c>
       <c r="Y71" t="n" s="87">
         <v>0.49821377345635</v>
@@ -10359,25 +10223,25 @@
         <v>0.4809577270857152</v>
       </c>
       <c r="AC71" t="n" s="87">
-        <v>0.3564468804981803</v>
+        <v>0.3569236357561107</v>
       </c>
       <c r="AD71" t="n" s="87">
-        <v>0.3564468804981803</v>
+        <v>0.35692363575611075</v>
       </c>
       <c r="AE71" t="n" s="87">
-        <v>0.33266868585869747</v>
+        <v>0.3331301002791281</v>
       </c>
       <c r="AF71" t="n" s="87">
-        <v>0.3326686858586974</v>
+        <v>0.333130100279128</v>
       </c>
       <c r="AG71" t="n" s="87">
-        <v>0.311074392921937</v>
+        <v>0.3115198376453482</v>
       </c>
       <c r="AH71" t="n" s="87">
         <v>0.44585118391102757</v>
       </c>
       <c r="AI71" t="n" s="87">
-        <v>0.36763252088558246</v>
+        <v>0.3681156793882265</v>
       </c>
       <c r="AJ71" t="n" s="87">
         <v>0.995655159960339</v>
@@ -10401,14 +10265,12 @@
         <v>0.9783541039897937</v>
       </c>
       <c r="AQ71" t="n" s="87">
-        <v>0.9979261408399163</v>
+        <v>0.9979246864440152</v>
       </c>
       <c r="AR71" t="n" s="87">
-        <v>0.5357113640271783</v>
-      </c>
-      <c r="AS71" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.5351440217809216</v>
+      </c>
+      <c r="AS71" s="87"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -10430,10 +10292,10 @@
         <v>1.0</v>
       </c>
       <c r="J72" t="n" s="87">
-        <v>0.5666425320809492</v>
+        <v>0.5666123764102908</v>
       </c>
       <c r="K72" t="n" s="87">
-        <v>0.5666425320809492</v>
+        <v>0.5666123764102908</v>
       </c>
       <c r="L72" t="n" s="87">
         <v>1.0</v>
@@ -10463,16 +10325,16 @@
         <v>0.3981537006666771</v>
       </c>
       <c r="U72" t="n" s="87">
-        <v>0.3119362996428976</v>
+        <v>0.3119609789421341</v>
       </c>
       <c r="V72" t="n" s="87">
         <v>0.4013277182950731</v>
       </c>
       <c r="W72" t="n" s="87">
-        <v>0.31702242705467415</v>
+        <v>0.3170473233333468</v>
       </c>
       <c r="X72" t="n" s="87">
-        <v>0.31702242705467415</v>
+        <v>0.3170473233333468</v>
       </c>
       <c r="Y72" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10487,16 +10349,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC72" t="n" s="87">
-        <v>0.35834581594894543</v>
+        <v>0.3586166615327493</v>
       </c>
       <c r="AD72" t="n" s="87">
-        <v>0.35834581594894555</v>
+        <v>0.35861666153274935</v>
       </c>
       <c r="AE72" t="n" s="87">
-        <v>0.3364283196575467</v>
+        <v>0.3366912919498779</v>
       </c>
       <c r="AF72" t="n" s="87">
-        <v>0.3364283196575467</v>
+        <v>0.33669129194987774</v>
       </c>
       <c r="AG72" t="n" s="87">
         <v>1.0</v>
@@ -10505,38 +10367,36 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI72" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ72" t="n" s="87">
         <v>0.9982976294956553</v>
       </c>
       <c r="AK72" t="n" s="87">
-        <v>0.9990037843896028</v>
+        <v>0.9990502328290376</v>
       </c>
       <c r="AL72" t="n" s="87">
-        <v>0.9999056582421448</v>
+        <v>0.9999079054618668</v>
       </c>
       <c r="AM72" t="n" s="87">
         <v>0.9955812970473823</v>
       </c>
       <c r="AN72" t="n" s="87">
-        <v>0.9999621290381855</v>
+        <v>0.9999613660527089</v>
       </c>
       <c r="AO72" t="n" s="87">
-        <v>0.9999956644472461</v>
+        <v>0.9999956257218562</v>
       </c>
       <c r="AP72" t="n" s="87">
         <v>0.9189899117147579</v>
       </c>
       <c r="AQ72" t="n" s="87">
-        <v>0.9797388350108291</v>
+        <v>0.9796302743966905</v>
       </c>
       <c r="AR72" t="n" s="87">
-        <v>0.9982938353789871</v>
-      </c>
-      <c r="AS72" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9982644308755998</v>
+      </c>
+      <c r="AS72" s="87"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -10546,7 +10406,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" t="n" s="87">
-        <v>0.7287035144504672</v>
+        <v>0.7285479233967029</v>
       </c>
       <c r="G73" t="n" s="87">
         <v>1.0</v>
@@ -10591,16 +10451,16 @@
         <v>0.3973321606181815</v>
       </c>
       <c r="U73" t="n" s="87">
-        <v>0.2980295511340212</v>
+        <v>0.298078101400683</v>
       </c>
       <c r="V73" t="n" s="87">
         <v>0.40050398727484665</v>
       </c>
       <c r="W73" t="n" s="87">
-        <v>0.3029887779941194</v>
+        <v>0.3030377873816473</v>
       </c>
       <c r="X73" t="n" s="87">
-        <v>0.3029887779941194</v>
+        <v>0.3030377873816473</v>
       </c>
       <c r="Y73" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10615,56 +10475,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC73" t="n" s="87">
-        <v>0.34614807711087</v>
+        <v>0.3466184766611928</v>
       </c>
       <c r="AD73" t="n" s="87">
-        <v>0.34614807711087003</v>
+        <v>0.34661847666119283</v>
       </c>
       <c r="AE73" t="n" s="87">
-        <v>0.32176967989921784</v>
+        <v>0.3222232766070504</v>
       </c>
       <c r="AF73" t="n" s="87">
-        <v>0.3217696798992178</v>
+        <v>0.3222232766070504</v>
       </c>
       <c r="AG73" t="n" s="87">
-        <v>0.23697241606170888</v>
+        <v>0.23734830726327477</v>
       </c>
       <c r="AH73" t="n" s="87">
         <v>0.4006604371953827</v>
       </c>
       <c r="AI73" t="n" s="87">
-        <v>0.3489721493306121</v>
+        <v>0.3494443356023422</v>
       </c>
       <c r="AJ73" t="n" s="87">
         <v>0.9985966015646651</v>
       </c>
       <c r="AK73" t="n" s="87">
-        <v>0.9985079586068646</v>
+        <v>0.9985670179342806</v>
       </c>
       <c r="AL73" t="n" s="87">
-        <v>0.812056921117656</v>
+        <v>0.8182707410098484</v>
       </c>
       <c r="AM73" t="n" s="87">
         <v>0.9978874971600219</v>
       </c>
       <c r="AN73" t="n" s="87">
-        <v>0.9956210617562741</v>
+        <v>0.995608776166706</v>
       </c>
       <c r="AO73" t="n" s="87">
-        <v>0.6777481141076737</v>
+        <v>0.6801711495704754</v>
       </c>
       <c r="AP73" t="n" s="87">
         <v>0.6976627157602013</v>
       </c>
       <c r="AQ73" t="n" s="87">
-        <v>0.703148289540633</v>
+        <v>0.70300145579413</v>
       </c>
       <c r="AR73" t="n" s="87">
-        <v>5.3351348667597145E-5</v>
-      </c>
-      <c r="AS73" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>5.144320853572942E-5</v>
+      </c>
+      <c r="AS73" s="87"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -10686,10 +10544,10 @@
         <v>1.0</v>
       </c>
       <c r="J74" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="K74" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="L74" t="n" s="87">
         <v>1.0</v>
@@ -10719,16 +10577,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U74" t="n" s="87">
-        <v>0.32273955743330107</v>
+        <v>0.3227646905085092</v>
       </c>
       <c r="V74" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W74" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="X74" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="Y74" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -10743,16 +10601,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC74" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD74" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE74" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF74" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG74" t="n" s="87">
         <v>1.0</v>
@@ -10761,38 +10619,36 @@
         <v>0.4362638694223085</v>
       </c>
       <c r="AI74" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ74" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK74" t="n" s="87">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="AL74" t="n" s="87">
-        <v>0.9999999990650749</v>
+        <v>0.9999999990159324</v>
       </c>
       <c r="AM74" t="n" s="87">
         <v>0.9991447677582072</v>
       </c>
       <c r="AN74" t="n" s="87">
-        <v>0.9999999981417097</v>
+        <v>0.9999999982414206</v>
       </c>
       <c r="AO74" t="n" s="87">
-        <v>0.9999999999997248</v>
+        <v>0.9999999999997627</v>
       </c>
       <c r="AP74" t="n" s="87">
         <v>0.9942033484144366</v>
       </c>
       <c r="AQ74" t="n" s="87">
-        <v>0.999999616077731</v>
+        <v>0.999999636675397</v>
       </c>
       <c r="AR74" t="n" s="87">
-        <v>0.9999999415505652</v>
-      </c>
-      <c r="AS74" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999945658554</v>
+      </c>
+      <c r="AS74" s="87"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -10853,10 +10709,10 @@
         <v>0.4284654654867112</v>
       </c>
       <c r="W75" t="n" s="87">
-        <v>0.3302621719582936</v>
+        <v>0.330127502062655</v>
       </c>
       <c r="X75" t="n" s="87">
-        <v>0.3302621719582936</v>
+        <v>0.330127502062655</v>
       </c>
       <c r="Y75" t="n" s="87">
         <v>0.49821377345635</v>
@@ -10871,16 +10727,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC75" t="n" s="87">
-        <v>0.37365427111174176</v>
+        <v>0.3724764915124924</v>
       </c>
       <c r="AD75" t="n" s="87">
-        <v>0.37365427111174176</v>
+        <v>0.3724764915124924</v>
       </c>
       <c r="AE75" t="n" s="87">
-        <v>0.35131310509997343</v>
+        <v>0.35016637660135974</v>
       </c>
       <c r="AF75" t="n" s="87">
-        <v>0.35131310509997343</v>
+        <v>0.3501663766013597</v>
       </c>
       <c r="AG75" t="n" s="87">
         <v>1.0</v>
@@ -10889,7 +10745,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI75" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ75" t="n" s="87">
         <v>0.9989694203481638</v>
@@ -10916,11 +10772,9 @@
         <v>0.9999999962577539</v>
       </c>
       <c r="AR75" t="n" s="87">
-        <v>0.9999998670249906</v>
-      </c>
-      <c r="AS75" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999998669381711</v>
+      </c>
+      <c r="AS75" s="87"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -10981,10 +10835,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W76" t="n" s="87">
-        <v>0.33566623470288126</v>
+        <v>0.3357179839041704</v>
       </c>
       <c r="X76" t="n" s="87">
-        <v>0.33566623470288126</v>
+        <v>0.3357179839041704</v>
       </c>
       <c r="Y76" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -10999,56 +10853,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC76" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.3547033719422817</v>
       </c>
       <c r="AD76" t="n" s="87">
-        <v>0.35422794877017266</v>
+        <v>0.35470337194228174</v>
       </c>
       <c r="AE76" t="n" s="87">
-        <v>0.35543974963411357</v>
+        <v>0.3559159028216717</v>
       </c>
       <c r="AF76" t="n" s="87">
-        <v>0.35543974963411357</v>
+        <v>0.3559159028216717</v>
       </c>
       <c r="AG76" t="n" s="87">
-        <v>0.28048542815905275</v>
+        <v>0.28090493083919016</v>
       </c>
       <c r="AH76" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI76" t="n" s="87">
-        <v>0.39370299234917927</v>
+        <v>0.3941990552942635</v>
       </c>
       <c r="AJ76" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK76" t="n" s="87">
-        <v>0.9994436556210997</v>
+        <v>0.9994597685879449</v>
       </c>
       <c r="AL76" t="n" s="87">
-        <v>0.9753222391365141</v>
+        <v>0.9757824063228375</v>
       </c>
       <c r="AM76" t="n" s="87">
         <v>0.999382209609825</v>
       </c>
       <c r="AN76" t="n" s="87">
-        <v>0.9999088694344194</v>
+        <v>0.9999079465346508</v>
       </c>
       <c r="AO76" t="n" s="87">
-        <v>0.9968438106893904</v>
+        <v>0.9968492228353402</v>
       </c>
       <c r="AP76" t="n" s="87">
         <v>0.9875204047205678</v>
       </c>
       <c r="AQ76" t="n" s="87">
-        <v>0.9983402472219384</v>
+        <v>0.9983364722716329</v>
       </c>
       <c r="AR76" t="n" s="87">
-        <v>0.9873640599351544</v>
-      </c>
-      <c r="AS76" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9871105327085076</v>
+      </c>
+      <c r="AS76" s="87"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -11070,10 +10922,10 @@
         <v>1.0</v>
       </c>
       <c r="J77" t="n" s="87">
-        <v>0.22464233069867054</v>
+        <v>0.22460277179402352</v>
       </c>
       <c r="K77" t="n" s="87">
-        <v>0.22464233069867054</v>
+        <v>0.22460277179402346</v>
       </c>
       <c r="L77" t="n" s="87">
         <v>0.4348126573122394</v>
@@ -11103,16 +10955,16 @@
         <v>0.39760156174017675</v>
       </c>
       <c r="U77" t="n" s="87">
-        <v>0.298264944568297</v>
+        <v>0.29831351688554913</v>
       </c>
       <c r="V77" t="n" s="87">
         <v>0.40077410884036674</v>
       </c>
       <c r="W77" t="n" s="87">
-        <v>0.30322639639952664</v>
+        <v>0.30327542749895975</v>
       </c>
       <c r="X77" t="n" s="87">
-        <v>0.30322639639952664</v>
+        <v>0.30327542749895975</v>
       </c>
       <c r="Y77" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11127,56 +10979,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC77" t="n" s="87">
-        <v>0.34640272143626083</v>
+        <v>0.3468732834545441</v>
       </c>
       <c r="AD77" t="n" s="87">
-        <v>0.34640272143626083</v>
+        <v>0.3468732834545442</v>
       </c>
       <c r="AE77" t="n" s="87">
-        <v>0.3220152225304239</v>
+        <v>0.322469000803705</v>
       </c>
       <c r="AF77" t="n" s="87">
-        <v>0.32201522253042386</v>
+        <v>0.32246900080370494</v>
       </c>
       <c r="AG77" t="n" s="87">
-        <v>0.22897243937191142</v>
+        <v>0.22933945491894145</v>
       </c>
       <c r="AH77" t="n" s="87">
         <v>0.38969106625102584</v>
       </c>
       <c r="AI77" t="n" s="87">
-        <v>0.33861838145729045</v>
+        <v>0.33908385501609095</v>
       </c>
       <c r="AJ77" t="n" s="87">
         <v>0.9983469932649254</v>
       </c>
       <c r="AK77" t="n" s="87">
-        <v>0.9953252753915007</v>
+        <v>0.9954941416333971</v>
       </c>
       <c r="AL77" t="n" s="87">
-        <v>0.7351039736186861</v>
+        <v>0.7434292872578961</v>
       </c>
       <c r="AM77" t="n" s="87">
         <v>0.9918134069414685</v>
       </c>
       <c r="AN77" t="n" s="87">
-        <v>0.9777379415778319</v>
+        <v>0.9777191448431326</v>
       </c>
       <c r="AO77" t="n" s="87">
-        <v>0.2587116464347678</v>
+        <v>0.26172946984703804</v>
       </c>
       <c r="AP77" t="n" s="87">
         <v>0.6106468638547616</v>
       </c>
       <c r="AQ77" t="n" s="87">
-        <v>0.3473689375675296</v>
+        <v>0.34720964210619765</v>
       </c>
       <c r="AR77" t="n" s="87">
-        <v>1.5424074165151358E-6</v>
-      </c>
-      <c r="AS77" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>1.4864913895400687E-6</v>
+      </c>
+      <c r="AS77" s="87"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -11198,10 +11048,10 @@
         <v>1.0</v>
       </c>
       <c r="J78" t="n" s="87">
-        <v>0.38635395257457633</v>
+        <v>0.38632483821626</v>
       </c>
       <c r="K78" t="n" s="87">
-        <v>0.3863539525745763</v>
+        <v>0.38632483821626</v>
       </c>
       <c r="L78" t="n" s="87">
         <v>1.0</v>
@@ -11231,16 +11081,16 @@
         <v>0.4026547622489978</v>
       </c>
       <c r="U78" t="n" s="87">
-        <v>0.3068421747732477</v>
+        <v>0.306876761623497</v>
       </c>
       <c r="V78" t="n" s="87">
         <v>0.40687307396861927</v>
       </c>
       <c r="W78" t="n" s="87">
-        <v>0.3133278060798135</v>
+        <v>0.3133627934880228</v>
       </c>
       <c r="X78" t="n" s="87">
-        <v>0.3133278060798135</v>
+        <v>0.3133627934880228</v>
       </c>
       <c r="Y78" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11255,56 +11105,54 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC78" t="n" s="87">
-        <v>0.3512373926864163</v>
+        <v>0.35158894777215793</v>
       </c>
       <c r="AD78" t="n" s="87">
-        <v>0.3512373926864164</v>
+        <v>0.351588947772158</v>
       </c>
       <c r="AE78" t="n" s="87">
-        <v>0.3295313846948983</v>
+        <v>0.32987226084028654</v>
       </c>
       <c r="AF78" t="n" s="87">
-        <v>0.3295313846948983</v>
+        <v>0.3298722608402865</v>
       </c>
       <c r="AG78" t="n" s="87">
-        <v>0.2604696685658362</v>
+        <v>0.2607668904611456</v>
       </c>
       <c r="AH78" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI78" t="n" s="87">
-        <v>0.3707247300786817</v>
+        <v>0.3710846335166819</v>
       </c>
       <c r="AJ78" t="n" s="87">
         <v>0.9984540813360937</v>
       </c>
       <c r="AK78" t="n" s="87">
-        <v>0.999915972030996</v>
+        <v>0.9999138493455464</v>
       </c>
       <c r="AL78" t="n" s="87">
-        <v>0.9999766034848258</v>
+        <v>0.9999759665728063</v>
       </c>
       <c r="AM78" t="n" s="87">
         <v>0.9957838875094744</v>
       </c>
       <c r="AN78" t="n" s="87">
-        <v>0.999876479429693</v>
+        <v>0.9998800545173765</v>
       </c>
       <c r="AO78" t="n" s="87">
-        <v>0.9999319655670026</v>
+        <v>0.9999358091815247</v>
       </c>
       <c r="AP78" t="n" s="87">
         <v>0.8204406148484619</v>
       </c>
       <c r="AQ78" t="n" s="87">
-        <v>0.8712931649078134</v>
+        <v>0.8714742195317932</v>
       </c>
       <c r="AR78" t="n" s="87">
-        <v>0.9389937294201588</v>
-      </c>
-      <c r="AS78" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9415618899352532</v>
+      </c>
+      <c r="AS78" s="87"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -11359,16 +11207,16 @@
         <v>0.3996832524560099</v>
       </c>
       <c r="U79" t="n" s="87">
-        <v>0.3045029815045692</v>
+        <v>0.30454204098948745</v>
       </c>
       <c r="V79" t="n" s="87">
         <v>0.4028613014993786</v>
       </c>
       <c r="W79" t="n" s="87">
-        <v>0.3088893483095813</v>
+        <v>0.30892872052545484</v>
       </c>
       <c r="X79" t="n" s="87">
-        <v>0.3088893483095813</v>
+        <v>0.30892872052545484</v>
       </c>
       <c r="Y79" t="n" s="87">
         <v>0.47903141456775666</v>
@@ -11383,56 +11231,54 @@
         <v>0.4626135206857456</v>
       </c>
       <c r="AC79" t="n" s="87">
-        <v>0.34958948043733196</v>
+        <v>0.34997908006563705</v>
       </c>
       <c r="AD79" t="n" s="87">
-        <v>0.349589480437332</v>
+        <v>0.34997908006563716</v>
       </c>
       <c r="AE79" t="n" s="87">
-        <v>0.3279338341938433</v>
+        <v>0.328311482025458</v>
       </c>
       <c r="AF79" t="n" s="87">
-        <v>0.32793383419384325</v>
+        <v>0.328311482025458</v>
       </c>
       <c r="AG79" t="n" s="87">
-        <v>0.2570375176543919</v>
+        <v>0.2573647866779599</v>
       </c>
       <c r="AH79" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI79" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ79" t="n" s="87">
         <v>0.9989262997466999</v>
       </c>
       <c r="AK79" t="n" s="87">
-        <v>0.9998906875781691</v>
+        <v>0.999892071199642</v>
       </c>
       <c r="AL79" t="n" s="87">
-        <v>0.9999765370933625</v>
+        <v>0.9999765103750756</v>
       </c>
       <c r="AM79" t="n" s="87">
         <v>0.9991776316129337</v>
       </c>
       <c r="AN79" t="n" s="87">
-        <v>0.9999967372521898</v>
+        <v>0.9999967533610709</v>
       </c>
       <c r="AO79" t="n" s="87">
-        <v>0.9999973924641375</v>
+        <v>0.9999974528613356</v>
       </c>
       <c r="AP79" t="n" s="87">
         <v>0.8917255965672483</v>
       </c>
       <c r="AQ79" t="n" s="87">
-        <v>0.9698904456635873</v>
+        <v>0.9699094774439164</v>
       </c>
       <c r="AR79" t="n" s="87">
-        <v>0.9952792418579387</v>
-      </c>
-      <c r="AS79" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9953403239167761</v>
+      </c>
+      <c r="AS79" s="87"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -11454,7 +11300,7 @@
         <v>1.0</v>
       </c>
       <c r="J80" t="n" s="87">
-        <v>0.4172728335675684</v>
+        <v>0.4172176061226278</v>
       </c>
       <c r="K80" t="n" s="87">
         <v>1.0</v>
@@ -11487,16 +11333,16 @@
         <v>0.403303173377494</v>
       </c>
       <c r="U80" t="n" s="87">
-        <v>0.3032591831917856</v>
+        <v>0.3033082172849886</v>
       </c>
       <c r="V80" t="n" s="87">
         <v>0.3992567501698555</v>
       </c>
       <c r="W80" t="n" s="87">
-        <v>0.306433767668571</v>
+        <v>0.306483089270701</v>
       </c>
       <c r="X80" t="n" s="87">
-        <v>0.306433767668571</v>
+        <v>0.306483089270701</v>
       </c>
       <c r="Y80" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11511,16 +11357,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC80" t="n" s="87">
-        <v>0.3498374902251395</v>
+        <v>0.3503102173372916</v>
       </c>
       <c r="AD80" t="n" s="87">
-        <v>0.34983749022513955</v>
+        <v>0.35031021733729173</v>
       </c>
       <c r="AE80" t="n" s="87">
-        <v>0.32532853985179533</v>
+        <v>0.3257847436166887</v>
       </c>
       <c r="AF80" t="n" s="87">
-        <v>0.32532853985179533</v>
+        <v>0.32578474361668863</v>
       </c>
       <c r="AG80" t="n" s="87">
         <v>1.0</v>
@@ -11529,38 +11375,36 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI80" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ80" t="n" s="87">
         <v>0.9984336413814735</v>
       </c>
       <c r="AK80" t="n" s="87">
-        <v>0.9986182279728375</v>
+        <v>0.9986547302427947</v>
       </c>
       <c r="AL80" t="n" s="87">
-        <v>0.8666021286957147</v>
+        <v>0.8693497598932041</v>
       </c>
       <c r="AM80" t="n" s="87">
         <v>0.9986640759333207</v>
       </c>
       <c r="AN80" t="n" s="87">
-        <v>0.999054228063414</v>
+        <v>0.9990491175666087</v>
       </c>
       <c r="AO80" t="n" s="87">
-        <v>0.958297565199901</v>
+        <v>0.9586014998380762</v>
       </c>
       <c r="AP80" t="n" s="87">
         <v>0.9135090005021563</v>
       </c>
       <c r="AQ80" t="n" s="87">
-        <v>0.9771653423351101</v>
+        <v>0.9771495132166459</v>
       </c>
       <c r="AR80" t="n" s="87">
-        <v>0.022310783131292693</v>
-      </c>
-      <c r="AS80" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.021798227236500507</v>
+      </c>
+      <c r="AS80" s="87"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -11615,16 +11459,16 @@
         <v>0.4150027699831104</v>
       </c>
       <c r="U81" t="n" s="87">
-        <v>0.31771279572534256</v>
+        <v>0.31774804620216035</v>
       </c>
       <c r="V81" t="n" s="87">
         <v>0.4161237688456105</v>
       </c>
       <c r="W81" t="n" s="87">
-        <v>0.3132925251598187</v>
+        <v>0.3133275104260586</v>
       </c>
       <c r="X81" t="n" s="87">
-        <v>0.3132925251598187</v>
+        <v>0.3133275104260586</v>
       </c>
       <c r="Y81" t="n" s="87">
         <v>0.4871431549000324</v>
@@ -11639,16 +11483,16 @@
         <v>0.4699114656337176</v>
       </c>
       <c r="AC81" t="n" s="87">
-        <v>0.3583268596431807</v>
+        <v>0.3586815875072187</v>
       </c>
       <c r="AD81" t="n" s="87">
-        <v>0.3583268596431807</v>
+        <v>0.3586815875072187</v>
       </c>
       <c r="AE81" t="n" s="87">
-        <v>0.33640991490674566</v>
+        <v>0.3367543325894102</v>
       </c>
       <c r="AF81" t="n" s="87">
-        <v>0.33640991490674566</v>
+        <v>0.3367543325894102</v>
       </c>
       <c r="AG81" t="n" s="87">
         <v>1.0</v>
@@ -11657,38 +11501,36 @@
         <v>0.44585118391102757</v>
       </c>
       <c r="AI81" t="n" s="87">
-        <v>0.3719280563719641</v>
+        <v>0.37228843688649443</v>
       </c>
       <c r="AJ81" t="n" s="87">
         <v>0.9949780962965087</v>
       </c>
       <c r="AK81" t="n" s="87">
-        <v>0.9941562626195687</v>
+        <v>0.9941353370538701</v>
       </c>
       <c r="AL81" t="n" s="87">
-        <v>0.9997787162643498</v>
+        <v>0.9997766635607916</v>
       </c>
       <c r="AM81" t="n" s="87">
         <v>0.9873807534243758</v>
       </c>
       <c r="AN81" t="n" s="87">
-        <v>0.999800513715506</v>
+        <v>0.9998028016991717</v>
       </c>
       <c r="AO81" t="n" s="87">
-        <v>0.9999966092668876</v>
+        <v>0.9999967179520748</v>
       </c>
       <c r="AP81" t="n" s="87">
         <v>0.8986316485059772</v>
       </c>
       <c r="AQ81" t="n" s="87">
-        <v>0.9826988785162349</v>
+        <v>0.9828266378104885</v>
       </c>
       <c r="AR81" t="n" s="87">
-        <v>0.9995619571349595</v>
-      </c>
-      <c r="AS81" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9995700435525694</v>
+      </c>
+      <c r="AS81" s="87"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -11710,10 +11552,10 @@
         <v>1.0</v>
       </c>
       <c r="J82" t="n" s="87">
-        <v>0.37698466099056593</v>
+        <v>0.3769313166906019</v>
       </c>
       <c r="K82" t="n" s="87">
-        <v>0.3769846609905658</v>
+        <v>0.37693131669060187</v>
       </c>
       <c r="L82" t="n" s="87">
         <v>1.0</v>
@@ -11743,16 +11585,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U82" t="n" s="87">
-        <v>0.30146155372528805</v>
+        <v>0.3015104229402114</v>
       </c>
       <c r="V82" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W82" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="X82" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="Y82" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11767,56 +11609,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC82" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD82" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE82" t="n" s="87">
-        <v>0.32534835823743874</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AF82" t="n" s="87">
-        <v>0.3253483582374387</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AG82" t="n" s="87">
-        <v>0.2542367163221647</v>
+        <v>0.254630853867583</v>
       </c>
       <c r="AH82" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI82" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ82" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK82" t="n" s="87">
-        <v>0.9990000099660653</v>
+        <v>0.9990416362092567</v>
       </c>
       <c r="AL82" t="n" s="87">
-        <v>0.9482051375621462</v>
+        <v>0.9497917809699783</v>
       </c>
       <c r="AM82" t="n" s="87">
         <v>0.9979791884546451</v>
       </c>
       <c r="AN82" t="n" s="87">
-        <v>0.9983599437492973</v>
+        <v>0.9983413802091577</v>
       </c>
       <c r="AO82" t="n" s="87">
-        <v>0.9902363563535741</v>
+        <v>0.9903110609927959</v>
       </c>
       <c r="AP82" t="n" s="87">
         <v>0.772157156034376</v>
       </c>
       <c r="AQ82" t="n" s="87">
-        <v>0.8485932639776221</v>
+        <v>0.8485019163328902</v>
       </c>
       <c r="AR82" t="n" s="87">
-        <v>0.013449860099517525</v>
-      </c>
-      <c r="AS82" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.013023007679637728</v>
+      </c>
+      <c r="AS82" s="87"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -11838,10 +11678,10 @@
         <v>1.0</v>
       </c>
       <c r="J83" t="n" s="87">
-        <v>0.37615077917767253</v>
+        <v>0.37609748164288764</v>
       </c>
       <c r="K83" t="n" s="87">
-        <v>0.3761507791776725</v>
+        <v>0.3760974816428877</v>
       </c>
       <c r="L83" t="n" s="87">
         <v>1.0</v>
@@ -11871,16 +11711,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U83" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V83" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W83" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X83" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y83" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -11895,56 +11735,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC83" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD83" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE83" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF83" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG83" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH83" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI83" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ83" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK83" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL83" t="n" s="87">
-        <v>0.8453306498321572</v>
+        <v>0.8503438456735428</v>
       </c>
       <c r="AM83" t="n" s="87">
         <v>0.9979791884546451</v>
       </c>
       <c r="AN83" t="n" s="87">
-        <v>0.9969577727517127</v>
+        <v>0.9969419732672697</v>
       </c>
       <c r="AO83" t="n" s="87">
-        <v>0.9132459561665087</v>
+        <v>0.9141704144724774</v>
       </c>
       <c r="AP83" t="n" s="87">
         <v>0.7553492352203801</v>
       </c>
       <c r="AQ83" t="n" s="87">
-        <v>0.7980003864940732</v>
+        <v>0.7978868606199131</v>
       </c>
       <c r="AR83" t="n" s="87">
-        <v>4.528796951378493E-4</v>
-      </c>
-      <c r="AS83" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.370129584914067E-4</v>
+      </c>
+      <c r="AS83" s="87"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -12005,7 +11843,7 @@
         <v>0.46697965765355387</v>
       </c>
       <c r="W84" t="n" s="87">
-        <v>0.3670481366168274</v>
+        <v>0.3670748500197903</v>
       </c>
       <c r="X84" t="n" s="87">
         <v>1.0</v>
@@ -12023,16 +11861,16 @@
         <v>0.46249027824216116</v>
       </c>
       <c r="AC84" t="n" s="87">
-        <v>0.36211199862055493</v>
+        <v>0.3623840831270661</v>
       </c>
       <c r="AD84" t="n" s="87">
-        <v>0.36211199862055493</v>
+        <v>0.3623840831270661</v>
       </c>
       <c r="AE84" t="n" s="87">
-        <v>0.33718909814720754</v>
+        <v>0.3374523626961554</v>
       </c>
       <c r="AF84" t="n" s="87">
-        <v>0.33718909814720754</v>
+        <v>0.3374523626961554</v>
       </c>
       <c r="AG84" t="n" s="87">
         <v>1.0</v>
@@ -12041,38 +11879,36 @@
         <v>0.473971888569348</v>
       </c>
       <c r="AI84" t="n" s="87">
-        <v>0.3696498069643087</v>
+        <v>0.36992427070708</v>
       </c>
       <c r="AJ84" t="n" s="87">
         <v>0.9990766231441008</v>
       </c>
       <c r="AK84" t="n" s="87">
-        <v>0.9999903772870422</v>
+        <v>0.9999899641388307</v>
       </c>
       <c r="AL84" t="n" s="87">
-        <v>0.9999999799994826</v>
+        <v>0.9999999793046209</v>
       </c>
       <c r="AM84" t="n" s="87">
         <v>0.9999287684726809</v>
       </c>
       <c r="AN84" t="n" s="87">
-        <v>0.9999999999306193</v>
+        <v>0.9999999999331238</v>
       </c>
       <c r="AO84" t="n" s="87">
-        <v>0.9999999999999478</v>
+        <v>0.9999999999999527</v>
       </c>
       <c r="AP84" t="n" s="87">
         <v>0.99944372403038</v>
       </c>
       <c r="AQ84" t="n" s="87">
-        <v>0.9999999977730065</v>
+        <v>0.9999999978533995</v>
       </c>
       <c r="AR84" t="n" s="87">
-        <v>0.9999999958995646</v>
-      </c>
-      <c r="AS84" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999960918798</v>
+      </c>
+      <c r="AS84" s="87"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -12094,10 +11930,10 @@
         <v>1.0</v>
       </c>
       <c r="J85" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="K85" t="n" s="87">
-        <v>0.8451239534868393</v>
+        <v>0.8451078791503704</v>
       </c>
       <c r="L85" t="n" s="87">
         <v>1.0</v>
@@ -12127,16 +11963,16 @@
         <v>0.45596990980697477</v>
       </c>
       <c r="U85" t="n" s="87">
-        <v>0.3692008036659776</v>
+        <v>0.3692275823462864</v>
       </c>
       <c r="V85" t="n" s="87">
         <v>0.4603163492691197</v>
       </c>
       <c r="W85" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="X85" t="n" s="87">
-        <v>0.37421535956880625</v>
+        <v>0.3742422861775273</v>
       </c>
       <c r="Y85" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -12151,16 +11987,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC85" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD85" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE85" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF85" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG85" t="n" s="87">
         <v>1.0</v>
@@ -12169,38 +12005,36 @@
         <v>0.48730880180467784</v>
       </c>
       <c r="AI85" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ85" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK85" t="n" s="87">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="AL85" t="n" s="87">
-        <v>0.9999999990650749</v>
+        <v>0.9999999990159324</v>
       </c>
       <c r="AM85" t="n" s="87">
         <v>0.999384719134074</v>
       </c>
       <c r="AN85" t="n" s="87">
-        <v>0.999999999350089</v>
+        <v>0.9999999993849613</v>
       </c>
       <c r="AO85" t="n" s="87">
-        <v>0.9999999999999905</v>
+        <v>0.9999999999999917</v>
       </c>
       <c r="AP85" t="n" s="87">
         <v>0.9989970627283152</v>
       </c>
       <c r="AQ85" t="n" s="87">
-        <v>0.9999999979625586</v>
+        <v>0.9999999980718838</v>
       </c>
       <c r="AR85" t="n" s="87">
-        <v>0.9999999983967446</v>
-      </c>
-      <c r="AS85" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999985094259</v>
+      </c>
+      <c r="AS85" s="87"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -12222,7 +12056,7 @@
         <v>1.0</v>
       </c>
       <c r="J86" t="n" s="87">
-        <v>0.8860899277888497</v>
+        <v>0.8860775321046975</v>
       </c>
       <c r="K86" t="n" s="87">
         <v>1.0</v>
@@ -12255,13 +12089,13 @@
         <v>0.4088284443978012</v>
       </c>
       <c r="U86" t="n" s="87">
-        <v>0.31350601988754245</v>
+        <v>0.313530766787376</v>
       </c>
       <c r="V86" t="n" s="87">
         <v>0.41202930097751195</v>
       </c>
       <c r="W86" t="n" s="87">
-        <v>0.3166887546564764</v>
+        <v>0.3167136368826862</v>
       </c>
       <c r="X86" t="n" s="87">
         <v>1.0</v>
@@ -12279,16 +12113,16 @@
         <v>0.46407590236861584</v>
       </c>
       <c r="AC86" t="n" s="87">
-        <v>0.3579914476370975</v>
+        <v>0.3582621749274045</v>
       </c>
       <c r="AD86" t="n" s="87">
-        <v>0.35799144763709756</v>
+        <v>0.3582621749274045</v>
       </c>
       <c r="AE86" t="n" s="87">
-        <v>0.3360842730886778</v>
+        <v>0.33634711276598256</v>
       </c>
       <c r="AF86" t="n" s="87">
-        <v>0.3360842730886777</v>
+        <v>0.3363471127659824</v>
       </c>
       <c r="AG86" t="n" s="87">
         <v>1.0</v>
@@ -12297,38 +12131,36 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI86" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ86" t="n" s="87">
         <v>0.9988889442131283</v>
       </c>
       <c r="AK86" t="n" s="87">
-        <v>0.9999587308865688</v>
+        <v>0.9999578627940424</v>
       </c>
       <c r="AL86" t="n" s="87">
-        <v>0.9999989727527258</v>
+        <v>0.9999989550515276</v>
       </c>
       <c r="AM86" t="n" s="87">
         <v>0.9996324808061049</v>
       </c>
       <c r="AN86" t="n" s="87">
-        <v>0.9999999702967051</v>
+        <v>0.9999999708375091</v>
       </c>
       <c r="AO86" t="n" s="87">
-        <v>0.9999999847769365</v>
+        <v>0.999999985468565</v>
       </c>
       <c r="AP86" t="n" s="87">
         <v>0.9917200586409248</v>
       </c>
       <c r="AQ86" t="n" s="87">
-        <v>0.9998360110602023</v>
+        <v>0.9998387233028969</v>
       </c>
       <c r="AR86" t="n" s="87">
-        <v>0.9999685992384619</v>
-      </c>
-      <c r="AS86" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999693204557476</v>
+      </c>
+      <c r="AS86" s="87"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -12350,10 +12182,10 @@
         <v>1.0</v>
       </c>
       <c r="J87" t="n" s="87">
-        <v>0.7999357727501174</v>
+        <v>0.7999161187687872</v>
       </c>
       <c r="K87" t="n" s="87">
-        <v>0.7999357727501174</v>
+        <v>0.7999161187687872</v>
       </c>
       <c r="L87" t="n" s="87">
         <v>1.0</v>
@@ -12383,16 +12215,16 @@
         <v>0.4034799396376645</v>
       </c>
       <c r="U87" t="n" s="87">
-        <v>0.3208092591870186</v>
+        <v>0.3208343131521745</v>
       </c>
       <c r="V87" t="n" s="87">
         <v>0.4077009958836299</v>
       </c>
       <c r="W87" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="X87" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="Y87" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12407,56 +12239,54 @@
         <v>0.47579634006273275</v>
       </c>
       <c r="AC87" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD87" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE87" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF87" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG87" t="n" s="87">
-        <v>0.27322071668067444</v>
+        <v>0.27345464247082935</v>
       </c>
       <c r="AH87" t="n" s="87">
         <v>0.4362638694223085</v>
       </c>
       <c r="AI87" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ87" t="n" s="87">
         <v>0.9985952471986091</v>
       </c>
       <c r="AK87" t="n" s="87">
-        <v>0.9999776704526937</v>
+        <v>0.9999771019354577</v>
       </c>
       <c r="AL87" t="n" s="87">
-        <v>0.9999999826348897</v>
+        <v>0.9999999821743397</v>
       </c>
       <c r="AM87" t="n" s="87">
         <v>0.9982939385256043</v>
       </c>
       <c r="AN87" t="n" s="87">
-        <v>0.999999940419308</v>
+        <v>0.9999999421834904</v>
       </c>
       <c r="AO87" t="n" s="87">
-        <v>0.9999999999593693</v>
+        <v>0.9999999999627555</v>
       </c>
       <c r="AP87" t="n" s="87">
         <v>0.9861883902065137</v>
       </c>
       <c r="AQ87" t="n" s="87">
-        <v>0.9999907988506749</v>
+        <v>0.9999910709415811</v>
       </c>
       <c r="AR87" t="n" s="87">
-        <v>0.9999992709889041</v>
-      </c>
-      <c r="AS87" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999993017719305</v>
+      </c>
+      <c r="AS87" s="87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -12478,7 +12308,7 @@
         <v>1.0</v>
       </c>
       <c r="J88" t="n" s="87">
-        <v>0.28051643311368596</v>
+        <v>0.2804916487676305</v>
       </c>
       <c r="K88" t="n" s="87">
         <v>1.0</v>
@@ -12511,16 +12341,16 @@
         <v>0.3939639241397491</v>
       </c>
       <c r="U88" t="n" s="87">
-        <v>0.29968308258298954</v>
+        <v>0.2997072147164184</v>
       </c>
       <c r="V88" t="n" s="87">
         <v>0.3950664721012117</v>
       </c>
       <c r="W88" t="n" s="87">
-        <v>0.3028365028459904</v>
+        <v>0.30286077909466785</v>
       </c>
       <c r="X88" t="n" s="87">
-        <v>0.3028365028459904</v>
+        <v>0.30286077909466785</v>
       </c>
       <c r="Y88" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12535,56 +12365,54 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC88" t="n" s="87">
-        <v>0.3471994575742801</v>
+        <v>0.3474664405916021</v>
       </c>
       <c r="AD88" t="n" s="87">
-        <v>0.3471994575742801</v>
+        <v>0.3474664405916021</v>
       </c>
       <c r="AE88" t="n" s="87">
-        <v>0.32561774353467493</v>
+        <v>0.3258764154808761</v>
       </c>
       <c r="AF88" t="n" s="87">
-        <v>0.32561774353467493</v>
+        <v>0.32587641548087604</v>
       </c>
       <c r="AG88" t="n" s="87">
-        <v>0.30275638036045754</v>
+        <v>0.3030050510977328</v>
       </c>
       <c r="AH88" t="n" s="87">
         <v>0.44585118391102757</v>
       </c>
       <c r="AI88" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ88" t="n" s="87">
         <v>0.9937160347330259</v>
       </c>
       <c r="AK88" t="n" s="87">
-        <v>0.9929602068508264</v>
+        <v>0.9930651885458448</v>
       </c>
       <c r="AL88" t="n" s="87">
-        <v>0.9996533505447804</v>
+        <v>0.9996561417503794</v>
       </c>
       <c r="AM88" t="n" s="87">
         <v>0.9757215148804762</v>
       </c>
       <c r="AN88" t="n" s="87">
-        <v>0.9996987153767025</v>
+        <v>0.9996967213329023</v>
       </c>
       <c r="AO88" t="n" s="87">
-        <v>0.99999104687555</v>
+        <v>0.9999910520920977</v>
       </c>
       <c r="AP88" t="n" s="87">
         <v>0.5281998908029756</v>
       </c>
       <c r="AQ88" t="n" s="87">
-        <v>0.5631324845191186</v>
+        <v>0.5630853595946893</v>
       </c>
       <c r="AR88" t="n" s="87">
-        <v>0.9090191759735817</v>
-      </c>
-      <c r="AS88" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9084378288556842</v>
+      </c>
+      <c r="AS88" s="87"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -12606,10 +12434,10 @@
         <v>1.0</v>
       </c>
       <c r="J89" t="n" s="87">
-        <v>0.8627034148893941</v>
+        <v>0.862688868655053</v>
       </c>
       <c r="K89" t="n" s="87">
-        <v>0.8627034148893941</v>
+        <v>0.862688868655053</v>
       </c>
       <c r="L89" t="n" s="87">
         <v>1.0</v>
@@ -12645,10 +12473,10 @@
         <v>0.40988817174170833</v>
       </c>
       <c r="W89" t="n" s="87">
-        <v>0.3215395890025705</v>
+        <v>0.3215646729998482</v>
       </c>
       <c r="X89" t="n" s="87">
-        <v>0.3215395890025705</v>
+        <v>0.3215646729998482</v>
       </c>
       <c r="Y89" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12663,56 +12491,54 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC89" t="n" s="87">
-        <v>0.363138715748161</v>
+        <v>0.36341113220493887</v>
       </c>
       <c r="AD89" t="n" s="87">
-        <v>0.3631387157481611</v>
+        <v>0.3634111322049389</v>
       </c>
       <c r="AE89" t="n" s="87">
-        <v>0.3410839000354405</v>
+        <v>0.34134863942328236</v>
       </c>
       <c r="AF89" t="n" s="87">
-        <v>0.3410839000354404</v>
+        <v>0.34134863942328236</v>
       </c>
       <c r="AG89" t="n" s="87">
-        <v>0.26789865826800097</v>
+        <v>0.26812970849724294</v>
       </c>
       <c r="AH89" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI89" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ89" t="n" s="87">
         <v>0.9988889442131283</v>
       </c>
       <c r="AK89" t="n" s="87">
-        <v>0.9999143185661794</v>
+        <v>0.9999157460079017</v>
       </c>
       <c r="AL89" t="n" s="87">
-        <v>0.9999981029185196</v>
+        <v>0.9999981180055655</v>
       </c>
       <c r="AM89" t="n" s="87">
         <v>0.9994737951600561</v>
       </c>
       <c r="AN89" t="n" s="87">
-        <v>0.9999999496052402</v>
+        <v>0.9999999492663894</v>
       </c>
       <c r="AO89" t="n" s="87">
-        <v>0.9999999902100167</v>
+        <v>0.9999999901089738</v>
       </c>
       <c r="AP89" t="n" s="87">
         <v>0.9973999199876814</v>
       </c>
       <c r="AQ89" t="n" s="87">
-        <v>0.9999818416769</v>
+        <v>0.9999817238770592</v>
       </c>
       <c r="AR89" t="n" s="87">
-        <v>0.9999909012600081</v>
-      </c>
-      <c r="AS89" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999908412621031</v>
+      </c>
+      <c r="AS89" s="87"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -12773,10 +12599,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W90" t="n" s="87">
-        <v>0.32553330518030876</v>
+        <v>0.32539962668520145</v>
       </c>
       <c r="X90" t="n" s="87">
-        <v>0.32553330518030876</v>
+        <v>0.32539962668520145</v>
       </c>
       <c r="Y90" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12791,16 +12617,16 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC90" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AD90" t="n" s="87">
-        <v>0.36864608376029995</v>
+        <v>0.36747482860879915</v>
       </c>
       <c r="AE90" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.3452994489971085</v>
       </c>
       <c r="AF90" t="n" s="87">
-        <v>0.34643873622459237</v>
+        <v>0.34529944899710835</v>
       </c>
       <c r="AG90" t="n" s="87">
         <v>1.0</v>
@@ -12809,7 +12635,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI90" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ90" t="n" s="87">
         <v>0.9990766231441008</v>
@@ -12836,11 +12662,9 @@
         <v>0.9999984922005675</v>
       </c>
       <c r="AR90" t="n" s="87">
-        <v>0.9999973544298386</v>
-      </c>
-      <c r="AS90" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999973527025491</v>
+      </c>
+      <c r="AS90" s="87"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -12862,10 +12686,10 @@
         <v>1.0</v>
       </c>
       <c r="J91" t="n" s="87">
-        <v>0.36332721917082605</v>
+        <v>0.36327468057370743</v>
       </c>
       <c r="K91" t="n" s="87">
-        <v>0.363327219170826</v>
+        <v>0.3632746805737075</v>
       </c>
       <c r="L91" t="n" s="87">
         <v>1.0</v>
@@ -12895,16 +12719,16 @@
         <v>0.3992471351802457</v>
       </c>
       <c r="U91" t="n" s="87">
-        <v>0.29970393278487695</v>
+        <v>0.29975263934082713</v>
       </c>
       <c r="V91" t="n" s="87">
         <v>0.40242404108929525</v>
       </c>
       <c r="W91" t="n" s="87">
-        <v>0.3046789284785206</v>
+        <v>0.3047280917303848</v>
       </c>
       <c r="X91" t="n" s="87">
-        <v>0.3046789284785206</v>
+        <v>0.3047280917303848</v>
       </c>
       <c r="Y91" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -12919,56 +12743,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC91" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD91" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE91" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF91" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG91" t="n" s="87">
-        <v>0.2526548452233839</v>
+        <v>0.2530473625404543</v>
       </c>
       <c r="AH91" t="n" s="87">
         <v>0.42036348076901847</v>
       </c>
       <c r="AI91" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ91" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK91" t="n" s="87">
-        <v>0.9986462842573142</v>
+        <v>0.9987032351937546</v>
       </c>
       <c r="AL91" t="n" s="87">
-        <v>0.9173564058101905</v>
+        <v>0.9202553723676866</v>
       </c>
       <c r="AM91" t="n" s="87">
         <v>0.9966034473590023</v>
       </c>
       <c r="AN91" t="n" s="87">
-        <v>0.994135399552759</v>
+        <v>0.9941050342887388</v>
       </c>
       <c r="AO91" t="n" s="87">
-        <v>0.9271841074880894</v>
+        <v>0.9276503976547086</v>
       </c>
       <c r="AP91" t="n" s="87">
         <v>0.7154214395834885</v>
       </c>
       <c r="AQ91" t="n" s="87">
-        <v>0.6848424209926266</v>
+        <v>0.6846902381805969</v>
       </c>
       <c r="AR91" t="n" s="87">
-        <v>4.4968443064735247E-4</v>
-      </c>
-      <c r="AS91" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.339294570731842E-4</v>
+      </c>
+      <c r="AS91" s="87"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -13023,16 +12845,16 @@
         <v>0.40086185469971114</v>
       </c>
       <c r="U92" t="n" s="87">
-        <v>0.31844124111709954</v>
+        <v>0.3184661968625736</v>
       </c>
       <c r="V92" t="n" s="87">
         <v>0.4050741206389171</v>
       </c>
       <c r="W92" t="n" s="87">
-        <v>0.32311952139621003</v>
+        <v>0.3231446699426682</v>
       </c>
       <c r="X92" t="n" s="87">
-        <v>0.32311952139621003</v>
+        <v>0.3231446699426682</v>
       </c>
       <c r="Y92" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13047,16 +12869,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC92" t="n" s="87">
-        <v>0.36481314236604584</v>
+        <v>0.36508609485624016</v>
       </c>
       <c r="AD92" t="n" s="87">
-        <v>0.36481314236604584</v>
+        <v>0.3650860948562402</v>
       </c>
       <c r="AE92" t="n" s="87">
-        <v>0.34271135661692825</v>
+        <v>0.34297670168084476</v>
       </c>
       <c r="AF92" t="n" s="87">
-        <v>0.34271135661692825</v>
+        <v>0.3429767016808447</v>
       </c>
       <c r="AG92" t="n" s="87">
         <v>1.0</v>
@@ -13065,38 +12887,36 @@
         <v>0.4329174313995406</v>
       </c>
       <c r="AI92" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ92" t="n" s="87">
         <v>0.9984358687796311</v>
       </c>
       <c r="AK92" t="n" s="87">
-        <v>0.9999591292219779</v>
+        <v>0.9999580918338637</v>
       </c>
       <c r="AL92" t="n" s="87">
-        <v>0.9999999454613857</v>
+        <v>0.9999999440148756</v>
       </c>
       <c r="AM92" t="n" s="87">
         <v>0.9985179913363244</v>
       </c>
       <c r="AN92" t="n" s="87">
-        <v>0.999999936360187</v>
+        <v>0.999999938244493</v>
       </c>
       <c r="AO92" t="n" s="87">
-        <v>0.9999999999064635</v>
+        <v>0.9999999999142303</v>
       </c>
       <c r="AP92" t="n" s="87">
         <v>0.9820905426068174</v>
       </c>
       <c r="AQ92" t="n" s="87">
-        <v>0.9999839158133033</v>
+        <v>0.9999843908361621</v>
       </c>
       <c r="AR92" t="n" s="87">
-        <v>0.9999988777682505</v>
-      </c>
-      <c r="AS92" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999989251605312</v>
+      </c>
+      <c r="AS92" s="87"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -13151,16 +12971,16 @@
         <v>0.39834433420441945</v>
       </c>
       <c r="U93" t="n" s="87">
-        <v>0.30163216688189265</v>
+        <v>0.30168105180985216</v>
       </c>
       <c r="V93" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W93" t="n" s="87">
-        <v>0.3066251559104505</v>
+        <v>0.3066744946963058</v>
       </c>
       <c r="X93" t="n" s="87">
-        <v>0.3066251559104505</v>
+        <v>0.3066744946963058</v>
       </c>
       <c r="Y93" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -13175,56 +12995,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC93" t="n" s="87">
-        <v>0.34710495950303416</v>
+        <v>0.34757596816518727</v>
       </c>
       <c r="AD93" t="n" s="87">
-        <v>0.34710495950303427</v>
+        <v>0.3475759681651873</v>
       </c>
       <c r="AE93" t="n" s="87">
-        <v>0.32552619030072916</v>
+        <v>0.32598253731090177</v>
       </c>
       <c r="AF93" t="n" s="87">
-        <v>0.3255261903007291</v>
+        <v>0.3259825373109017</v>
       </c>
       <c r="AG93" t="n" s="87">
-        <v>0.2543903357547365</v>
+        <v>0.2547846300897743</v>
       </c>
       <c r="AH93" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI93" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ93" t="n" s="87">
         <v>0.9990041798783298</v>
       </c>
       <c r="AK93" t="n" s="87">
-        <v>0.9998509232822278</v>
+        <v>0.9998503662482099</v>
       </c>
       <c r="AL93" t="n" s="87">
-        <v>0.99651148897853</v>
+        <v>0.9964757135371294</v>
       </c>
       <c r="AM93" t="n" s="87">
         <v>0.9995673223899175</v>
       </c>
       <c r="AN93" t="n" s="87">
-        <v>0.9999544425659598</v>
+        <v>0.9999549199587529</v>
       </c>
       <c r="AO93" t="n" s="87">
-        <v>0.9993136227848556</v>
+        <v>0.9993306604978005</v>
       </c>
       <c r="AP93" t="n" s="87">
         <v>0.8794577446668828</v>
       </c>
       <c r="AQ93" t="n" s="87">
-        <v>0.9608831342386329</v>
+        <v>0.9608588303781795</v>
       </c>
       <c r="AR93" t="n" s="87">
-        <v>0.49658183418342605</v>
-      </c>
-      <c r="AS93" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.501951493210592</v>
+      </c>
+      <c r="AS93" s="87"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -13246,10 +13064,10 @@
         <v>1.0</v>
       </c>
       <c r="J94" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="K94" t="n" s="87">
-        <v>0.8265166108542821</v>
+        <v>0.8264990017655738</v>
       </c>
       <c r="L94" t="n" s="87">
         <v>1.0</v>
@@ -13279,16 +13097,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U94" t="n" s="87">
-        <v>0.32273955743330107</v>
+        <v>0.3227646905085092</v>
       </c>
       <c r="V94" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W94" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="X94" t="n" s="87">
-        <v>0.32745064632570936</v>
+        <v>0.3274759688792476</v>
       </c>
       <c r="Y94" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13303,16 +13121,16 @@
         <v>0.47800287606985153</v>
       </c>
       <c r="AC94" t="n" s="87">
-        <v>0.3662313977183278</v>
+        <v>0.3665047990657056</v>
       </c>
       <c r="AD94" t="n" s="87">
-        <v>0.36623139771832786</v>
+        <v>0.3665047990657057</v>
       </c>
       <c r="AE94" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.34435608791788436</v>
       </c>
       <c r="AF94" t="n" s="87">
-        <v>0.3440902345740348</v>
+        <v>0.3443560879178843</v>
       </c>
       <c r="AG94" t="n" s="87">
         <v>1.0</v>
@@ -13321,38 +13139,36 @@
         <v>0.4362638694223085</v>
       </c>
       <c r="AI94" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ94" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK94" t="n" s="87">
-        <v>0.9999922256613836</v>
+        <v>0.9999917156197048</v>
       </c>
       <c r="AL94" t="n" s="87">
-        <v>0.9999999990650749</v>
+        <v>0.9999999990159324</v>
       </c>
       <c r="AM94" t="n" s="87">
         <v>0.9991447677582072</v>
       </c>
       <c r="AN94" t="n" s="87">
-        <v>0.9999999981417097</v>
+        <v>0.9999999982414206</v>
       </c>
       <c r="AO94" t="n" s="87">
-        <v>0.9999999999997248</v>
+        <v>0.9999999999997627</v>
       </c>
       <c r="AP94" t="n" s="87">
         <v>0.9942033484144366</v>
       </c>
       <c r="AQ94" t="n" s="87">
-        <v>0.999999616077731</v>
+        <v>0.999999636675397</v>
       </c>
       <c r="AR94" t="n" s="87">
-        <v>0.9999999415505652</v>
-      </c>
-      <c r="AS94" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.999999945658554</v>
+      </c>
+      <c r="AS94" s="87"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -13413,10 +13229,10 @@
         <v>0.40905887575025324</v>
       </c>
       <c r="W95" t="n" s="87">
-        <v>0.3153397980501314</v>
+        <v>0.3153899012641032</v>
       </c>
       <c r="X95" t="n" s="87">
-        <v>0.3153397980501314</v>
+        <v>0.3153899012641032</v>
       </c>
       <c r="Y95" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -13431,25 +13247,25 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC95" t="n" s="87">
-        <v>0.3593513928579271</v>
+        <v>0.3598298608282553</v>
       </c>
       <c r="AD95" t="n" s="87">
-        <v>0.35935139285792717</v>
+        <v>0.35982986082825535</v>
       </c>
       <c r="AE95" t="n" s="87">
-        <v>0.3345188546342922</v>
+        <v>0.33498154709476885</v>
       </c>
       <c r="AF95" t="n" s="87">
-        <v>0.3345188546342921</v>
+        <v>0.33498154709476885</v>
       </c>
       <c r="AG95" t="n" s="87">
-        <v>0.2621817570787902</v>
+        <v>0.2625838748115461</v>
       </c>
       <c r="AH95" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI95" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ95" t="n" s="87">
         <v>0.9989694203481638</v>
@@ -13473,14 +13289,12 @@
         <v>0.9939288246220123</v>
       </c>
       <c r="AQ95" t="n" s="87">
-        <v>0.999043357229306</v>
+        <v>0.9990426855848181</v>
       </c>
       <c r="AR95" t="n" s="87">
-        <v>0.8978652521599128</v>
-      </c>
-      <c r="AS95" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.897655903683653</v>
+      </c>
+      <c r="AS95" s="87"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -13583,32 +13397,30 @@
         <v>0.9989694203481638</v>
       </c>
       <c r="AK96" t="n" s="87">
-        <v>0.9999749571857391</v>
+        <v>0.9999738788287243</v>
       </c>
       <c r="AL96" t="n" s="87">
-        <v>0.9999996842199227</v>
+        <v>0.9999996732404083</v>
       </c>
       <c r="AM96" t="n" s="87">
         <v>0.9995900505232437</v>
       </c>
       <c r="AN96" t="n" s="87">
-        <v>0.9999999709921125</v>
+        <v>0.9999999720385347</v>
       </c>
       <c r="AO96" t="n" s="87">
-        <v>0.9999999999673769</v>
+        <v>0.9999999999704324</v>
       </c>
       <c r="AP96" t="n" s="87">
         <v>0.9993604875090716</v>
       </c>
       <c r="AQ96" t="n" s="87">
-        <v>0.999999991291622</v>
+        <v>0.9999999916059754</v>
       </c>
       <c r="AR96" t="n" s="87">
-        <v>0.9999999702593332</v>
-      </c>
-      <c r="AS96" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999717040641</v>
+      </c>
+      <c r="AS96" s="87"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -13663,16 +13475,16 @@
         <v>0.40561060287506573</v>
       </c>
       <c r="U97" t="n" s="87">
-        <v>0.3206822851159674</v>
+        <v>0.3205496519189544</v>
       </c>
       <c r="V97" t="n" s="87">
         <v>0.409838634857414</v>
       </c>
       <c r="W97" t="n" s="87">
-        <v>0.3253777711900295</v>
+        <v>0.3252441257648487</v>
       </c>
       <c r="X97" t="n" s="87">
-        <v>0.3253777711900295</v>
+        <v>0.3252441257648487</v>
       </c>
       <c r="Y97" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13687,16 +13499,16 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC97" t="n" s="87">
-        <v>0.3653177697943423</v>
+        <v>0.3641509900701537</v>
       </c>
       <c r="AD97" t="n" s="87">
-        <v>0.36531776979434233</v>
+        <v>0.3641509900701537</v>
       </c>
       <c r="AE97" t="n" s="87">
-        <v>0.34320193047491776</v>
+        <v>0.3420677164963395</v>
       </c>
       <c r="AF97" t="n" s="87">
-        <v>0.3432019304749177</v>
+        <v>0.34206771649633944</v>
       </c>
       <c r="AG97" t="n" s="87">
         <v>1.0</v>
@@ -13705,38 +13517,36 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI97" t="n" s="87">
-        <v>0.38431074765471307</v>
+        <v>0.3831199242822786</v>
       </c>
       <c r="AJ97" t="n" s="87">
         <v>0.9984540813360937</v>
       </c>
       <c r="AK97" t="n" s="87">
-        <v>0.9999853754217962</v>
+        <v>0.9999844159716955</v>
       </c>
       <c r="AL97" t="n" s="87">
-        <v>0.9999999877573273</v>
+        <v>0.9999999871136553</v>
       </c>
       <c r="AM97" t="n" s="87">
         <v>0.9971782994970283</v>
       </c>
       <c r="AN97" t="n" s="87">
-        <v>0.999999819910545</v>
+        <v>0.9999998295715512</v>
       </c>
       <c r="AO97" t="n" s="87">
-        <v>0.9999999998789514</v>
+        <v>0.9999999998956679</v>
       </c>
       <c r="AP97" t="n" s="87">
         <v>0.9832628479422615</v>
       </c>
       <c r="AQ97" t="n" s="87">
-        <v>0.9999875429819034</v>
+        <v>0.9999882104414604</v>
       </c>
       <c r="AR97" t="n" s="87">
-        <v>0.9999990410249224</v>
-      </c>
-      <c r="AS97" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999991093555802</v>
+      </c>
+      <c r="AS97" s="87"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -13797,10 +13607,10 @@
         <v>0.4108826240129469</v>
       </c>
       <c r="W98" t="n" s="87">
-        <v>0.31447596361065383</v>
+        <v>0.3145259926250439</v>
       </c>
       <c r="X98" t="n" s="87">
-        <v>0.31447596361065383</v>
+        <v>0.3145259926250439</v>
       </c>
       <c r="Y98" t="n" s="87">
         <v>0.47903141456775666</v>
@@ -13815,56 +13625,54 @@
         <v>0.4626135206857456</v>
       </c>
       <c r="AC98" t="n" s="87">
-        <v>0.3544132736700592</v>
+        <v>0.3548888088815626</v>
       </c>
       <c r="AD98" t="n" s="87">
-        <v>0.3544132736700592</v>
+        <v>0.3548888088815627</v>
       </c>
       <c r="AE98" t="n" s="87">
-        <v>0.33261162290522606</v>
+        <v>0.3330729976819544</v>
       </c>
       <c r="AF98" t="n" s="87">
-        <v>0.332611622905226</v>
+        <v>0.33307299768195436</v>
       </c>
       <c r="AG98" t="n" s="87">
-        <v>0.2619805998328753</v>
+        <v>0.26238251875991886</v>
       </c>
       <c r="AH98" t="n" s="87">
         <v>0.42036348076901847</v>
       </c>
       <c r="AI98" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ98" t="n" s="87">
         <v>0.9990766231441008</v>
       </c>
       <c r="AK98" t="n" s="87">
-        <v>0.9999197596249387</v>
+        <v>0.9999163814387938</v>
       </c>
       <c r="AL98" t="n" s="87">
-        <v>0.9996933783000429</v>
+        <v>0.999682215395282</v>
       </c>
       <c r="AM98" t="n" s="87">
         <v>0.9994989650069501</v>
       </c>
       <c r="AN98" t="n" s="87">
-        <v>0.9999844012714979</v>
+        <v>0.9999849400181304</v>
       </c>
       <c r="AO98" t="n" s="87">
-        <v>0.9997890663888763</v>
+        <v>0.9998016860139077</v>
       </c>
       <c r="AP98" t="n" s="87">
         <v>0.9645331908132139</v>
       </c>
       <c r="AQ98" t="n" s="87">
-        <v>0.9925425510968896</v>
+        <v>0.9925627644914551</v>
       </c>
       <c r="AR98" t="n" s="87">
-        <v>0.9780504733917667</v>
-      </c>
-      <c r="AS98" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9791742934646216</v>
+      </c>
+      <c r="AS98" s="87"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -13925,10 +13733,10 @@
         <v>0.4209588706031546</v>
       </c>
       <c r="W99" t="n" s="87">
-        <v>0.32782731384018154</v>
+        <v>0.32783778714034206</v>
       </c>
       <c r="X99" t="n" s="87">
-        <v>0.32782731384018154</v>
+        <v>0.32783778714034206</v>
       </c>
       <c r="Y99" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -13943,56 +13751,54 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC99" t="n" s="87">
-        <v>0.3697830148267832</v>
+        <v>0.36989611914386666</v>
       </c>
       <c r="AD99" t="n" s="87">
-        <v>0.3697830148267832</v>
+        <v>0.36989611914386666</v>
       </c>
       <c r="AE99" t="n" s="87">
-        <v>0.34461737918937646</v>
+        <v>0.34472699659510564</v>
       </c>
       <c r="AF99" t="n" s="87">
-        <v>0.34461737918937646</v>
+        <v>0.34472699659510564</v>
       </c>
       <c r="AG99" t="n" s="87">
-        <v>0.27544633579099115</v>
+        <v>0.2755432013881712</v>
       </c>
       <c r="AH99" t="n" s="87">
         <v>0.4231708885467496</v>
       </c>
       <c r="AI99" t="n" s="87">
-        <v>0.3679918139471926</v>
+        <v>0.36810469040127886</v>
       </c>
       <c r="AJ99" t="n" s="87">
         <v>0.9986669336899349</v>
       </c>
       <c r="AK99" t="n" s="87">
-        <v>0.9999784797445113</v>
+        <v>0.9999770711788645</v>
       </c>
       <c r="AL99" t="n" s="87">
-        <v>0.9999998032376043</v>
+        <v>0.9999997928841468</v>
       </c>
       <c r="AM99" t="n" s="87">
         <v>0.998814458968545</v>
       </c>
       <c r="AN99" t="n" s="87">
-        <v>0.9999997613199367</v>
+        <v>0.9999997741148428</v>
       </c>
       <c r="AO99" t="n" s="87">
-        <v>0.9999999997201335</v>
+        <v>0.9999999997586632</v>
       </c>
       <c r="AP99" t="n" s="87">
         <v>0.9953974900822058</v>
       </c>
       <c r="AQ99" t="n" s="87">
-        <v>0.9999994490921585</v>
+        <v>0.9999994786432439</v>
       </c>
       <c r="AR99" t="n" s="87">
-        <v>0.9999997426938628</v>
-      </c>
-      <c r="AS99" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999997610716639</v>
+      </c>
+      <c r="AS99" s="87"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -14047,16 +13853,16 @@
         <v>0.39466831058278906</v>
       </c>
       <c r="U100" t="n" s="87">
-        <v>0.30347887547942776</v>
+        <v>0.30352792961991226</v>
       </c>
       <c r="V100" t="n" s="87">
         <v>0.39577154248671925</v>
       </c>
       <c r="W100" t="n" s="87">
-        <v>0.3060249316862024</v>
+        <v>0.3060742165241861</v>
       </c>
       <c r="X100" t="n" s="87">
-        <v>0.3060249316862024</v>
+        <v>0.3060742165241861</v>
       </c>
       <c r="Y100" t="n" s="87">
         <v>0.47903141456775666</v>
@@ -14071,56 +13877,54 @@
         <v>0.4718359078672398</v>
       </c>
       <c r="AC100" t="n" s="87">
-        <v>0.35339212152977345</v>
+        <v>0.3538670376220345</v>
       </c>
       <c r="AD100" t="n" s="87">
-        <v>0.35339212152977345</v>
+        <v>0.3538670376220346</v>
       </c>
       <c r="AE100" t="n" s="87">
-        <v>0.32876006488498055</v>
+        <v>0.3292187325333191</v>
       </c>
       <c r="AF100" t="n" s="87">
-        <v>0.32876006488498055</v>
+        <v>0.329218732533319</v>
       </c>
       <c r="AG100" t="n" s="87">
-        <v>0.2544167360251208</v>
+        <v>0.25481105729535203</v>
       </c>
       <c r="AH100" t="n" s="87">
         <v>0.42401241692379116</v>
       </c>
       <c r="AI100" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ100" t="n" s="87">
         <v>0.9978579894759297</v>
       </c>
       <c r="AK100" t="n" s="87">
-        <v>0.9952908657415027</v>
+        <v>0.9953387007755949</v>
       </c>
       <c r="AL100" t="n" s="87">
-        <v>0.8742122942737077</v>
+        <v>0.8736526345374731</v>
       </c>
       <c r="AM100" t="n" s="87">
         <v>0.9929678502601107</v>
       </c>
       <c r="AN100" t="n" s="87">
-        <v>0.9896724977919097</v>
+        <v>0.9896827934603503</v>
       </c>
       <c r="AO100" t="n" s="87">
-        <v>0.8720416978115425</v>
+        <v>0.8751069873982363</v>
       </c>
       <c r="AP100" t="n" s="87">
         <v>0.7960418547289012</v>
       </c>
       <c r="AQ100" t="n" s="87">
-        <v>0.8612924277652375</v>
+        <v>0.8612086247715934</v>
       </c>
       <c r="AR100" t="n" s="87">
-        <v>0.0014802880598284213</v>
-      </c>
-      <c r="AS100" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0015062997662815575</v>
+      </c>
+      <c r="AS100" s="87"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -14181,10 +13985,10 @@
         <v>0.42930552280396966</v>
       </c>
       <c r="W101" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="X101" t="n" s="87">
-        <v>0.321350355570731</v>
+        <v>0.3213754317982554</v>
       </c>
       <c r="Y101" t="n" s="87">
         <v>0.49821377345635</v>
@@ -14199,16 +14003,16 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC101" t="n" s="87">
-        <v>0.3629380967878219</v>
+        <v>0.3632104485773051</v>
       </c>
       <c r="AD101" t="n" s="87">
-        <v>0.36293809678782196</v>
+        <v>0.3632104485773052</v>
       </c>
       <c r="AE101" t="n" s="87">
-        <v>0.340888943587085</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AF101" t="n" s="87">
-        <v>0.34088894358708494</v>
+        <v>0.34115361000104405</v>
       </c>
       <c r="AG101" t="n" s="87">
         <v>1.0</v>
@@ -14217,7 +14021,7 @@
         <v>0.41924902184350565</v>
       </c>
       <c r="AI101" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ101" t="n" s="87">
         <v>0.9989694203481638</v>
@@ -14244,11 +14048,9 @@
         <v>0.9999998843605845</v>
       </c>
       <c r="AR101" t="n" s="87">
-        <v>0.9999990994908836</v>
-      </c>
-      <c r="AS101" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999990980110555</v>
+      </c>
+      <c r="AS101" s="87"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -14303,16 +14105,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U102" t="n" s="87">
-        <v>0.3093205060282526</v>
+        <v>0.3093700850093433</v>
       </c>
       <c r="V102" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W102" t="n" s="87">
-        <v>0.3143834703620324</v>
+        <v>0.3144334914111301</v>
       </c>
       <c r="X102" t="n" s="87">
-        <v>0.3143834703620324</v>
+        <v>0.3144334914111301</v>
       </c>
       <c r="Y102" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14327,16 +14129,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC102" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.35583868176366007</v>
       </c>
       <c r="AD102" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.3558386817636602</v>
       </c>
       <c r="AE102" t="n" s="87">
-        <v>0.3335326975164327</v>
+        <v>0.33399471054186936</v>
       </c>
       <c r="AF102" t="n" s="87">
-        <v>0.3335326975164326</v>
+        <v>0.33399471054186936</v>
       </c>
       <c r="AG102" t="n" s="87">
         <v>1.0</v>
@@ -14345,38 +14147,36 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI102" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ102" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK102" t="n" s="87">
-        <v>0.9990000099660653</v>
+        <v>0.9990416362092567</v>
       </c>
       <c r="AL102" t="n" s="87">
-        <v>0.9547887264395926</v>
+        <v>0.9561338386065203</v>
       </c>
       <c r="AM102" t="n" s="87">
         <v>0.9985392405945626</v>
       </c>
       <c r="AN102" t="n" s="87">
-        <v>0.9992373194696238</v>
+        <v>0.99922777449431</v>
       </c>
       <c r="AO102" t="n" s="87">
-        <v>0.9913507386924504</v>
+        <v>0.9914167216214663</v>
       </c>
       <c r="AP102" t="n" s="87">
         <v>0.9279718004775936</v>
       </c>
       <c r="AQ102" t="n" s="87">
-        <v>0.9772052610935373</v>
+        <v>0.9771887176482734</v>
       </c>
       <c r="AR102" t="n" s="87">
-        <v>0.20145667273656453</v>
-      </c>
-      <c r="AS102" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.19639057442407956</v>
+      </c>
+      <c r="AS102" s="87"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -14431,16 +14231,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U103" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V103" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W103" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X103" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y103" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14455,56 +14255,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC103" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD103" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE103" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF103" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG103" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH103" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI103" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ103" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK103" t="n" s="87">
-        <v>0.999300789441962</v>
+        <v>0.9993200412658645</v>
       </c>
       <c r="AL103" t="n" s="87">
-        <v>0.8917349302289985</v>
+        <v>0.8940327917670072</v>
       </c>
       <c r="AM103" t="n" s="87">
         <v>0.9989315968651797</v>
       </c>
       <c r="AN103" t="n" s="87">
-        <v>0.998953905255038</v>
+        <v>0.9989483041862383</v>
       </c>
       <c r="AO103" t="n" s="87">
-        <v>0.963116206676133</v>
+        <v>0.9633252412845277</v>
       </c>
       <c r="AP103" t="n" s="87">
         <v>0.8003293189138195</v>
       </c>
       <c r="AQ103" t="n" s="87">
-        <v>0.8853336877452808</v>
+        <v>0.8852621428980907</v>
       </c>
       <c r="AR103" t="n" s="87">
-        <v>0.002300481474431759</v>
-      </c>
-      <c r="AS103" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.0022465241772011064</v>
+      </c>
+      <c r="AS103" s="87"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -14526,10 +14324,10 @@
         <v>1.0</v>
       </c>
       <c r="J104" t="n" s="87">
-        <v>0.37698466099056593</v>
+        <v>0.3769313166906019</v>
       </c>
       <c r="K104" t="n" s="87">
-        <v>0.3769846609905658</v>
+        <v>0.37693131669060187</v>
       </c>
       <c r="L104" t="n" s="87">
         <v>1.0</v>
@@ -14559,16 +14357,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U104" t="n" s="87">
-        <v>0.30146155372528805</v>
+        <v>0.3015104229402114</v>
       </c>
       <c r="V104" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W104" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="X104" t="n" s="87">
-        <v>0.3064529578497201</v>
+        <v>0.3065022811756007</v>
       </c>
       <c r="Y104" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14583,56 +14381,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC104" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD104" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE104" t="n" s="87">
-        <v>0.32534835823743874</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AF104" t="n" s="87">
-        <v>0.3253483582374387</v>
+        <v>0.3258045763728488</v>
       </c>
       <c r="AG104" t="n" s="87">
-        <v>0.2542367163221647</v>
+        <v>0.254630853867583</v>
       </c>
       <c r="AH104" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI104" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ104" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK104" t="n" s="87">
-        <v>0.9990000099660653</v>
+        <v>0.9990416362092567</v>
       </c>
       <c r="AL104" t="n" s="87">
-        <v>0.9482051375621462</v>
+        <v>0.9497917809699783</v>
       </c>
       <c r="AM104" t="n" s="87">
         <v>0.9979791884546451</v>
       </c>
       <c r="AN104" t="n" s="87">
-        <v>0.9983599437492973</v>
+        <v>0.9983413802091577</v>
       </c>
       <c r="AO104" t="n" s="87">
-        <v>0.9902363563535741</v>
+        <v>0.9903110609927959</v>
       </c>
       <c r="AP104" t="n" s="87">
         <v>0.772157156034376</v>
       </c>
       <c r="AQ104" t="n" s="87">
-        <v>0.8485932639776221</v>
+        <v>0.8485019163328902</v>
       </c>
       <c r="AR104" t="n" s="87">
-        <v>0.013449860099517525</v>
-      </c>
-      <c r="AS104" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.013023007679637728</v>
+      </c>
+      <c r="AS104" s="87"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -14687,16 +14483,16 @@
         <v>0.39834433420441945</v>
       </c>
       <c r="U105" t="n" s="87">
-        <v>0.30181495281373755</v>
+        <v>0.30186385456082276</v>
       </c>
       <c r="V105" t="n" s="87">
         <v>0.400870640635473</v>
       </c>
       <c r="W105" t="n" s="87">
-        <v>0.306408213939172</v>
+        <v>0.3064575332456829</v>
       </c>
       <c r="X105" t="n" s="87">
-        <v>0.306408213939172</v>
+        <v>0.3064575332456829</v>
       </c>
       <c r="Y105" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14711,56 +14507,54 @@
         <v>0.46209241029824616</v>
       </c>
       <c r="AC105" t="n" s="87">
-        <v>0.3468737051872326</v>
+        <v>0.34734456699141825</v>
       </c>
       <c r="AD105" t="n" s="87">
-        <v>0.34687370518723265</v>
+        <v>0.34734456699141825</v>
       </c>
       <c r="AE105" t="n" s="87">
-        <v>0.32530214949755865</v>
+        <v>0.3257583341239965</v>
       </c>
       <c r="AF105" t="n" s="87">
-        <v>0.32530214949755865</v>
+        <v>0.32575833412399646</v>
       </c>
       <c r="AG105" t="n" s="87">
-        <v>0.25419680200617356</v>
+        <v>0.2545908987975044</v>
       </c>
       <c r="AH105" t="n" s="87">
         <v>0.41946027274563624</v>
       </c>
       <c r="AI105" t="n" s="87">
-        <v>0.36963864599256485</v>
+        <v>0.3701228978741714</v>
       </c>
       <c r="AJ105" t="n" s="87">
         <v>0.9990041798783298</v>
       </c>
       <c r="AK105" t="n" s="87">
-        <v>0.9998508899732077</v>
+        <v>0.999850309911436</v>
       </c>
       <c r="AL105" t="n" s="87">
-        <v>0.9991772889358141</v>
+        <v>0.9991688501384227</v>
       </c>
       <c r="AM105" t="n" s="87">
         <v>0.9987844676551401</v>
       </c>
       <c r="AN105" t="n" s="87">
-        <v>0.9998116140432493</v>
+        <v>0.9998135925782012</v>
       </c>
       <c r="AO105" t="n" s="87">
-        <v>0.9994827162387522</v>
+        <v>0.9994958041813575</v>
       </c>
       <c r="AP105" t="n" s="87">
         <v>0.8164231507950409</v>
       </c>
       <c r="AQ105" t="n" s="87">
-        <v>0.8901148595582313</v>
+        <v>0.890054612659667</v>
       </c>
       <c r="AR105" t="n" s="87">
-        <v>0.4460825122689838</v>
-      </c>
-      <c r="AS105" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.45137995372180006</v>
+      </c>
+      <c r="AS105" s="87"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -14782,10 +14576,10 @@
         <v>1.0</v>
       </c>
       <c r="J106" t="n" s="87">
-        <v>0.5292918299563892</v>
+        <v>0.5292352415385446</v>
       </c>
       <c r="K106" t="n" s="87">
-        <v>0.5292918299563892</v>
+        <v>0.5292352415385446</v>
       </c>
       <c r="L106" t="n" s="87">
         <v>0.4409439625369919</v>
@@ -14815,16 +14609,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U106" t="n" s="87">
-        <v>0.3065636984002855</v>
+        <v>0.3066130316700534</v>
       </c>
       <c r="V106" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W106" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="X106" t="n" s="87">
-        <v>0.3116018968306582</v>
+        <v>0.311651676482046</v>
       </c>
       <c r="Y106" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -14839,16 +14633,16 @@
         <v>0.4710973461964778</v>
       </c>
       <c r="AC106" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.35583868176366007</v>
       </c>
       <c r="AD106" t="n" s="87">
-        <v>0.3553625748857664</v>
+        <v>0.3558386817636602</v>
       </c>
       <c r="AE106" t="n" s="87">
-        <v>0.33066340940044403</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AF106" t="n" s="87">
-        <v>0.330663409400444</v>
+        <v>0.33112342255710003</v>
       </c>
       <c r="AG106" t="n" s="87">
         <v>1.0</v>
@@ -14857,38 +14651,36 @@
         <v>0.4282959160201773</v>
       </c>
       <c r="AI106" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ106" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK106" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL106" t="n" s="87">
-        <v>0.8540871750613294</v>
+        <v>0.8587448170994975</v>
       </c>
       <c r="AM106" t="n" s="87">
         <v>0.9985392405945626</v>
       </c>
       <c r="AN106" t="n" s="87">
-        <v>0.9983046343181067</v>
+        <v>0.9982941455693518</v>
       </c>
       <c r="AO106" t="n" s="87">
-        <v>0.9223680275595959</v>
+        <v>0.9232030168073817</v>
       </c>
       <c r="AP106" t="n" s="87">
         <v>0.9134538169389822</v>
       </c>
       <c r="AQ106" t="n" s="87">
-        <v>0.9679263248078602</v>
+        <v>0.967904266273011</v>
       </c>
       <c r="AR106" t="n" s="87">
-        <v>0.009135738194599983</v>
-      </c>
-      <c r="AS106" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.008821486950218971</v>
+      </c>
+      <c r="AS106" s="87"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -14949,10 +14741,10 @@
         <v>0.4221084469142438</v>
       </c>
       <c r="W107" t="n" s="87">
-        <v>0.30956609047230943</v>
+        <v>0.3096156911709522</v>
       </c>
       <c r="X107" t="n" s="87">
-        <v>0.30956609047230943</v>
+        <v>0.3096156911709522</v>
       </c>
       <c r="Y107" t="n" s="87">
         <v>0.49821377345635</v>
@@ -14967,25 +14759,25 @@
         <v>0.48174638291331506</v>
       </c>
       <c r="AC107" t="n" s="87">
-        <v>0.35318754955154885</v>
+        <v>0.353662341091421</v>
       </c>
       <c r="AD107" t="n" s="87">
-        <v>0.3531875495515489</v>
+        <v>0.353662341091421</v>
       </c>
       <c r="AE107" t="n" s="87">
-        <v>0.32856250645913515</v>
+        <v>0.3290210335866087</v>
       </c>
       <c r="AF107" t="n" s="87">
-        <v>0.3285625064591351</v>
+        <v>0.32902103358660867</v>
       </c>
       <c r="AG107" t="n" s="87">
-        <v>0.2725360078159105</v>
+        <v>0.27294813134522616</v>
       </c>
       <c r="AH107" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI107" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ107" t="n" s="87">
         <v>0.9985463426833306</v>
@@ -15009,14 +14801,12 @@
         <v>0.9968691165356075</v>
       </c>
       <c r="AQ107" t="n" s="87">
-        <v>0.9993143690123207</v>
+        <v>0.999313887510452</v>
       </c>
       <c r="AR107" t="n" s="87">
-        <v>0.860286177356482</v>
-      </c>
-      <c r="AS107" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8600118114251735</v>
+      </c>
+      <c r="AS107" s="87"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -15038,10 +14828,10 @@
         <v>1.0</v>
       </c>
       <c r="J108" t="n" s="87">
-        <v>0.9793910433625038</v>
+        <v>0.9793885645271341</v>
       </c>
       <c r="K108" t="n" s="87">
-        <v>0.9793910433625038</v>
+        <v>0.9793885645271341</v>
       </c>
       <c r="L108" t="n" s="87">
         <v>1.0</v>
@@ -15077,10 +14867,10 @@
         <v>0.4209588706031546</v>
       </c>
       <c r="W108" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="X108" t="n" s="87">
-        <v>0.33240109602447315</v>
+        <v>0.33242661218356445</v>
       </c>
       <c r="Y108" t="n" s="87">
         <v>0.48049929023728916</v>
@@ -15095,13 +14885,13 @@
         <v>0.4646898084536079</v>
       </c>
       <c r="AC108" t="n" s="87">
-        <v>0.3714443350545217</v>
+        <v>0.371719345489888</v>
       </c>
       <c r="AD108" t="n" s="87">
         <v>1.0</v>
       </c>
       <c r="AE108" t="n" s="87">
-        <v>0.3491616439798356</v>
+        <v>0.3494293281920188</v>
       </c>
       <c r="AF108" t="n" s="87">
         <v>1.0</v>
@@ -15113,22 +14903,22 @@
         <v>0.4231708885467496</v>
       </c>
       <c r="AI108" t="n" s="87">
-        <v>0.3726690382228691</v>
+        <v>0.3729444174001368</v>
       </c>
       <c r="AJ108" t="n" s="87">
         <v>0.9989694203481638</v>
       </c>
       <c r="AK108" t="n" s="87">
-        <v>0.9999966568747249</v>
+        <v>0.9999964375452923</v>
       </c>
       <c r="AL108" t="n" s="87">
-        <v>0.9999999999780882</v>
+        <v>0.9999999999769367</v>
       </c>
       <c r="AM108" t="n" s="87">
         <v>0.9998596938912766</v>
       </c>
       <c r="AN108" t="n" s="87">
-        <v>0.9999999999988319</v>
+        <v>0.9999999999988947</v>
       </c>
       <c r="AO108" t="n" s="87">
         <v>1.0</v>
@@ -15137,14 +14927,12 @@
         <v>0.9996901051293803</v>
       </c>
       <c r="AQ108" t="n" s="87">
-        <v>0.999999999991327</v>
+        <v>0.9999999999917925</v>
       </c>
       <c r="AR108" t="n" s="87">
-        <v>0.9999999999874023</v>
-      </c>
-      <c r="AS108" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.9999999999882877</v>
+      </c>
+      <c r="AS108" s="87"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -15166,10 +14954,10 @@
         <v>1.0</v>
       </c>
       <c r="J109" t="n" s="87">
-        <v>0.20913500677974683</v>
+        <v>0.2090974422348091</v>
       </c>
       <c r="K109" t="n" s="87">
-        <v>0.2091350067797468</v>
+        <v>0.20909744223480908</v>
       </c>
       <c r="L109" t="n" s="87">
         <v>1.0</v>
@@ -15199,16 +14987,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U109" t="n" s="87">
-        <v>0.2980831113694036</v>
+        <v>0.298131666655606</v>
       </c>
       <c r="V109" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W109" t="n" s="87">
-        <v>0.3030428447212599</v>
+        <v>0.30309185905132996</v>
       </c>
       <c r="X109" t="n" s="87">
-        <v>0.3030428447212599</v>
+        <v>0.30309185905132996</v>
       </c>
       <c r="Y109" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -15223,56 +15011,54 @@
         <v>0.4610917027033609</v>
       </c>
       <c r="AC109" t="n" s="87">
-        <v>0.34620602002014167</v>
+        <v>0.3466764565628544</v>
       </c>
       <c r="AD109" t="n" s="87">
-        <v>0.34620602002014167</v>
+        <v>0.3466764565628544</v>
       </c>
       <c r="AE109" t="n" s="87">
-        <v>0.3218255505844971</v>
+        <v>0.3222791886277111</v>
       </c>
       <c r="AF109" t="n" s="87">
-        <v>0.3218255505844971</v>
+        <v>0.32227918862771104</v>
       </c>
       <c r="AG109" t="n" s="87">
-        <v>0.2511971990264284</v>
+        <v>0.2515882141326497</v>
       </c>
       <c r="AH109" t="n" s="87">
         <v>0.41848006318594666</v>
       </c>
       <c r="AI109" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ109" t="n" s="87">
         <v>0.998024825928638</v>
       </c>
       <c r="AK109" t="n" s="87">
-        <v>0.9924577030396319</v>
+        <v>0.9927067305120474</v>
       </c>
       <c r="AL109" t="n" s="87">
-        <v>0.7186534484326591</v>
+        <v>0.7272151904029599</v>
       </c>
       <c r="AM109" t="n" s="87">
         <v>0.9872301877353943</v>
       </c>
       <c r="AN109" t="n" s="87">
-        <v>0.9732536357134434</v>
+        <v>0.9732194913218422</v>
       </c>
       <c r="AO109" t="n" s="87">
-        <v>0.516185942880121</v>
+        <v>0.5209302959708506</v>
       </c>
       <c r="AP109" t="n" s="87">
         <v>0.6108942202140283</v>
       </c>
       <c r="AQ109" t="n" s="87">
-        <v>0.3516337613152049</v>
+        <v>0.35147355303684463</v>
       </c>
       <c r="AR109" t="n" s="87">
-        <v>5.378289346426891E-6</v>
-      </c>
-      <c r="AS109" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>5.183875916073598E-6</v>
+      </c>
+      <c r="AS109" s="87"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -15294,7 +15080,7 @@
         <v>1.0</v>
       </c>
       <c r="J110" t="n" s="87">
-        <v>0.43806594998142706</v>
+        <v>0.43801003908279523</v>
       </c>
       <c r="K110" t="n" s="87">
         <v>1.0</v>
@@ -15327,16 +15113,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U110" t="n" s="87">
-        <v>0.30315065352807863</v>
+        <v>0.30318961516583653</v>
       </c>
       <c r="V110" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W110" t="n" s="87">
-        <v>0.3081576871207397</v>
+        <v>0.30819700766521674</v>
       </c>
       <c r="X110" t="n" s="87">
-        <v>0.3081576871207397</v>
+        <v>0.30819700766521674</v>
       </c>
       <c r="Y110" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -15351,56 +15137,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC110" t="n" s="87">
-        <v>0.34881007039422085</v>
+        <v>0.3491992677597837</v>
       </c>
       <c r="AD110" t="n" s="87">
-        <v>0.34881007039422096</v>
+        <v>0.3491992677597837</v>
       </c>
       <c r="AE110" t="n" s="87">
-        <v>0.3271784183200361</v>
+        <v>0.32755562021069157</v>
       </c>
       <c r="AF110" t="n" s="87">
-        <v>0.327178418320036</v>
+        <v>0.32755562021069157</v>
       </c>
       <c r="AG110" t="n" s="87">
-        <v>0.25581845226337513</v>
+        <v>0.2561447042542107</v>
       </c>
       <c r="AH110" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI110" t="n" s="87">
-        <v>0.37158062152895593</v>
+        <v>0.3719807126216904</v>
       </c>
       <c r="AJ110" t="n" s="87">
         <v>0.9988024893306368</v>
       </c>
       <c r="AK110" t="n" s="87">
-        <v>0.999700050846525</v>
+        <v>0.9997093927203531</v>
       </c>
       <c r="AL110" t="n" s="87">
-        <v>0.9991937821602173</v>
+        <v>0.9992068750349543</v>
       </c>
       <c r="AM110" t="n" s="87">
         <v>0.9989315968651797</v>
       </c>
       <c r="AN110" t="n" s="87">
-        <v>0.9999619714821767</v>
+        <v>0.9999614744537199</v>
       </c>
       <c r="AO110" t="n" s="87">
-        <v>0.9999382893529795</v>
+        <v>0.9999381688620136</v>
       </c>
       <c r="AP110" t="n" s="87">
         <v>0.8534041604790245</v>
       </c>
       <c r="AQ110" t="n" s="87">
-        <v>0.9444150738841555</v>
+        <v>0.9443811826972405</v>
       </c>
       <c r="AR110" t="n" s="87">
-        <v>0.8852202248175355</v>
-      </c>
-      <c r="AS110" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>0.8838334487775513</v>
+      </c>
+      <c r="AS110" s="87"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -15455,16 +15239,16 @@
         <v>0.3981502048046473</v>
       </c>
       <c r="U111" t="n" s="87">
-        <v>0.2987444926886987</v>
+        <v>0.2987931098482747</v>
       </c>
       <c r="V111" t="n" s="87">
         <v>0.4013242131478813</v>
       </c>
       <c r="W111" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="X111" t="n" s="87">
-        <v>0.30371046907091387</v>
+        <v>0.3037595443204366</v>
       </c>
       <c r="Y111" t="n" s="87">
         <v>0.4782917893719828</v>
@@ -15479,56 +15263,54 @@
         <v>0.46187677077522776</v>
       </c>
       <c r="AC111" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076665</v>
       </c>
       <c r="AD111" t="n" s="87">
-        <v>0.34692140255817516</v>
+        <v>0.34739229467076677</v>
       </c>
       <c r="AE111" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.32296955357061796</v>
       </c>
       <c r="AF111" t="n" s="87">
-        <v>0.3225154062144993</v>
+        <v>0.3229695535706179</v>
       </c>
       <c r="AG111" t="n" s="87">
-        <v>0.2517918682803045</v>
+        <v>0.25218349730452244</v>
       </c>
       <c r="AH111" t="n" s="87">
         <v>0.41924902184350565</v>
       </c>
       <c r="AI111" t="n" s="87">
-        <v>0.36662961751250617</v>
+        <v>0.3671122231372032</v>
       </c>
       <c r="AJ111" t="n" s="87">
         <v>0.9987096606479622</v>
       </c>
       <c r="AK111" t="n" s="87">
-        <v>0.998722902358062</v>
+        <v>0.9987729480036202</v>
       </c>
       <c r="AL111" t="n" s="87">
-        <v>0.8453306498321572</v>
+        <v>0.8503438456735428</v>
       </c>
       <c r="AM111" t="n" s="87">
         <v>0.9979791884546451</v>
       </c>
       <c r="AN111" t="n" s="87">
-        <v>0.9969577727517127</v>
+        <v>0.9969419732672697</v>
       </c>
       <c r="AO111" t="n" s="87">
-        <v>0.9132459561665087</v>
+        <v>0.9141704144724774</v>
       </c>
       <c r="AP111" t="n" s="87">
         <v>0.7553492352203801</v>
       </c>
       <c r="AQ111" t="n" s="87">
-        <v>0.7980003864940732</v>
+        <v>0.7978868606199131</v>
       </c>
       <c r="AR111" t="n" s="87">
-        <v>4.528796951378493E-4</v>
-      </c>
-      <c r="AS111" t="n" s="87">
-        <v>0.5</v>
-      </c>
+        <v>4.370129584914067E-4</v>
+      </c>
+      <c r="AS111" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
